--- a/BackTest/2019-10-29 BackTest RDN.xlsx
+++ b/BackTest/2019-10-29 BackTest RDN.xlsx
@@ -1679,7 +1679,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
@@ -1714,7 +1714,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
@@ -1749,7 +1749,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
@@ -1784,7 +1784,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
@@ -1819,7 +1819,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
@@ -1854,7 +1854,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
@@ -5001,13 +5001,17 @@
         <v>185.2</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I132" t="n">
         <v>0</v>
       </c>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>186</v>
+      </c>
+      <c r="K132" t="n">
+        <v>186</v>
+      </c>
       <c r="L132" t="inlineStr"/>
       <c r="M132" t="n">
         <v>1</v>
@@ -5036,14 +5040,22 @@
         <v>185.35</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I133" t="n">
         <v>0</v>
       </c>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>186</v>
+      </c>
+      <c r="K133" t="n">
+        <v>186</v>
+      </c>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M133" t="n">
         <v>1</v>
       </c>
@@ -5071,14 +5083,22 @@
         <v>185.3</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I134" t="n">
         <v>0</v>
       </c>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>186</v>
+      </c>
+      <c r="K134" t="n">
+        <v>186</v>
+      </c>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M134" t="n">
         <v>1</v>
       </c>
@@ -5141,13 +5161,17 @@
         <v>185.2</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I136" t="n">
         <v>0</v>
       </c>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>186</v>
+      </c>
+      <c r="K136" t="n">
+        <v>186</v>
+      </c>
       <c r="L136" t="inlineStr"/>
       <c r="M136" t="n">
         <v>1</v>
@@ -5182,8 +5206,14 @@
         <v>0</v>
       </c>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>186</v>
+      </c>
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M137" t="n">
         <v>1</v>
       </c>
@@ -5217,8 +5247,14 @@
         <v>0</v>
       </c>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>186</v>
+      </c>
+      <c r="L138" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M138" t="n">
         <v>1</v>
       </c>
@@ -5456,13 +5492,17 @@
         <v>185.5</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I145" t="n">
         <v>0</v>
       </c>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>185</v>
+      </c>
+      <c r="K145" t="n">
+        <v>185</v>
+      </c>
       <c r="L145" t="inlineStr"/>
       <c r="M145" t="n">
         <v>1</v>
@@ -5491,14 +5531,22 @@
         <v>185.45</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I146" t="n">
         <v>0</v>
       </c>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>185</v>
+      </c>
+      <c r="K146" t="n">
+        <v>185</v>
+      </c>
+      <c r="L146" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M146" t="n">
         <v>1</v>
       </c>
@@ -5526,14 +5574,22 @@
         <v>185.35</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I147" t="n">
         <v>0</v>
       </c>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>184</v>
+      </c>
+      <c r="K147" t="n">
+        <v>185</v>
+      </c>
+      <c r="L147" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M147" t="n">
         <v>1</v>
       </c>
@@ -5561,14 +5617,22 @@
         <v>185.25</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I148" t="n">
         <v>0</v>
       </c>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>183</v>
+      </c>
+      <c r="K148" t="n">
+        <v>185</v>
+      </c>
+      <c r="L148" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M148" t="n">
         <v>1</v>
       </c>
@@ -5596,14 +5660,22 @@
         <v>185.15</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I149" t="n">
         <v>0</v>
       </c>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>182</v>
+      </c>
+      <c r="K149" t="n">
+        <v>185</v>
+      </c>
+      <c r="L149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M149" t="n">
         <v>1</v>
       </c>
@@ -5631,14 +5703,22 @@
         <v>185</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I150" t="n">
         <v>0</v>
       </c>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>184</v>
+      </c>
+      <c r="K150" t="n">
+        <v>185</v>
+      </c>
+      <c r="L150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M150" t="n">
         <v>1</v>
       </c>
@@ -5672,8 +5752,14 @@
         <v>0</v>
       </c>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>185</v>
+      </c>
+      <c r="L151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M151" t="n">
         <v>1</v>
       </c>
@@ -5707,8 +5793,14 @@
         <v>0</v>
       </c>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>185</v>
+      </c>
+      <c r="L152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M152" t="n">
         <v>1</v>
       </c>
@@ -5736,18 +5828,20 @@
         <v>184.5</v>
       </c>
       <c r="H153" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I153" t="n">
         <v>0</v>
       </c>
-      <c r="J153" t="n">
-        <v>182</v>
-      </c>
+      <c r="J153" t="inlineStr"/>
       <c r="K153" t="n">
-        <v>182</v>
-      </c>
-      <c r="L153" t="inlineStr"/>
+        <v>185</v>
+      </c>
+      <c r="L153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M153" t="n">
         <v>1</v>
       </c>
@@ -5775,20 +5869,18 @@
         <v>184.3</v>
       </c>
       <c r="H154" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I154" t="n">
         <v>0</v>
       </c>
-      <c r="J154" t="n">
-        <v>182</v>
-      </c>
+      <c r="J154" t="inlineStr"/>
       <c r="K154" t="n">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="L154" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M154" t="n">
@@ -5818,20 +5910,18 @@
         <v>184.15</v>
       </c>
       <c r="H155" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I155" t="n">
         <v>0</v>
       </c>
-      <c r="J155" t="n">
-        <v>183</v>
-      </c>
+      <c r="J155" t="inlineStr"/>
       <c r="K155" t="n">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="L155" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M155" t="n">
@@ -5861,18 +5951,20 @@
         <v>184</v>
       </c>
       <c r="H156" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I156" t="n">
         <v>0</v>
       </c>
-      <c r="J156" t="n">
-        <v>183</v>
-      </c>
+      <c r="J156" t="inlineStr"/>
       <c r="K156" t="n">
-        <v>183</v>
-      </c>
-      <c r="L156" t="inlineStr"/>
+        <v>185</v>
+      </c>
+      <c r="L156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M156" t="n">
         <v>1</v>
       </c>
@@ -5900,20 +5992,18 @@
         <v>183.8</v>
       </c>
       <c r="H157" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I157" t="n">
         <v>0</v>
       </c>
-      <c r="J157" t="n">
-        <v>183</v>
-      </c>
+      <c r="J157" t="inlineStr"/>
       <c r="K157" t="n">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="L157" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M157" t="n">
@@ -5943,20 +6033,18 @@
         <v>183.75</v>
       </c>
       <c r="H158" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I158" t="n">
         <v>0</v>
       </c>
-      <c r="J158" t="n">
-        <v>184</v>
-      </c>
+      <c r="J158" t="inlineStr"/>
       <c r="K158" t="n">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="L158" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M158" t="n">
@@ -5986,20 +6074,18 @@
         <v>183.65</v>
       </c>
       <c r="H159" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I159" t="n">
         <v>0</v>
       </c>
-      <c r="J159" t="n">
-        <v>184</v>
-      </c>
+      <c r="J159" t="inlineStr"/>
       <c r="K159" t="n">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="L159" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M159" t="n">
@@ -6029,16 +6115,14 @@
         <v>183.55</v>
       </c>
       <c r="H160" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I160" t="n">
         <v>0</v>
       </c>
-      <c r="J160" t="n">
-        <v>184</v>
-      </c>
+      <c r="J160" t="inlineStr"/>
       <c r="K160" t="n">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="L160" t="inlineStr">
         <is>
@@ -6072,16 +6156,14 @@
         <v>183.5</v>
       </c>
       <c r="H161" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I161" t="n">
         <v>0</v>
       </c>
-      <c r="J161" t="n">
-        <v>184</v>
-      </c>
+      <c r="J161" t="inlineStr"/>
       <c r="K161" t="n">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="L161" t="inlineStr">
         <is>
@@ -6115,16 +6197,14 @@
         <v>183.45</v>
       </c>
       <c r="H162" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I162" t="n">
         <v>0</v>
       </c>
-      <c r="J162" t="n">
-        <v>184</v>
-      </c>
+      <c r="J162" t="inlineStr"/>
       <c r="K162" t="n">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="L162" t="inlineStr">
         <is>
@@ -6158,16 +6238,14 @@
         <v>183.4</v>
       </c>
       <c r="H163" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I163" t="n">
         <v>0</v>
       </c>
-      <c r="J163" t="n">
-        <v>184</v>
-      </c>
+      <c r="J163" t="inlineStr"/>
       <c r="K163" t="n">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="L163" t="inlineStr">
         <is>
@@ -6201,16 +6279,14 @@
         <v>183.35</v>
       </c>
       <c r="H164" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I164" t="n">
         <v>0</v>
       </c>
-      <c r="J164" t="n">
-        <v>184</v>
-      </c>
+      <c r="J164" t="inlineStr"/>
       <c r="K164" t="n">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="L164" t="inlineStr">
         <is>
@@ -6244,16 +6320,14 @@
         <v>183.3</v>
       </c>
       <c r="H165" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I165" t="n">
         <v>0</v>
       </c>
-      <c r="J165" t="n">
-        <v>184</v>
-      </c>
+      <c r="J165" t="inlineStr"/>
       <c r="K165" t="n">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="L165" t="inlineStr">
         <is>
@@ -6287,16 +6361,14 @@
         <v>183.3</v>
       </c>
       <c r="H166" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I166" t="n">
         <v>0</v>
       </c>
-      <c r="J166" t="n">
-        <v>184</v>
-      </c>
+      <c r="J166" t="inlineStr"/>
       <c r="K166" t="n">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="L166" t="inlineStr">
         <is>
@@ -6330,16 +6402,14 @@
         <v>183.3</v>
       </c>
       <c r="H167" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I167" t="n">
         <v>0</v>
       </c>
-      <c r="J167" t="n">
-        <v>183</v>
-      </c>
+      <c r="J167" t="inlineStr"/>
       <c r="K167" t="n">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="L167" t="inlineStr">
         <is>
@@ -6373,16 +6443,14 @@
         <v>183.3</v>
       </c>
       <c r="H168" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I168" t="n">
         <v>0</v>
       </c>
-      <c r="J168" t="n">
-        <v>183</v>
-      </c>
+      <c r="J168" t="inlineStr"/>
       <c r="K168" t="n">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="L168" t="inlineStr">
         <is>
@@ -6416,16 +6484,14 @@
         <v>183.3</v>
       </c>
       <c r="H169" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I169" t="n">
         <v>0</v>
       </c>
-      <c r="J169" t="n">
-        <v>183</v>
-      </c>
+      <c r="J169" t="inlineStr"/>
       <c r="K169" t="n">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="L169" t="inlineStr">
         <is>
@@ -6459,16 +6525,14 @@
         <v>183.5</v>
       </c>
       <c r="H170" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I170" t="n">
         <v>0</v>
       </c>
-      <c r="J170" t="n">
-        <v>186</v>
-      </c>
+      <c r="J170" t="inlineStr"/>
       <c r="K170" t="n">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="L170" t="inlineStr">
         <is>
@@ -6502,16 +6566,14 @@
         <v>183.65</v>
       </c>
       <c r="H171" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I171" t="n">
         <v>0</v>
       </c>
-      <c r="J171" t="n">
-        <v>186</v>
-      </c>
+      <c r="J171" t="inlineStr"/>
       <c r="K171" t="n">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="L171" t="inlineStr">
         <is>
@@ -6545,16 +6607,14 @@
         <v>183.75</v>
       </c>
       <c r="H172" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I172" t="n">
         <v>0</v>
       </c>
-      <c r="J172" t="n">
-        <v>185</v>
-      </c>
+      <c r="J172" t="inlineStr"/>
       <c r="K172" t="n">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="L172" t="inlineStr">
         <is>
@@ -6588,16 +6648,14 @@
         <v>184.05</v>
       </c>
       <c r="H173" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I173" t="n">
         <v>0</v>
       </c>
-      <c r="J173" t="n">
-        <v>188</v>
-      </c>
+      <c r="J173" t="inlineStr"/>
       <c r="K173" t="n">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="L173" t="inlineStr">
         <is>
@@ -6631,16 +6689,14 @@
         <v>184.35</v>
       </c>
       <c r="H174" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I174" t="n">
         <v>0</v>
       </c>
-      <c r="J174" t="n">
-        <v>188</v>
-      </c>
+      <c r="J174" t="inlineStr"/>
       <c r="K174" t="n">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="L174" t="inlineStr">
         <is>
@@ -6674,16 +6730,14 @@
         <v>184.65</v>
       </c>
       <c r="H175" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I175" t="n">
         <v>0</v>
       </c>
-      <c r="J175" t="n">
-        <v>189</v>
-      </c>
+      <c r="J175" t="inlineStr"/>
       <c r="K175" t="n">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="L175" t="inlineStr">
         <is>
@@ -6724,7 +6778,7 @@
       </c>
       <c r="J176" t="inlineStr"/>
       <c r="K176" t="n">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="L176" t="inlineStr">
         <is>
@@ -6765,7 +6819,7 @@
       </c>
       <c r="J177" t="inlineStr"/>
       <c r="K177" t="n">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="L177" t="inlineStr">
         <is>
@@ -6806,7 +6860,7 @@
       </c>
       <c r="J178" t="inlineStr"/>
       <c r="K178" t="n">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="L178" t="inlineStr">
         <is>
@@ -6847,7 +6901,7 @@
       </c>
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="n">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="L179" t="inlineStr">
         <is>
@@ -6888,7 +6942,7 @@
       </c>
       <c r="J180" t="inlineStr"/>
       <c r="K180" t="n">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="L180" t="inlineStr">
         <is>
@@ -6929,7 +6983,7 @@
       </c>
       <c r="J181" t="inlineStr"/>
       <c r="K181" t="n">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="L181" t="inlineStr">
         <is>
@@ -6970,7 +7024,7 @@
       </c>
       <c r="J182" t="inlineStr"/>
       <c r="K182" t="n">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="L182" t="inlineStr">
         <is>
@@ -7011,7 +7065,7 @@
       </c>
       <c r="J183" t="inlineStr"/>
       <c r="K183" t="n">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="L183" t="inlineStr">
         <is>
@@ -7052,7 +7106,7 @@
       </c>
       <c r="J184" t="inlineStr"/>
       <c r="K184" t="n">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="L184" t="inlineStr">
         <is>
@@ -7093,7 +7147,7 @@
       </c>
       <c r="J185" t="inlineStr"/>
       <c r="K185" t="n">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="L185" t="inlineStr">
         <is>
@@ -7134,7 +7188,7 @@
       </c>
       <c r="J186" t="inlineStr"/>
       <c r="K186" t="n">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="L186" t="inlineStr">
         <is>
@@ -7175,7 +7229,7 @@
       </c>
       <c r="J187" t="inlineStr"/>
       <c r="K187" t="n">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="L187" t="inlineStr">
         <is>
@@ -7216,7 +7270,7 @@
       </c>
       <c r="J188" t="inlineStr"/>
       <c r="K188" t="n">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="L188" t="inlineStr">
         <is>
@@ -7257,7 +7311,7 @@
       </c>
       <c r="J189" t="inlineStr"/>
       <c r="K189" t="n">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="L189" t="inlineStr">
         <is>
@@ -7298,7 +7352,7 @@
       </c>
       <c r="J190" t="inlineStr"/>
       <c r="K190" t="n">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="L190" t="inlineStr">
         <is>
@@ -7339,7 +7393,7 @@
       </c>
       <c r="J191" t="inlineStr"/>
       <c r="K191" t="n">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="L191" t="inlineStr">
         <is>
@@ -7380,7 +7434,7 @@
       </c>
       <c r="J192" t="inlineStr"/>
       <c r="K192" t="n">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="L192" t="inlineStr">
         <is>
@@ -7421,7 +7475,7 @@
       </c>
       <c r="J193" t="inlineStr"/>
       <c r="K193" t="n">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="L193" t="inlineStr">
         <is>
@@ -7462,7 +7516,7 @@
       </c>
       <c r="J194" t="inlineStr"/>
       <c r="K194" t="n">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="L194" t="inlineStr">
         <is>
@@ -7503,7 +7557,7 @@
       </c>
       <c r="J195" t="inlineStr"/>
       <c r="K195" t="n">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="L195" t="inlineStr">
         <is>
@@ -7544,7 +7598,7 @@
       </c>
       <c r="J196" t="inlineStr"/>
       <c r="K196" t="n">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="L196" t="inlineStr">
         <is>
@@ -7585,7 +7639,7 @@
       </c>
       <c r="J197" t="inlineStr"/>
       <c r="K197" t="n">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="L197" t="inlineStr">
         <is>
@@ -7626,7 +7680,7 @@
       </c>
       <c r="J198" t="inlineStr"/>
       <c r="K198" t="n">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="L198" t="inlineStr">
         <is>
@@ -7667,7 +7721,7 @@
       </c>
       <c r="J199" t="inlineStr"/>
       <c r="K199" t="n">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="L199" t="inlineStr">
         <is>
@@ -7708,7 +7762,7 @@
       </c>
       <c r="J200" t="inlineStr"/>
       <c r="K200" t="n">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="L200" t="inlineStr">
         <is>
@@ -7749,7 +7803,7 @@
       </c>
       <c r="J201" t="inlineStr"/>
       <c r="K201" t="n">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="L201" t="inlineStr">
         <is>
@@ -7790,7 +7844,7 @@
       </c>
       <c r="J202" t="inlineStr"/>
       <c r="K202" t="n">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="L202" t="inlineStr">
         <is>
@@ -7831,7 +7885,7 @@
       </c>
       <c r="J203" t="inlineStr"/>
       <c r="K203" t="n">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="L203" t="inlineStr">
         <is>
@@ -7872,7 +7926,7 @@
       </c>
       <c r="J204" t="inlineStr"/>
       <c r="K204" t="n">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="L204" t="inlineStr">
         <is>
@@ -7913,7 +7967,7 @@
       </c>
       <c r="J205" t="inlineStr"/>
       <c r="K205" t="n">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="L205" t="inlineStr">
         <is>
@@ -7954,7 +8008,7 @@
       </c>
       <c r="J206" t="inlineStr"/>
       <c r="K206" t="n">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="L206" t="inlineStr">
         <is>
@@ -7995,7 +8049,7 @@
       </c>
       <c r="J207" t="inlineStr"/>
       <c r="K207" t="n">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="L207" t="inlineStr">
         <is>
@@ -8036,7 +8090,7 @@
       </c>
       <c r="J208" t="inlineStr"/>
       <c r="K208" t="n">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="L208" t="inlineStr">
         <is>
@@ -8077,7 +8131,7 @@
       </c>
       <c r="J209" t="inlineStr"/>
       <c r="K209" t="n">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="L209" t="inlineStr">
         <is>
@@ -8118,7 +8172,7 @@
       </c>
       <c r="J210" t="inlineStr"/>
       <c r="K210" t="n">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="L210" t="inlineStr">
         <is>
@@ -8159,7 +8213,7 @@
       </c>
       <c r="J211" t="inlineStr"/>
       <c r="K211" t="n">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="L211" t="inlineStr">
         <is>
@@ -8200,7 +8254,7 @@
       </c>
       <c r="J212" t="inlineStr"/>
       <c r="K212" t="n">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="L212" t="inlineStr">
         <is>
@@ -8241,7 +8295,7 @@
       </c>
       <c r="J213" t="inlineStr"/>
       <c r="K213" t="n">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="L213" t="inlineStr">
         <is>
@@ -8282,7 +8336,7 @@
       </c>
       <c r="J214" t="inlineStr"/>
       <c r="K214" t="n">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="L214" t="inlineStr">
         <is>
@@ -8323,7 +8377,7 @@
       </c>
       <c r="J215" t="inlineStr"/>
       <c r="K215" t="n">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="L215" t="inlineStr">
         <is>
@@ -8364,7 +8418,7 @@
       </c>
       <c r="J216" t="inlineStr"/>
       <c r="K216" t="n">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="L216" t="inlineStr">
         <is>
@@ -8405,7 +8459,7 @@
       </c>
       <c r="J217" t="inlineStr"/>
       <c r="K217" t="n">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="L217" t="inlineStr">
         <is>
@@ -8446,7 +8500,7 @@
       </c>
       <c r="J218" t="inlineStr"/>
       <c r="K218" t="n">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="L218" t="inlineStr">
         <is>
@@ -8487,7 +8541,7 @@
       </c>
       <c r="J219" t="inlineStr"/>
       <c r="K219" t="n">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="L219" t="inlineStr">
         <is>
@@ -8528,7 +8582,7 @@
       </c>
       <c r="J220" t="inlineStr"/>
       <c r="K220" t="n">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="L220" t="inlineStr">
         <is>
@@ -8569,7 +8623,7 @@
       </c>
       <c r="J221" t="inlineStr"/>
       <c r="K221" t="n">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="L221" t="inlineStr">
         <is>
@@ -8610,7 +8664,7 @@
       </c>
       <c r="J222" t="inlineStr"/>
       <c r="K222" t="n">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="L222" t="inlineStr">
         <is>
@@ -8651,7 +8705,7 @@
       </c>
       <c r="J223" t="inlineStr"/>
       <c r="K223" t="n">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="L223" t="inlineStr">
         <is>
@@ -8692,7 +8746,7 @@
       </c>
       <c r="J224" t="inlineStr"/>
       <c r="K224" t="n">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="L224" t="inlineStr">
         <is>
@@ -8733,7 +8787,7 @@
       </c>
       <c r="J225" t="inlineStr"/>
       <c r="K225" t="n">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="L225" t="inlineStr">
         <is>
@@ -8774,7 +8828,7 @@
       </c>
       <c r="J226" t="inlineStr"/>
       <c r="K226" t="n">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="L226" t="inlineStr">
         <is>
@@ -8815,7 +8869,7 @@
       </c>
       <c r="J227" t="inlineStr"/>
       <c r="K227" t="n">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="L227" t="inlineStr">
         <is>
@@ -8856,7 +8910,7 @@
       </c>
       <c r="J228" t="inlineStr"/>
       <c r="K228" t="n">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="L228" t="inlineStr">
         <is>
@@ -8897,7 +8951,7 @@
       </c>
       <c r="J229" t="inlineStr"/>
       <c r="K229" t="n">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="L229" t="inlineStr">
         <is>
@@ -8938,7 +8992,7 @@
       </c>
       <c r="J230" t="inlineStr"/>
       <c r="K230" t="n">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="L230" t="inlineStr">
         <is>
@@ -8979,7 +9033,7 @@
       </c>
       <c r="J231" t="inlineStr"/>
       <c r="K231" t="n">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="L231" t="inlineStr">
         <is>
@@ -9020,7 +9074,7 @@
       </c>
       <c r="J232" t="inlineStr"/>
       <c r="K232" t="n">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="L232" t="inlineStr">
         <is>
@@ -9061,7 +9115,7 @@
       </c>
       <c r="J233" t="inlineStr"/>
       <c r="K233" t="n">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="L233" t="inlineStr">
         <is>
@@ -9102,7 +9156,7 @@
       </c>
       <c r="J234" t="inlineStr"/>
       <c r="K234" t="n">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="L234" t="inlineStr">
         <is>
@@ -9143,7 +9197,7 @@
       </c>
       <c r="J235" t="inlineStr"/>
       <c r="K235" t="n">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="L235" t="inlineStr">
         <is>
@@ -9184,7 +9238,7 @@
       </c>
       <c r="J236" t="inlineStr"/>
       <c r="K236" t="n">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="L236" t="inlineStr">
         <is>
@@ -9225,7 +9279,7 @@
       </c>
       <c r="J237" t="inlineStr"/>
       <c r="K237" t="n">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="L237" t="inlineStr">
         <is>
@@ -9266,7 +9320,7 @@
       </c>
       <c r="J238" t="inlineStr"/>
       <c r="K238" t="n">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="L238" t="inlineStr">
         <is>
@@ -9307,7 +9361,7 @@
       </c>
       <c r="J239" t="inlineStr"/>
       <c r="K239" t="n">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="L239" t="inlineStr">
         <is>
@@ -9348,7 +9402,7 @@
       </c>
       <c r="J240" t="inlineStr"/>
       <c r="K240" t="n">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="L240" t="inlineStr">
         <is>
@@ -9389,7 +9443,7 @@
       </c>
       <c r="J241" t="inlineStr"/>
       <c r="K241" t="n">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="L241" t="inlineStr">
         <is>
@@ -9430,7 +9484,7 @@
       </c>
       <c r="J242" t="inlineStr"/>
       <c r="K242" t="n">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="L242" t="inlineStr">
         <is>
@@ -9471,7 +9525,7 @@
       </c>
       <c r="J243" t="inlineStr"/>
       <c r="K243" t="n">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="L243" t="inlineStr">
         <is>
@@ -9512,7 +9566,7 @@
       </c>
       <c r="J244" t="inlineStr"/>
       <c r="K244" t="n">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="L244" t="inlineStr">
         <is>
@@ -9553,7 +9607,7 @@
       </c>
       <c r="J245" t="inlineStr"/>
       <c r="K245" t="n">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="L245" t="inlineStr">
         <is>
@@ -9594,7 +9648,7 @@
       </c>
       <c r="J246" t="inlineStr"/>
       <c r="K246" t="n">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="L246" t="inlineStr">
         <is>
@@ -9635,7 +9689,7 @@
       </c>
       <c r="J247" t="inlineStr"/>
       <c r="K247" t="n">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="L247" t="inlineStr">
         <is>
@@ -9676,7 +9730,7 @@
       </c>
       <c r="J248" t="inlineStr"/>
       <c r="K248" t="n">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="L248" t="inlineStr">
         <is>
@@ -9717,7 +9771,7 @@
       </c>
       <c r="J249" t="inlineStr"/>
       <c r="K249" t="n">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="L249" t="inlineStr">
         <is>
@@ -9758,7 +9812,7 @@
       </c>
       <c r="J250" t="inlineStr"/>
       <c r="K250" t="n">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="L250" t="inlineStr">
         <is>
@@ -9799,7 +9853,7 @@
       </c>
       <c r="J251" t="inlineStr"/>
       <c r="K251" t="n">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="L251" t="inlineStr">
         <is>
@@ -9840,7 +9894,7 @@
       </c>
       <c r="J252" t="inlineStr"/>
       <c r="K252" t="n">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="L252" t="inlineStr">
         <is>
@@ -9874,14 +9928,16 @@
         <v>186.9</v>
       </c>
       <c r="H253" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I253" t="n">
         <v>0</v>
       </c>
-      <c r="J253" t="inlineStr"/>
+      <c r="J253" t="n">
+        <v>185</v>
+      </c>
       <c r="K253" t="n">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="L253" t="inlineStr">
         <is>
@@ -9915,14 +9971,16 @@
         <v>186.75</v>
       </c>
       <c r="H254" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I254" t="n">
         <v>0</v>
       </c>
-      <c r="J254" t="inlineStr"/>
+      <c r="J254" t="n">
+        <v>186</v>
+      </c>
       <c r="K254" t="n">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="L254" t="inlineStr">
         <is>
@@ -9956,14 +10014,16 @@
         <v>186.6</v>
       </c>
       <c r="H255" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I255" t="n">
         <v>0</v>
       </c>
-      <c r="J255" t="inlineStr"/>
+      <c r="J255" t="n">
+        <v>186</v>
+      </c>
       <c r="K255" t="n">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="L255" t="inlineStr">
         <is>
@@ -9997,14 +10057,16 @@
         <v>186.55</v>
       </c>
       <c r="H256" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I256" t="n">
         <v>0</v>
       </c>
-      <c r="J256" t="inlineStr"/>
+      <c r="J256" t="n">
+        <v>189</v>
+      </c>
       <c r="K256" t="n">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="L256" t="inlineStr">
         <is>
@@ -10038,14 +10100,16 @@
         <v>186.45</v>
       </c>
       <c r="H257" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I257" t="n">
         <v>0</v>
       </c>
-      <c r="J257" t="inlineStr"/>
+      <c r="J257" t="n">
+        <v>188</v>
+      </c>
       <c r="K257" t="n">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="L257" t="inlineStr">
         <is>
@@ -10079,14 +10143,16 @@
         <v>186.45</v>
       </c>
       <c r="H258" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I258" t="n">
         <v>0</v>
       </c>
-      <c r="J258" t="inlineStr"/>
+      <c r="J258" t="n">
+        <v>187</v>
+      </c>
       <c r="K258" t="n">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="L258" t="inlineStr">
         <is>
@@ -10127,7 +10193,7 @@
       </c>
       <c r="J259" t="inlineStr"/>
       <c r="K259" t="n">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="L259" t="inlineStr">
         <is>
@@ -10168,7 +10234,7 @@
       </c>
       <c r="J260" t="inlineStr"/>
       <c r="K260" t="n">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="L260" t="inlineStr">
         <is>
@@ -10209,7 +10275,7 @@
       </c>
       <c r="J261" t="inlineStr"/>
       <c r="K261" t="n">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="L261" t="inlineStr">
         <is>
@@ -10250,7 +10316,7 @@
       </c>
       <c r="J262" t="inlineStr"/>
       <c r="K262" t="n">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="L262" t="inlineStr">
         <is>
@@ -10291,7 +10357,7 @@
       </c>
       <c r="J263" t="inlineStr"/>
       <c r="K263" t="n">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="L263" t="inlineStr">
         <is>
@@ -10332,7 +10398,7 @@
       </c>
       <c r="J264" t="inlineStr"/>
       <c r="K264" t="n">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="L264" t="inlineStr">
         <is>
@@ -10373,7 +10439,7 @@
       </c>
       <c r="J265" t="inlineStr"/>
       <c r="K265" t="n">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="L265" t="inlineStr">
         <is>
@@ -10414,7 +10480,7 @@
       </c>
       <c r="J266" t="inlineStr"/>
       <c r="K266" t="n">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="L266" t="inlineStr">
         <is>
@@ -10455,7 +10521,7 @@
       </c>
       <c r="J267" t="inlineStr"/>
       <c r="K267" t="n">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="L267" t="inlineStr">
         <is>
@@ -10496,7 +10562,7 @@
       </c>
       <c r="J268" t="inlineStr"/>
       <c r="K268" t="n">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="L268" t="inlineStr">
         <is>
@@ -10537,7 +10603,7 @@
       </c>
       <c r="J269" t="inlineStr"/>
       <c r="K269" t="n">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="L269" t="inlineStr">
         <is>
@@ -10578,7 +10644,7 @@
       </c>
       <c r="J270" t="inlineStr"/>
       <c r="K270" t="n">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="L270" t="inlineStr">
         <is>
@@ -10619,7 +10685,7 @@
       </c>
       <c r="J271" t="inlineStr"/>
       <c r="K271" t="n">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="L271" t="inlineStr">
         <is>
@@ -10660,7 +10726,7 @@
       </c>
       <c r="J272" t="inlineStr"/>
       <c r="K272" t="n">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="L272" t="inlineStr">
         <is>
@@ -10701,7 +10767,7 @@
       </c>
       <c r="J273" t="inlineStr"/>
       <c r="K273" t="n">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="L273" t="inlineStr">
         <is>
@@ -10742,7 +10808,7 @@
       </c>
       <c r="J274" t="inlineStr"/>
       <c r="K274" t="n">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="L274" t="inlineStr">
         <is>
@@ -10783,7 +10849,7 @@
       </c>
       <c r="J275" t="inlineStr"/>
       <c r="K275" t="n">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="L275" t="inlineStr">
         <is>
@@ -10824,7 +10890,7 @@
       </c>
       <c r="J276" t="inlineStr"/>
       <c r="K276" t="n">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="L276" t="inlineStr">
         <is>
@@ -10865,7 +10931,7 @@
       </c>
       <c r="J277" t="inlineStr"/>
       <c r="K277" t="n">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="L277" t="inlineStr">
         <is>
@@ -10906,7 +10972,7 @@
       </c>
       <c r="J278" t="inlineStr"/>
       <c r="K278" t="n">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="L278" t="inlineStr">
         <is>
@@ -10947,7 +11013,7 @@
       </c>
       <c r="J279" t="inlineStr"/>
       <c r="K279" t="n">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="L279" t="inlineStr">
         <is>
@@ -10988,7 +11054,7 @@
       </c>
       <c r="J280" t="inlineStr"/>
       <c r="K280" t="n">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="L280" t="inlineStr">
         <is>
@@ -11029,7 +11095,7 @@
       </c>
       <c r="J281" t="inlineStr"/>
       <c r="K281" t="n">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="L281" t="inlineStr">
         <is>
@@ -11070,7 +11136,7 @@
       </c>
       <c r="J282" t="inlineStr"/>
       <c r="K282" t="n">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="L282" t="inlineStr">
         <is>
@@ -11111,7 +11177,7 @@
       </c>
       <c r="J283" t="inlineStr"/>
       <c r="K283" t="n">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="L283" t="inlineStr">
         <is>
@@ -11152,7 +11218,7 @@
       </c>
       <c r="J284" t="inlineStr"/>
       <c r="K284" t="n">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="L284" t="inlineStr">
         <is>
@@ -11193,7 +11259,7 @@
       </c>
       <c r="J285" t="inlineStr"/>
       <c r="K285" t="n">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="L285" t="inlineStr">
         <is>
@@ -11234,7 +11300,7 @@
       </c>
       <c r="J286" t="inlineStr"/>
       <c r="K286" t="n">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="L286" t="inlineStr">
         <is>
@@ -11275,7 +11341,7 @@
       </c>
       <c r="J287" t="inlineStr"/>
       <c r="K287" t="n">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="L287" t="inlineStr">
         <is>
@@ -11316,7 +11382,7 @@
       </c>
       <c r="J288" t="inlineStr"/>
       <c r="K288" t="n">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="L288" t="inlineStr">
         <is>
@@ -11357,7 +11423,7 @@
       </c>
       <c r="J289" t="inlineStr"/>
       <c r="K289" t="n">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="L289" t="inlineStr">
         <is>
@@ -11398,7 +11464,7 @@
       </c>
       <c r="J290" t="inlineStr"/>
       <c r="K290" t="n">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="L290" t="inlineStr">
         <is>
@@ -11439,7 +11505,7 @@
       </c>
       <c r="J291" t="inlineStr"/>
       <c r="K291" t="n">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="L291" t="inlineStr">
         <is>
@@ -11480,7 +11546,7 @@
       </c>
       <c r="J292" t="inlineStr"/>
       <c r="K292" t="n">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="L292" t="inlineStr">
         <is>
@@ -11521,7 +11587,7 @@
       </c>
       <c r="J293" t="inlineStr"/>
       <c r="K293" t="n">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="L293" t="inlineStr">
         <is>
@@ -11562,7 +11628,7 @@
       </c>
       <c r="J294" t="inlineStr"/>
       <c r="K294" t="n">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="L294" t="inlineStr">
         <is>
@@ -11603,7 +11669,7 @@
       </c>
       <c r="J295" t="inlineStr"/>
       <c r="K295" t="n">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="L295" t="inlineStr">
         <is>
@@ -11644,7 +11710,7 @@
       </c>
       <c r="J296" t="inlineStr"/>
       <c r="K296" t="n">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="L296" t="inlineStr">
         <is>
@@ -11685,7 +11751,7 @@
       </c>
       <c r="J297" t="inlineStr"/>
       <c r="K297" t="n">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="L297" t="inlineStr">
         <is>
@@ -11726,7 +11792,7 @@
       </c>
       <c r="J298" t="inlineStr"/>
       <c r="K298" t="n">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="L298" t="inlineStr">
         <is>
@@ -11767,7 +11833,7 @@
       </c>
       <c r="J299" t="inlineStr"/>
       <c r="K299" t="n">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="L299" t="inlineStr">
         <is>
@@ -11808,7 +11874,7 @@
       </c>
       <c r="J300" t="inlineStr"/>
       <c r="K300" t="n">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="L300" t="inlineStr">
         <is>
@@ -11845,19 +11911,19 @@
         <v>0</v>
       </c>
       <c r="I301" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J301" t="inlineStr"/>
       <c r="K301" t="n">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="L301" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M301" t="n">
-        <v>1.033251366120219</v>
+        <v>1</v>
       </c>
     </row>
     <row r="302">
@@ -11886,11 +11952,17 @@
         <v>0</v>
       </c>
       <c r="I302" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr"/>
-      <c r="L302" t="inlineStr"/>
+      <c r="K302" t="n">
+        <v>185</v>
+      </c>
+      <c r="L302" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M302" t="n">
         <v>1</v>
       </c>
@@ -11921,11 +11993,17 @@
         <v>0</v>
       </c>
       <c r="I303" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr"/>
-      <c r="L303" t="inlineStr"/>
+      <c r="K303" t="n">
+        <v>185</v>
+      </c>
+      <c r="L303" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M303" t="n">
         <v>1</v>
       </c>
@@ -11959,8 +12037,14 @@
         <v>0</v>
       </c>
       <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr"/>
-      <c r="L304" t="inlineStr"/>
+      <c r="K304" t="n">
+        <v>185</v>
+      </c>
+      <c r="L304" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M304" t="n">
         <v>1</v>
       </c>
@@ -11994,8 +12078,14 @@
         <v>0</v>
       </c>
       <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr"/>
-      <c r="L305" t="inlineStr"/>
+      <c r="K305" t="n">
+        <v>185</v>
+      </c>
+      <c r="L305" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M305" t="n">
         <v>1</v>
       </c>
@@ -12029,8 +12119,14 @@
         <v>0</v>
       </c>
       <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr"/>
-      <c r="L306" t="inlineStr"/>
+      <c r="K306" t="n">
+        <v>185</v>
+      </c>
+      <c r="L306" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M306" t="n">
         <v>1</v>
       </c>
@@ -12064,8 +12160,14 @@
         <v>0</v>
       </c>
       <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr"/>
-      <c r="L307" t="inlineStr"/>
+      <c r="K307" t="n">
+        <v>185</v>
+      </c>
+      <c r="L307" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M307" t="n">
         <v>1</v>
       </c>
@@ -12099,8 +12201,14 @@
         <v>0</v>
       </c>
       <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr"/>
-      <c r="L308" t="inlineStr"/>
+      <c r="K308" t="n">
+        <v>185</v>
+      </c>
+      <c r="L308" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M308" t="n">
         <v>1</v>
       </c>
@@ -12134,8 +12242,14 @@
         <v>0</v>
       </c>
       <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr"/>
-      <c r="L309" t="inlineStr"/>
+      <c r="K309" t="n">
+        <v>185</v>
+      </c>
+      <c r="L309" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M309" t="n">
         <v>1</v>
       </c>
@@ -12169,8 +12283,14 @@
         <v>0</v>
       </c>
       <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr"/>
-      <c r="L310" t="inlineStr"/>
+      <c r="K310" t="n">
+        <v>185</v>
+      </c>
+      <c r="L310" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M310" t="n">
         <v>1</v>
       </c>
@@ -12204,8 +12324,14 @@
         <v>0</v>
       </c>
       <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr"/>
-      <c r="L311" t="inlineStr"/>
+      <c r="K311" t="n">
+        <v>185</v>
+      </c>
+      <c r="L311" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M311" t="n">
         <v>1</v>
       </c>
@@ -12239,8 +12365,14 @@
         <v>0</v>
       </c>
       <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr"/>
-      <c r="L312" t="inlineStr"/>
+      <c r="K312" t="n">
+        <v>185</v>
+      </c>
+      <c r="L312" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M312" t="n">
         <v>1</v>
       </c>
@@ -12274,8 +12406,14 @@
         <v>0</v>
       </c>
       <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr"/>
-      <c r="L313" t="inlineStr"/>
+      <c r="K313" t="n">
+        <v>185</v>
+      </c>
+      <c r="L313" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M313" t="n">
         <v>1</v>
       </c>
@@ -12309,8 +12447,14 @@
         <v>0</v>
       </c>
       <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr"/>
-      <c r="L314" t="inlineStr"/>
+      <c r="K314" t="n">
+        <v>185</v>
+      </c>
+      <c r="L314" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M314" t="n">
         <v>1</v>
       </c>
@@ -12344,8 +12488,14 @@
         <v>0</v>
       </c>
       <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr"/>
-      <c r="L315" t="inlineStr"/>
+      <c r="K315" t="n">
+        <v>185</v>
+      </c>
+      <c r="L315" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M315" t="n">
         <v>1</v>
       </c>
@@ -12379,8 +12529,14 @@
         <v>0</v>
       </c>
       <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr"/>
-      <c r="L316" t="inlineStr"/>
+      <c r="K316" t="n">
+        <v>185</v>
+      </c>
+      <c r="L316" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M316" t="n">
         <v>1</v>
       </c>
@@ -12414,8 +12570,14 @@
         <v>0</v>
       </c>
       <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr"/>
-      <c r="L317" t="inlineStr"/>
+      <c r="K317" t="n">
+        <v>185</v>
+      </c>
+      <c r="L317" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M317" t="n">
         <v>1</v>
       </c>
@@ -12446,11 +12608,17 @@
         <v>0</v>
       </c>
       <c r="I318" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr"/>
-      <c r="L318" t="inlineStr"/>
+      <c r="K318" t="n">
+        <v>185</v>
+      </c>
+      <c r="L318" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M318" t="n">
         <v>1</v>
       </c>
@@ -12481,11 +12649,17 @@
         <v>0</v>
       </c>
       <c r="I319" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr"/>
-      <c r="L319" t="inlineStr"/>
+      <c r="K319" t="n">
+        <v>185</v>
+      </c>
+      <c r="L319" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M319" t="n">
         <v>1</v>
       </c>
@@ -12516,11 +12690,17 @@
         <v>0</v>
       </c>
       <c r="I320" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr"/>
-      <c r="L320" t="inlineStr"/>
+      <c r="K320" t="n">
+        <v>185</v>
+      </c>
+      <c r="L320" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M320" t="n">
         <v>1</v>
       </c>
@@ -12554,8 +12734,14 @@
         <v>0</v>
       </c>
       <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr"/>
-      <c r="L321" t="inlineStr"/>
+      <c r="K321" t="n">
+        <v>185</v>
+      </c>
+      <c r="L321" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M321" t="n">
         <v>1</v>
       </c>
@@ -12589,8 +12775,14 @@
         <v>0</v>
       </c>
       <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr"/>
-      <c r="L322" t="inlineStr"/>
+      <c r="K322" t="n">
+        <v>185</v>
+      </c>
+      <c r="L322" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M322" t="n">
         <v>1</v>
       </c>
@@ -12624,8 +12816,14 @@
         <v>0</v>
       </c>
       <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr"/>
-      <c r="L323" t="inlineStr"/>
+      <c r="K323" t="n">
+        <v>185</v>
+      </c>
+      <c r="L323" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M323" t="n">
         <v>1</v>
       </c>
@@ -12659,8 +12857,14 @@
         <v>0</v>
       </c>
       <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr"/>
-      <c r="L324" t="inlineStr"/>
+      <c r="K324" t="n">
+        <v>185</v>
+      </c>
+      <c r="L324" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M324" t="n">
         <v>1</v>
       </c>
@@ -12694,8 +12898,14 @@
         <v>0</v>
       </c>
       <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr"/>
-      <c r="L325" t="inlineStr"/>
+      <c r="K325" t="n">
+        <v>185</v>
+      </c>
+      <c r="L325" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M325" t="n">
         <v>1</v>
       </c>
@@ -12729,8 +12939,14 @@
         <v>0</v>
       </c>
       <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr"/>
-      <c r="L326" t="inlineStr"/>
+      <c r="K326" t="n">
+        <v>185</v>
+      </c>
+      <c r="L326" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M326" t="n">
         <v>1</v>
       </c>
@@ -12764,8 +12980,14 @@
         <v>0</v>
       </c>
       <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr"/>
-      <c r="L327" t="inlineStr"/>
+      <c r="K327" t="n">
+        <v>185</v>
+      </c>
+      <c r="L327" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M327" t="n">
         <v>1</v>
       </c>
@@ -12799,8 +13021,14 @@
         <v>0</v>
       </c>
       <c r="J328" t="inlineStr"/>
-      <c r="K328" t="inlineStr"/>
-      <c r="L328" t="inlineStr"/>
+      <c r="K328" t="n">
+        <v>185</v>
+      </c>
+      <c r="L328" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M328" t="n">
         <v>1</v>
       </c>
@@ -12834,8 +13062,14 @@
         <v>0</v>
       </c>
       <c r="J329" t="inlineStr"/>
-      <c r="K329" t="inlineStr"/>
-      <c r="L329" t="inlineStr"/>
+      <c r="K329" t="n">
+        <v>185</v>
+      </c>
+      <c r="L329" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M329" t="n">
         <v>1</v>
       </c>
@@ -12869,8 +13103,14 @@
         <v>0</v>
       </c>
       <c r="J330" t="inlineStr"/>
-      <c r="K330" t="inlineStr"/>
-      <c r="L330" t="inlineStr"/>
+      <c r="K330" t="n">
+        <v>185</v>
+      </c>
+      <c r="L330" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M330" t="n">
         <v>1</v>
       </c>
@@ -12904,8 +13144,14 @@
         <v>0</v>
       </c>
       <c r="J331" t="inlineStr"/>
-      <c r="K331" t="inlineStr"/>
-      <c r="L331" t="inlineStr"/>
+      <c r="K331" t="n">
+        <v>185</v>
+      </c>
+      <c r="L331" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M331" t="n">
         <v>1</v>
       </c>
@@ -12939,8 +13185,14 @@
         <v>0</v>
       </c>
       <c r="J332" t="inlineStr"/>
-      <c r="K332" t="inlineStr"/>
-      <c r="L332" t="inlineStr"/>
+      <c r="K332" t="n">
+        <v>185</v>
+      </c>
+      <c r="L332" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M332" t="n">
         <v>1</v>
       </c>
@@ -12974,8 +13226,14 @@
         <v>0</v>
       </c>
       <c r="J333" t="inlineStr"/>
-      <c r="K333" t="inlineStr"/>
-      <c r="L333" t="inlineStr"/>
+      <c r="K333" t="n">
+        <v>185</v>
+      </c>
+      <c r="L333" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M333" t="n">
         <v>1</v>
       </c>
@@ -13009,8 +13267,14 @@
         <v>0</v>
       </c>
       <c r="J334" t="inlineStr"/>
-      <c r="K334" t="inlineStr"/>
-      <c r="L334" t="inlineStr"/>
+      <c r="K334" t="n">
+        <v>185</v>
+      </c>
+      <c r="L334" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M334" t="n">
         <v>1</v>
       </c>
@@ -13044,8 +13308,14 @@
         <v>0</v>
       </c>
       <c r="J335" t="inlineStr"/>
-      <c r="K335" t="inlineStr"/>
-      <c r="L335" t="inlineStr"/>
+      <c r="K335" t="n">
+        <v>185</v>
+      </c>
+      <c r="L335" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M335" t="n">
         <v>1</v>
       </c>
@@ -13079,8 +13349,14 @@
         <v>0</v>
       </c>
       <c r="J336" t="inlineStr"/>
-      <c r="K336" t="inlineStr"/>
-      <c r="L336" t="inlineStr"/>
+      <c r="K336" t="n">
+        <v>185</v>
+      </c>
+      <c r="L336" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M336" t="n">
         <v>1</v>
       </c>
@@ -13114,8 +13390,14 @@
         <v>0</v>
       </c>
       <c r="J337" t="inlineStr"/>
-      <c r="K337" t="inlineStr"/>
-      <c r="L337" t="inlineStr"/>
+      <c r="K337" t="n">
+        <v>185</v>
+      </c>
+      <c r="L337" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M337" t="n">
         <v>1</v>
       </c>
@@ -13149,8 +13431,14 @@
         <v>0</v>
       </c>
       <c r="J338" t="inlineStr"/>
-      <c r="K338" t="inlineStr"/>
-      <c r="L338" t="inlineStr"/>
+      <c r="K338" t="n">
+        <v>185</v>
+      </c>
+      <c r="L338" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M338" t="n">
         <v>1</v>
       </c>
@@ -13184,8 +13472,14 @@
         <v>0</v>
       </c>
       <c r="J339" t="inlineStr"/>
-      <c r="K339" t="inlineStr"/>
-      <c r="L339" t="inlineStr"/>
+      <c r="K339" t="n">
+        <v>185</v>
+      </c>
+      <c r="L339" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M339" t="n">
         <v>1</v>
       </c>
@@ -13219,8 +13513,14 @@
         <v>0</v>
       </c>
       <c r="J340" t="inlineStr"/>
-      <c r="K340" t="inlineStr"/>
-      <c r="L340" t="inlineStr"/>
+      <c r="K340" t="n">
+        <v>185</v>
+      </c>
+      <c r="L340" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M340" t="n">
         <v>1</v>
       </c>
@@ -13254,8 +13554,14 @@
         <v>0</v>
       </c>
       <c r="J341" t="inlineStr"/>
-      <c r="K341" t="inlineStr"/>
-      <c r="L341" t="inlineStr"/>
+      <c r="K341" t="n">
+        <v>185</v>
+      </c>
+      <c r="L341" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M341" t="n">
         <v>1</v>
       </c>
@@ -13289,8 +13595,14 @@
         <v>0</v>
       </c>
       <c r="J342" t="inlineStr"/>
-      <c r="K342" t="inlineStr"/>
-      <c r="L342" t="inlineStr"/>
+      <c r="K342" t="n">
+        <v>185</v>
+      </c>
+      <c r="L342" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M342" t="n">
         <v>1</v>
       </c>
@@ -13324,8 +13636,14 @@
         <v>0</v>
       </c>
       <c r="J343" t="inlineStr"/>
-      <c r="K343" t="inlineStr"/>
-      <c r="L343" t="inlineStr"/>
+      <c r="K343" t="n">
+        <v>185</v>
+      </c>
+      <c r="L343" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M343" t="n">
         <v>1</v>
       </c>
@@ -13359,8 +13677,14 @@
         <v>0</v>
       </c>
       <c r="J344" t="inlineStr"/>
-      <c r="K344" t="inlineStr"/>
-      <c r="L344" t="inlineStr"/>
+      <c r="K344" t="n">
+        <v>185</v>
+      </c>
+      <c r="L344" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M344" t="n">
         <v>1</v>
       </c>
@@ -13394,8 +13718,14 @@
         <v>0</v>
       </c>
       <c r="J345" t="inlineStr"/>
-      <c r="K345" t="inlineStr"/>
-      <c r="L345" t="inlineStr"/>
+      <c r="K345" t="n">
+        <v>185</v>
+      </c>
+      <c r="L345" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M345" t="n">
         <v>1</v>
       </c>
@@ -13429,8 +13759,14 @@
         <v>0</v>
       </c>
       <c r="J346" t="inlineStr"/>
-      <c r="K346" t="inlineStr"/>
-      <c r="L346" t="inlineStr"/>
+      <c r="K346" t="n">
+        <v>185</v>
+      </c>
+      <c r="L346" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M346" t="n">
         <v>1</v>
       </c>
@@ -13464,8 +13800,14 @@
         <v>0</v>
       </c>
       <c r="J347" t="inlineStr"/>
-      <c r="K347" t="inlineStr"/>
-      <c r="L347" t="inlineStr"/>
+      <c r="K347" t="n">
+        <v>185</v>
+      </c>
+      <c r="L347" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M347" t="n">
         <v>1</v>
       </c>
@@ -13499,8 +13841,14 @@
         <v>0</v>
       </c>
       <c r="J348" t="inlineStr"/>
-      <c r="K348" t="inlineStr"/>
-      <c r="L348" t="inlineStr"/>
+      <c r="K348" t="n">
+        <v>185</v>
+      </c>
+      <c r="L348" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M348" t="n">
         <v>1</v>
       </c>
@@ -13534,8 +13882,14 @@
         <v>0</v>
       </c>
       <c r="J349" t="inlineStr"/>
-      <c r="K349" t="inlineStr"/>
-      <c r="L349" t="inlineStr"/>
+      <c r="K349" t="n">
+        <v>185</v>
+      </c>
+      <c r="L349" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M349" t="n">
         <v>1</v>
       </c>
@@ -13563,14 +13917,22 @@
         <v>189</v>
       </c>
       <c r="H350" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I350" t="n">
         <v>0</v>
       </c>
-      <c r="J350" t="inlineStr"/>
-      <c r="K350" t="inlineStr"/>
-      <c r="L350" t="inlineStr"/>
+      <c r="J350" t="n">
+        <v>187</v>
+      </c>
+      <c r="K350" t="n">
+        <v>185</v>
+      </c>
+      <c r="L350" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M350" t="n">
         <v>1</v>
       </c>
@@ -13604,8 +13966,14 @@
         <v>0</v>
       </c>
       <c r="J351" t="inlineStr"/>
-      <c r="K351" t="inlineStr"/>
-      <c r="L351" t="inlineStr"/>
+      <c r="K351" t="n">
+        <v>185</v>
+      </c>
+      <c r="L351" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M351" t="n">
         <v>1</v>
       </c>
@@ -13639,8 +14007,14 @@
         <v>0</v>
       </c>
       <c r="J352" t="inlineStr"/>
-      <c r="K352" t="inlineStr"/>
-      <c r="L352" t="inlineStr"/>
+      <c r="K352" t="n">
+        <v>185</v>
+      </c>
+      <c r="L352" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M352" t="n">
         <v>1</v>
       </c>
@@ -13668,14 +14042,22 @@
         <v>188.4</v>
       </c>
       <c r="H353" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I353" t="n">
         <v>0</v>
       </c>
-      <c r="J353" t="inlineStr"/>
-      <c r="K353" t="inlineStr"/>
-      <c r="L353" t="inlineStr"/>
+      <c r="J353" t="n">
+        <v>187</v>
+      </c>
+      <c r="K353" t="n">
+        <v>185</v>
+      </c>
+      <c r="L353" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M353" t="n">
         <v>1</v>
       </c>
@@ -13709,8 +14091,14 @@
         <v>0</v>
       </c>
       <c r="J354" t="inlineStr"/>
-      <c r="K354" t="inlineStr"/>
-      <c r="L354" t="inlineStr"/>
+      <c r="K354" t="n">
+        <v>185</v>
+      </c>
+      <c r="L354" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M354" t="n">
         <v>1</v>
       </c>
@@ -13744,8 +14132,14 @@
         <v>0</v>
       </c>
       <c r="J355" t="inlineStr"/>
-      <c r="K355" t="inlineStr"/>
-      <c r="L355" t="inlineStr"/>
+      <c r="K355" t="n">
+        <v>185</v>
+      </c>
+      <c r="L355" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M355" t="n">
         <v>1</v>
       </c>
@@ -13779,8 +14173,14 @@
         <v>0</v>
       </c>
       <c r="J356" t="inlineStr"/>
-      <c r="K356" t="inlineStr"/>
-      <c r="L356" t="inlineStr"/>
+      <c r="K356" t="n">
+        <v>185</v>
+      </c>
+      <c r="L356" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M356" t="n">
         <v>1</v>
       </c>
@@ -13814,8 +14214,14 @@
         <v>0</v>
       </c>
       <c r="J357" t="inlineStr"/>
-      <c r="K357" t="inlineStr"/>
-      <c r="L357" t="inlineStr"/>
+      <c r="K357" t="n">
+        <v>185</v>
+      </c>
+      <c r="L357" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M357" t="n">
         <v>1</v>
       </c>
@@ -13849,8 +14255,14 @@
         <v>0</v>
       </c>
       <c r="J358" t="inlineStr"/>
-      <c r="K358" t="inlineStr"/>
-      <c r="L358" t="inlineStr"/>
+      <c r="K358" t="n">
+        <v>185</v>
+      </c>
+      <c r="L358" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M358" t="n">
         <v>1</v>
       </c>
@@ -13884,8 +14296,14 @@
         <v>0</v>
       </c>
       <c r="J359" t="inlineStr"/>
-      <c r="K359" t="inlineStr"/>
-      <c r="L359" t="inlineStr"/>
+      <c r="K359" t="n">
+        <v>185</v>
+      </c>
+      <c r="L359" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M359" t="n">
         <v>1</v>
       </c>
@@ -13919,8 +14337,14 @@
         <v>0</v>
       </c>
       <c r="J360" t="inlineStr"/>
-      <c r="K360" t="inlineStr"/>
-      <c r="L360" t="inlineStr"/>
+      <c r="K360" t="n">
+        <v>185</v>
+      </c>
+      <c r="L360" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M360" t="n">
         <v>1</v>
       </c>
@@ -13954,8 +14378,14 @@
         <v>0</v>
       </c>
       <c r="J361" t="inlineStr"/>
-      <c r="K361" t="inlineStr"/>
-      <c r="L361" t="inlineStr"/>
+      <c r="K361" t="n">
+        <v>185</v>
+      </c>
+      <c r="L361" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M361" t="n">
         <v>1</v>
       </c>
@@ -13989,8 +14419,14 @@
         <v>0</v>
       </c>
       <c r="J362" t="inlineStr"/>
-      <c r="K362" t="inlineStr"/>
-      <c r="L362" t="inlineStr"/>
+      <c r="K362" t="n">
+        <v>185</v>
+      </c>
+      <c r="L362" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M362" t="n">
         <v>1</v>
       </c>
@@ -14024,8 +14460,14 @@
         <v>0</v>
       </c>
       <c r="J363" t="inlineStr"/>
-      <c r="K363" t="inlineStr"/>
-      <c r="L363" t="inlineStr"/>
+      <c r="K363" t="n">
+        <v>185</v>
+      </c>
+      <c r="L363" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M363" t="n">
         <v>1</v>
       </c>
@@ -14059,8 +14501,14 @@
         <v>0</v>
       </c>
       <c r="J364" t="inlineStr"/>
-      <c r="K364" t="inlineStr"/>
-      <c r="L364" t="inlineStr"/>
+      <c r="K364" t="n">
+        <v>185</v>
+      </c>
+      <c r="L364" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M364" t="n">
         <v>1</v>
       </c>
@@ -14094,8 +14542,14 @@
         <v>0</v>
       </c>
       <c r="J365" t="inlineStr"/>
-      <c r="K365" t="inlineStr"/>
-      <c r="L365" t="inlineStr"/>
+      <c r="K365" t="n">
+        <v>185</v>
+      </c>
+      <c r="L365" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M365" t="n">
         <v>1</v>
       </c>
@@ -14129,8 +14583,14 @@
         <v>0</v>
       </c>
       <c r="J366" t="inlineStr"/>
-      <c r="K366" t="inlineStr"/>
-      <c r="L366" t="inlineStr"/>
+      <c r="K366" t="n">
+        <v>185</v>
+      </c>
+      <c r="L366" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M366" t="n">
         <v>1</v>
       </c>
@@ -14164,8 +14624,14 @@
         <v>0</v>
       </c>
       <c r="J367" t="inlineStr"/>
-      <c r="K367" t="inlineStr"/>
-      <c r="L367" t="inlineStr"/>
+      <c r="K367" t="n">
+        <v>185</v>
+      </c>
+      <c r="L367" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M367" t="n">
         <v>1</v>
       </c>
@@ -14199,8 +14665,14 @@
         <v>0</v>
       </c>
       <c r="J368" t="inlineStr"/>
-      <c r="K368" t="inlineStr"/>
-      <c r="L368" t="inlineStr"/>
+      <c r="K368" t="n">
+        <v>185</v>
+      </c>
+      <c r="L368" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M368" t="n">
         <v>1</v>
       </c>
@@ -14228,14 +14700,22 @@
         <v>187.65</v>
       </c>
       <c r="H369" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I369" t="n">
         <v>0</v>
       </c>
-      <c r="J369" t="inlineStr"/>
-      <c r="K369" t="inlineStr"/>
-      <c r="L369" t="inlineStr"/>
+      <c r="J369" t="n">
+        <v>188</v>
+      </c>
+      <c r="K369" t="n">
+        <v>185</v>
+      </c>
+      <c r="L369" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M369" t="n">
         <v>1</v>
       </c>
@@ -14263,14 +14743,22 @@
         <v>187.7</v>
       </c>
       <c r="H370" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I370" t="n">
         <v>0</v>
       </c>
-      <c r="J370" t="inlineStr"/>
-      <c r="K370" t="inlineStr"/>
-      <c r="L370" t="inlineStr"/>
+      <c r="J370" t="n">
+        <v>189</v>
+      </c>
+      <c r="K370" t="n">
+        <v>185</v>
+      </c>
+      <c r="L370" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M370" t="n">
         <v>1</v>
       </c>
@@ -14304,8 +14792,14 @@
         <v>0</v>
       </c>
       <c r="J371" t="inlineStr"/>
-      <c r="K371" t="inlineStr"/>
-      <c r="L371" t="inlineStr"/>
+      <c r="K371" t="n">
+        <v>185</v>
+      </c>
+      <c r="L371" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M371" t="n">
         <v>1</v>
       </c>
@@ -14339,8 +14833,14 @@
         <v>0</v>
       </c>
       <c r="J372" t="inlineStr"/>
-      <c r="K372" t="inlineStr"/>
-      <c r="L372" t="inlineStr"/>
+      <c r="K372" t="n">
+        <v>185</v>
+      </c>
+      <c r="L372" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M372" t="n">
         <v>1</v>
       </c>
@@ -14374,8 +14874,14 @@
         <v>0</v>
       </c>
       <c r="J373" t="inlineStr"/>
-      <c r="K373" t="inlineStr"/>
-      <c r="L373" t="inlineStr"/>
+      <c r="K373" t="n">
+        <v>185</v>
+      </c>
+      <c r="L373" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M373" t="n">
         <v>1</v>
       </c>
@@ -14409,8 +14915,14 @@
         <v>0</v>
       </c>
       <c r="J374" t="inlineStr"/>
-      <c r="K374" t="inlineStr"/>
-      <c r="L374" t="inlineStr"/>
+      <c r="K374" t="n">
+        <v>185</v>
+      </c>
+      <c r="L374" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M374" t="n">
         <v>1</v>
       </c>
@@ -14444,8 +14956,14 @@
         <v>0</v>
       </c>
       <c r="J375" t="inlineStr"/>
-      <c r="K375" t="inlineStr"/>
-      <c r="L375" t="inlineStr"/>
+      <c r="K375" t="n">
+        <v>185</v>
+      </c>
+      <c r="L375" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M375" t="n">
         <v>1</v>
       </c>
@@ -14479,8 +14997,14 @@
         <v>0</v>
       </c>
       <c r="J376" t="inlineStr"/>
-      <c r="K376" t="inlineStr"/>
-      <c r="L376" t="inlineStr"/>
+      <c r="K376" t="n">
+        <v>185</v>
+      </c>
+      <c r="L376" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M376" t="n">
         <v>1</v>
       </c>
@@ -14514,8 +15038,14 @@
         <v>0</v>
       </c>
       <c r="J377" t="inlineStr"/>
-      <c r="K377" t="inlineStr"/>
-      <c r="L377" t="inlineStr"/>
+      <c r="K377" t="n">
+        <v>185</v>
+      </c>
+      <c r="L377" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M377" t="n">
         <v>1</v>
       </c>
@@ -14549,8 +15079,14 @@
         <v>0</v>
       </c>
       <c r="J378" t="inlineStr"/>
-      <c r="K378" t="inlineStr"/>
-      <c r="L378" t="inlineStr"/>
+      <c r="K378" t="n">
+        <v>185</v>
+      </c>
+      <c r="L378" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M378" t="n">
         <v>1</v>
       </c>
@@ -14584,8 +15120,14 @@
         <v>0</v>
       </c>
       <c r="J379" t="inlineStr"/>
-      <c r="K379" t="inlineStr"/>
-      <c r="L379" t="inlineStr"/>
+      <c r="K379" t="n">
+        <v>185</v>
+      </c>
+      <c r="L379" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M379" t="n">
         <v>1</v>
       </c>
@@ -14619,8 +15161,14 @@
         <v>0</v>
       </c>
       <c r="J380" t="inlineStr"/>
-      <c r="K380" t="inlineStr"/>
-      <c r="L380" t="inlineStr"/>
+      <c r="K380" t="n">
+        <v>185</v>
+      </c>
+      <c r="L380" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M380" t="n">
         <v>1</v>
       </c>
@@ -14654,8 +15202,14 @@
         <v>0</v>
       </c>
       <c r="J381" t="inlineStr"/>
-      <c r="K381" t="inlineStr"/>
-      <c r="L381" t="inlineStr"/>
+      <c r="K381" t="n">
+        <v>185</v>
+      </c>
+      <c r="L381" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M381" t="n">
         <v>1</v>
       </c>
@@ -14689,8 +15243,14 @@
         <v>0</v>
       </c>
       <c r="J382" t="inlineStr"/>
-      <c r="K382" t="inlineStr"/>
-      <c r="L382" t="inlineStr"/>
+      <c r="K382" t="n">
+        <v>185</v>
+      </c>
+      <c r="L382" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M382" t="n">
         <v>1</v>
       </c>
@@ -14724,8 +15284,14 @@
         <v>0</v>
       </c>
       <c r="J383" t="inlineStr"/>
-      <c r="K383" t="inlineStr"/>
-      <c r="L383" t="inlineStr"/>
+      <c r="K383" t="n">
+        <v>185</v>
+      </c>
+      <c r="L383" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M383" t="n">
         <v>1</v>
       </c>
@@ -14759,8 +15325,14 @@
         <v>0</v>
       </c>
       <c r="J384" t="inlineStr"/>
-      <c r="K384" t="inlineStr"/>
-      <c r="L384" t="inlineStr"/>
+      <c r="K384" t="n">
+        <v>185</v>
+      </c>
+      <c r="L384" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M384" t="n">
         <v>1</v>
       </c>
@@ -14794,8 +15366,14 @@
         <v>0</v>
       </c>
       <c r="J385" t="inlineStr"/>
-      <c r="K385" t="inlineStr"/>
-      <c r="L385" t="inlineStr"/>
+      <c r="K385" t="n">
+        <v>185</v>
+      </c>
+      <c r="L385" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M385" t="n">
         <v>1</v>
       </c>
@@ -14829,8 +15407,14 @@
         <v>0</v>
       </c>
       <c r="J386" t="inlineStr"/>
-      <c r="K386" t="inlineStr"/>
-      <c r="L386" t="inlineStr"/>
+      <c r="K386" t="n">
+        <v>185</v>
+      </c>
+      <c r="L386" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M386" t="n">
         <v>1</v>
       </c>
@@ -14864,8 +15448,14 @@
         <v>0</v>
       </c>
       <c r="J387" t="inlineStr"/>
-      <c r="K387" t="inlineStr"/>
-      <c r="L387" t="inlineStr"/>
+      <c r="K387" t="n">
+        <v>185</v>
+      </c>
+      <c r="L387" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M387" t="n">
         <v>1</v>
       </c>
@@ -14899,8 +15489,14 @@
         <v>0</v>
       </c>
       <c r="J388" t="inlineStr"/>
-      <c r="K388" t="inlineStr"/>
-      <c r="L388" t="inlineStr"/>
+      <c r="K388" t="n">
+        <v>185</v>
+      </c>
+      <c r="L388" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M388" t="n">
         <v>1</v>
       </c>
@@ -14934,8 +15530,14 @@
         <v>0</v>
       </c>
       <c r="J389" t="inlineStr"/>
-      <c r="K389" t="inlineStr"/>
-      <c r="L389" t="inlineStr"/>
+      <c r="K389" t="n">
+        <v>185</v>
+      </c>
+      <c r="L389" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M389" t="n">
         <v>1</v>
       </c>
@@ -14969,8 +15571,14 @@
         <v>0</v>
       </c>
       <c r="J390" t="inlineStr"/>
-      <c r="K390" t="inlineStr"/>
-      <c r="L390" t="inlineStr"/>
+      <c r="K390" t="n">
+        <v>185</v>
+      </c>
+      <c r="L390" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M390" t="n">
         <v>1</v>
       </c>
@@ -15004,8 +15612,14 @@
         <v>0</v>
       </c>
       <c r="J391" t="inlineStr"/>
-      <c r="K391" t="inlineStr"/>
-      <c r="L391" t="inlineStr"/>
+      <c r="K391" t="n">
+        <v>185</v>
+      </c>
+      <c r="L391" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M391" t="n">
         <v>1</v>
       </c>

--- a/BackTest/2019-10-29 BackTest RDN.xlsx
+++ b/BackTest/2019-10-29 BackTest RDN.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-14402.82877351351</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-14402.82877351351</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>185</v>
@@ -521,7 +521,7 @@
         <v>-21839.82877351351</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>185</v>
@@ -562,7 +562,7 @@
         <v>-82360.70946061028</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>184</v>
@@ -603,7 +603,7 @@
         <v>-82348.78967451402</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>182</v>
@@ -644,7 +644,7 @@
         <v>-82247.30847451402</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>187</v>
@@ -685,11 +685,9 @@
         <v>-83893.91657451402</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
-      </c>
-      <c r="I8" t="n">
-        <v>188</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="n">
         <v>185</v>
       </c>
@@ -726,11 +724,9 @@
         <v>-83850.59157451402</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
-      </c>
-      <c r="I9" t="n">
-        <v>187</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="n">
         <v>185</v>
       </c>
@@ -767,11 +763,9 @@
         <v>-84001.66677451403</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
-      </c>
-      <c r="I10" t="n">
-        <v>188</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="n">
         <v>185</v>
       </c>
@@ -847,7 +841,7 @@
         <v>-84858.61587451403</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
         <v>185</v>
@@ -888,9 +882,11 @@
         <v>-84026.59437451402</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>185</v>
+      </c>
       <c r="J13" t="n">
         <v>185</v>
       </c>
@@ -927,7 +923,7 @@
         <v>-86811.53367451402</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
         <v>186</v>
@@ -968,7 +964,7 @@
         <v>-86799.61431967531</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
         <v>184</v>
@@ -1009,7 +1005,7 @@
         <v>-94184.61431967531</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I16" t="n">
         <v>186</v>
@@ -1050,11 +1046,9 @@
         <v>-94184.61431967531</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
-      </c>
-      <c r="I17" t="n">
-        <v>185</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="n">
         <v>185</v>
       </c>
@@ -1091,7 +1085,7 @@
         <v>-90882.69837451402</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I18" t="n">
         <v>185</v>
@@ -1756,7 +1750,7 @@
         <v>-103601.3712587245</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="n">
@@ -1990,7 +1984,7 @@
         <v>-113355.5253587245</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="n">
@@ -2497,7 +2491,7 @@
         <v>-91856.24875872454</v>
       </c>
       <c r="H54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="n">
@@ -2614,7 +2608,7 @@
         <v>-94938.34905872455</v>
       </c>
       <c r="H57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="n">
@@ -2770,7 +2764,7 @@
         <v>-70003.42195872455</v>
       </c>
       <c r="H61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="n">
@@ -2809,7 +2803,7 @@
         <v>-70003.42195872455</v>
       </c>
       <c r="H62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="n">
@@ -2926,7 +2920,7 @@
         <v>-71471.30815872454</v>
       </c>
       <c r="H65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="n">
@@ -3082,7 +3076,7 @@
         <v>-78241.76915872455</v>
       </c>
       <c r="H69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="n">
@@ -3394,7 +3388,7 @@
         <v>-79082.27605872456</v>
       </c>
       <c r="H77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="n">
@@ -3433,7 +3427,7 @@
         <v>-68482.27605872456</v>
       </c>
       <c r="H78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="n">
@@ -4213,7 +4207,7 @@
         <v>6157.412566648578</v>
       </c>
       <c r="H98" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="n">
@@ -4221,15 +4215,13 @@
       </c>
       <c r="K98" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L98" t="n">
-        <v>1.070675675675676</v>
-      </c>
-      <c r="M98" t="n">
-        <v>1.010869565217391</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4254,11 +4246,17 @@
         <v>30668.82216664858</v>
       </c>
       <c r="H99" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>185</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -4287,11 +4285,17 @@
         <v>-15935.15243335142</v>
       </c>
       <c r="H100" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>185</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -4320,11 +4324,17 @@
         <v>-15935.15243335142</v>
       </c>
       <c r="H101" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>185</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -4353,11 +4363,17 @@
         <v>-15935.15243335142</v>
       </c>
       <c r="H102" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>185</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -4386,11 +4402,17 @@
         <v>-15935.15243335142</v>
       </c>
       <c r="H103" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>185</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4422,8 +4444,14 @@
         <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>185</v>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4455,8 +4483,14 @@
         <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>185</v>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4488,8 +4522,14 @@
         <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>185</v>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4521,8 +4561,14 @@
         <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>185</v>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4554,8 +4600,14 @@
         <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>185</v>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4587,8 +4639,14 @@
         <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>185</v>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4620,8 +4678,14 @@
         <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>185</v>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4653,8 +4717,14 @@
         <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>185</v>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4686,8 +4756,14 @@
         <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>185</v>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4719,8 +4795,14 @@
         <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>185</v>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4752,8 +4834,14 @@
         <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>185</v>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4785,8 +4873,14 @@
         <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>185</v>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4818,8 +4912,14 @@
         <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>185</v>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4851,8 +4951,14 @@
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>185</v>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4884,8 +4990,14 @@
         <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>185</v>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4917,8 +5029,14 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>185</v>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4950,8 +5068,14 @@
         <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>185</v>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4983,8 +5107,14 @@
         <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>185</v>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -5016,8 +5146,14 @@
         <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>185</v>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -5049,8 +5185,14 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>185</v>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -5082,8 +5224,14 @@
         <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>185</v>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -5115,8 +5263,14 @@
         <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>185</v>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -5145,15 +5299,23 @@
         <v>4382.898336036335</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>185</v>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+        <v>1.086891891891892</v>
+      </c>
+      <c r="M126" t="n">
+        <v>1.010869565217391</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5178,7 +5340,7 @@
         <v>-6004.872663963666</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -5211,7 +5373,7 @@
         <v>-5002.872663963666</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -5244,7 +5406,7 @@
         <v>2642.259036036334</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -5277,7 +5439,7 @@
         <v>-4357.776863963666</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -5310,7 +5472,7 @@
         <v>-51957.31016396367</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -5343,7 +5505,7 @@
         <v>-39691.91446396367</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -5376,7 +5538,7 @@
         <v>-42014.14656396367</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -5409,7 +5571,7 @@
         <v>-74074.43966396367</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -5442,7 +5604,7 @@
         <v>-68616.67326396366</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -5475,7 +5637,7 @@
         <v>-69547.67326396366</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -5508,7 +5670,7 @@
         <v>-69547.67326396366</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -5541,7 +5703,7 @@
         <v>-69547.67326396366</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -5574,7 +5736,7 @@
         <v>-69349.67326396366</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5607,7 +5769,7 @@
         <v>-69349.67326396366</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5640,7 +5802,7 @@
         <v>-69349.67326396366</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5673,7 +5835,7 @@
         <v>-90591.05056396365</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5706,7 +5868,7 @@
         <v>-90591.05056396365</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5739,7 +5901,7 @@
         <v>-101613.1499639637</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5805,7 +5967,7 @@
         <v>-101612.1499639637</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5838,7 +6000,7 @@
         <v>-103716.0083395982</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -6267,7 +6429,7 @@
         <v>-172981.8933142226</v>
       </c>
       <c r="H160" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -6465,7 +6627,7 @@
         <v>-228358.3921142226</v>
       </c>
       <c r="H166" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -6498,7 +6660,7 @@
         <v>-228358.3921142226</v>
       </c>
       <c r="H167" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -6531,7 +6693,7 @@
         <v>-228358.3921142226</v>
       </c>
       <c r="H168" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -6564,7 +6726,7 @@
         <v>-227262.3921142226</v>
       </c>
       <c r="H169" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -6597,7 +6759,7 @@
         <v>-229645.8660142226</v>
       </c>
       <c r="H170" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6630,7 +6792,7 @@
         <v>-228132.5182142226</v>
       </c>
       <c r="H171" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6663,7 +6825,7 @@
         <v>-216325.8364142226</v>
       </c>
       <c r="H172" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6696,7 +6858,7 @@
         <v>-216325.8364142226</v>
       </c>
       <c r="H173" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6729,7 +6891,7 @@
         <v>-216325.8364142226</v>
       </c>
       <c r="H174" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6762,7 +6924,7 @@
         <v>-216325.8364142226</v>
       </c>
       <c r="H175" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6795,7 +6957,7 @@
         <v>-216325.8364142226</v>
       </c>
       <c r="H176" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6828,7 +6990,7 @@
         <v>-219522.8160142226</v>
       </c>
       <c r="H177" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6894,7 +7056,7 @@
         <v>-229228.1878142226</v>
       </c>
       <c r="H179" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -6927,7 +7089,7 @@
         <v>-229228.1878142226</v>
       </c>
       <c r="H180" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -7059,11 +7221,17 @@
         <v>-240723.5418142226</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
-      </c>
-      <c r="I184" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I184" t="n">
+        <v>183</v>
+      </c>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -7092,11 +7260,17 @@
         <v>-240723.5418142226</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
-      </c>
-      <c r="I185" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I185" t="n">
+        <v>185</v>
+      </c>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -7125,11 +7299,17 @@
         <v>-240723.5418142226</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
-      </c>
-      <c r="I186" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I186" t="n">
+        <v>185</v>
+      </c>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -7158,11 +7338,17 @@
         <v>-240723.5418142226</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
-      </c>
-      <c r="I187" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I187" t="n">
+        <v>185</v>
+      </c>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -7191,11 +7377,17 @@
         <v>-240723.5418142226</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
-      </c>
-      <c r="I188" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I188" t="n">
+        <v>185</v>
+      </c>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -7224,11 +7416,17 @@
         <v>-232163.4454142226</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
-      </c>
-      <c r="I189" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I189" t="n">
+        <v>185</v>
+      </c>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -7257,11 +7455,17 @@
         <v>-232163.4454142226</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
-      </c>
-      <c r="I190" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I190" t="n">
+        <v>186</v>
+      </c>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -7290,11 +7494,17 @@
         <v>-232163.4454142226</v>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
-      </c>
-      <c r="I191" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I191" t="n">
+        <v>186</v>
+      </c>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -7323,11 +7533,17 @@
         <v>-232163.4454142226</v>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
-      </c>
-      <c r="I192" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I192" t="n">
+        <v>186</v>
+      </c>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -7356,11 +7572,17 @@
         <v>-232163.4454142226</v>
       </c>
       <c r="H193" t="n">
-        <v>0</v>
-      </c>
-      <c r="I193" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I193" t="n">
+        <v>186</v>
+      </c>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -7389,11 +7611,17 @@
         <v>-232163.4454142226</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
-      </c>
-      <c r="I194" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I194" t="n">
+        <v>186</v>
+      </c>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -7422,11 +7650,17 @@
         <v>-232163.4454142226</v>
       </c>
       <c r="H195" t="n">
-        <v>0</v>
-      </c>
-      <c r="I195" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I195" t="n">
+        <v>186</v>
+      </c>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -7455,11 +7689,17 @@
         <v>-227627.2768142226</v>
       </c>
       <c r="H196" t="n">
-        <v>0</v>
-      </c>
-      <c r="I196" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I196" t="n">
+        <v>186</v>
+      </c>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -7492,7 +7732,11 @@
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -7521,11 +7765,17 @@
         <v>-228228.7446142226</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
-      </c>
-      <c r="I198" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I198" t="n">
+        <v>185</v>
+      </c>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -7558,7 +7808,11 @@
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -7591,7 +7845,11 @@
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7620,11 +7878,17 @@
         <v>-228228.7446142226</v>
       </c>
       <c r="H201" t="n">
-        <v>0</v>
-      </c>
-      <c r="I201" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I201" t="n">
+        <v>185</v>
+      </c>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7653,11 +7917,17 @@
         <v>-228228.7446142226</v>
       </c>
       <c r="H202" t="n">
-        <v>0</v>
-      </c>
-      <c r="I202" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I202" t="n">
+        <v>185</v>
+      </c>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7686,11 +7956,17 @@
         <v>-228228.7446142226</v>
       </c>
       <c r="H203" t="n">
-        <v>0</v>
-      </c>
-      <c r="I203" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I203" t="n">
+        <v>185</v>
+      </c>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7719,11 +7995,17 @@
         <v>-228228.7446142226</v>
       </c>
       <c r="H204" t="n">
-        <v>0</v>
-      </c>
-      <c r="I204" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I204" t="n">
+        <v>185</v>
+      </c>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7752,11 +8034,17 @@
         <v>-233908.0869142226</v>
       </c>
       <c r="H205" t="n">
-        <v>0</v>
-      </c>
-      <c r="I205" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I205" t="n">
+        <v>185</v>
+      </c>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -7785,11 +8073,17 @@
         <v>-233990.2123142226</v>
       </c>
       <c r="H206" t="n">
-        <v>0</v>
-      </c>
-      <c r="I206" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I206" t="n">
+        <v>184</v>
+      </c>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -7818,11 +8112,17 @@
         <v>-239967.9328142226</v>
       </c>
       <c r="H207" t="n">
-        <v>0</v>
-      </c>
-      <c r="I207" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I207" t="n">
+        <v>183</v>
+      </c>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -7851,11 +8151,17 @@
         <v>-238371.6143142226</v>
       </c>
       <c r="H208" t="n">
-        <v>0</v>
-      </c>
-      <c r="I208" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I208" t="n">
+        <v>182</v>
+      </c>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -7884,11 +8190,17 @@
         <v>-238371.6143142226</v>
       </c>
       <c r="H209" t="n">
-        <v>0</v>
-      </c>
-      <c r="I209" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I209" t="n">
+        <v>184</v>
+      </c>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -7917,11 +8229,17 @@
         <v>-243242.4290142226</v>
       </c>
       <c r="H210" t="n">
-        <v>0</v>
-      </c>
-      <c r="I210" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I210" t="n">
+        <v>184</v>
+      </c>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -7950,11 +8268,17 @@
         <v>-251296.3640142226</v>
       </c>
       <c r="H211" t="n">
-        <v>0</v>
-      </c>
-      <c r="I211" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I211" t="n">
+        <v>183</v>
+      </c>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -7983,11 +8307,17 @@
         <v>-251296.3640142226</v>
       </c>
       <c r="H212" t="n">
-        <v>0</v>
-      </c>
-      <c r="I212" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I212" t="n">
+        <v>182</v>
+      </c>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -8016,11 +8346,17 @@
         <v>-251296.3640142226</v>
       </c>
       <c r="H213" t="n">
-        <v>0</v>
-      </c>
-      <c r="I213" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I213" t="n">
+        <v>182</v>
+      </c>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -8049,11 +8385,17 @@
         <v>-250457.3641142226</v>
       </c>
       <c r="H214" t="n">
-        <v>0</v>
-      </c>
-      <c r="I214" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I214" t="n">
+        <v>182</v>
+      </c>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -8082,11 +8424,17 @@
         <v>-250457.3641142226</v>
       </c>
       <c r="H215" t="n">
-        <v>0</v>
-      </c>
-      <c r="I215" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I215" t="n">
+        <v>183</v>
+      </c>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -8115,11 +8463,17 @@
         <v>-250457.3641142226</v>
       </c>
       <c r="H216" t="n">
-        <v>0</v>
-      </c>
-      <c r="I216" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I216" t="n">
+        <v>183</v>
+      </c>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -8148,11 +8502,17 @@
         <v>-248219.1943142226</v>
       </c>
       <c r="H217" t="n">
-        <v>0</v>
-      </c>
-      <c r="I217" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I217" t="n">
+        <v>183</v>
+      </c>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -8181,11 +8541,17 @@
         <v>-249702.8241142226</v>
       </c>
       <c r="H218" t="n">
-        <v>0</v>
-      </c>
-      <c r="I218" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I218" t="n">
+        <v>184</v>
+      </c>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -8214,11 +8580,17 @@
         <v>-242921.7317142226</v>
       </c>
       <c r="H219" t="n">
-        <v>0</v>
-      </c>
-      <c r="I219" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I219" t="n">
+        <v>183</v>
+      </c>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -8247,11 +8619,17 @@
         <v>-242921.7317142226</v>
       </c>
       <c r="H220" t="n">
-        <v>0</v>
-      </c>
-      <c r="I220" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I220" t="n">
+        <v>184</v>
+      </c>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -8280,11 +8658,17 @@
         <v>-242921.7317142226</v>
       </c>
       <c r="H221" t="n">
-        <v>0</v>
-      </c>
-      <c r="I221" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I221" t="n">
+        <v>184</v>
+      </c>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -8313,11 +8697,17 @@
         <v>-242921.7317142226</v>
       </c>
       <c r="H222" t="n">
-        <v>0</v>
-      </c>
-      <c r="I222" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I222" t="n">
+        <v>184</v>
+      </c>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -8346,11 +8736,17 @@
         <v>-242921.7317142226</v>
       </c>
       <c r="H223" t="n">
-        <v>0</v>
-      </c>
-      <c r="I223" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I223" t="n">
+        <v>184</v>
+      </c>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -8379,11 +8775,17 @@
         <v>-242921.7317142226</v>
       </c>
       <c r="H224" t="n">
-        <v>0</v>
-      </c>
-      <c r="I224" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I224" t="n">
+        <v>184</v>
+      </c>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -8412,11 +8814,17 @@
         <v>-247827.5878142226</v>
       </c>
       <c r="H225" t="n">
-        <v>0</v>
-      </c>
-      <c r="I225" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I225" t="n">
+        <v>184</v>
+      </c>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -8445,11 +8853,17 @@
         <v>-250168.6652142226</v>
       </c>
       <c r="H226" t="n">
-        <v>0</v>
-      </c>
-      <c r="I226" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I226" t="n">
+        <v>183</v>
+      </c>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -8478,11 +8892,17 @@
         <v>-249614.4986142226</v>
       </c>
       <c r="H227" t="n">
-        <v>0</v>
-      </c>
-      <c r="I227" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I227" t="n">
+        <v>182</v>
+      </c>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
+      <c r="K227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -8511,11 +8931,17 @@
         <v>-249614.4986142226</v>
       </c>
       <c r="H228" t="n">
-        <v>0</v>
-      </c>
-      <c r="I228" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I228" t="n">
+        <v>183</v>
+      </c>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
+      <c r="K228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -8544,15 +8970,17 @@
         <v>-249478.2782142226</v>
       </c>
       <c r="H229" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I229" t="n">
         <v>183</v>
       </c>
-      <c r="J229" t="n">
-        <v>183</v>
-      </c>
-      <c r="K229" t="inlineStr"/>
+      <c r="J229" t="inlineStr"/>
+      <c r="K229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -8581,17 +9009,15 @@
         <v>-249478.2782142226</v>
       </c>
       <c r="H230" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I230" t="n">
         <v>186</v>
       </c>
-      <c r="J230" t="n">
-        <v>183</v>
-      </c>
+      <c r="J230" t="inlineStr"/>
       <c r="K230" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L230" t="n">
@@ -8622,15 +9048,15 @@
         <v>-252561.2466142226</v>
       </c>
       <c r="H231" t="n">
-        <v>0</v>
-      </c>
-      <c r="I231" t="inlineStr"/>
-      <c r="J231" t="n">
-        <v>183</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I231" t="n">
+        <v>186</v>
+      </c>
+      <c r="J231" t="inlineStr"/>
       <c r="K231" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L231" t="n">
@@ -8661,15 +9087,17 @@
         <v>-252361.2466142226</v>
       </c>
       <c r="H232" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I232" t="n">
         <v>185</v>
       </c>
-      <c r="J232" t="n">
-        <v>185</v>
-      </c>
-      <c r="K232" t="inlineStr"/>
+      <c r="J232" t="inlineStr"/>
+      <c r="K232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -8701,12 +9129,10 @@
         <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
-      <c r="J233" t="n">
-        <v>185</v>
-      </c>
+      <c r="J233" t="inlineStr"/>
       <c r="K233" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L233" t="n">
@@ -8737,17 +9163,13 @@
         <v>-246401.2783142226</v>
       </c>
       <c r="H234" t="n">
-        <v>2</v>
-      </c>
-      <c r="I234" t="n">
-        <v>189</v>
-      </c>
-      <c r="J234" t="n">
-        <v>185</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I234" t="inlineStr"/>
+      <c r="J234" t="inlineStr"/>
       <c r="K234" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L234" t="n">
@@ -8778,15 +9200,15 @@
         <v>-246401.2783142226</v>
       </c>
       <c r="H235" t="n">
-        <v>2</v>
-      </c>
-      <c r="I235" t="n">
-        <v>189</v>
-      </c>
-      <c r="J235" t="n">
-        <v>189</v>
-      </c>
-      <c r="K235" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I235" t="inlineStr"/>
+      <c r="J235" t="inlineStr"/>
+      <c r="K235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -8815,17 +9237,13 @@
         <v>-246401.2783142226</v>
       </c>
       <c r="H236" t="n">
-        <v>2</v>
-      </c>
-      <c r="I236" t="n">
-        <v>189</v>
-      </c>
-      <c r="J236" t="n">
-        <v>189</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I236" t="inlineStr"/>
+      <c r="J236" t="inlineStr"/>
       <c r="K236" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L236" t="n">
@@ -8856,17 +9274,13 @@
         <v>-252978.2013142226</v>
       </c>
       <c r="H237" t="n">
-        <v>2</v>
-      </c>
-      <c r="I237" t="n">
-        <v>189</v>
-      </c>
-      <c r="J237" t="n">
-        <v>189</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I237" t="inlineStr"/>
+      <c r="J237" t="inlineStr"/>
       <c r="K237" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L237" t="n">
@@ -8897,14 +9311,10 @@
         <v>-251511.2013142226</v>
       </c>
       <c r="H238" t="n">
-        <v>2</v>
-      </c>
-      <c r="I238" t="n">
-        <v>187</v>
-      </c>
-      <c r="J238" t="n">
-        <v>189</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I238" t="inlineStr"/>
+      <c r="J238" t="inlineStr"/>
       <c r="K238" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8938,14 +9348,12 @@
         <v>-254989.2013142226</v>
       </c>
       <c r="H239" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I239" t="n">
         <v>188</v>
       </c>
-      <c r="J239" t="n">
-        <v>189</v>
-      </c>
+      <c r="J239" t="inlineStr"/>
       <c r="K239" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8979,14 +9387,12 @@
         <v>-250623.2013142226</v>
       </c>
       <c r="H240" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I240" t="n">
         <v>187</v>
       </c>
-      <c r="J240" t="n">
-        <v>189</v>
-      </c>
+      <c r="J240" t="inlineStr"/>
       <c r="K240" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9020,14 +9426,12 @@
         <v>-250623.2013142226</v>
       </c>
       <c r="H241" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I241" t="n">
         <v>188</v>
       </c>
-      <c r="J241" t="n">
-        <v>189</v>
-      </c>
+      <c r="J241" t="inlineStr"/>
       <c r="K241" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9061,14 +9465,12 @@
         <v>-240041.190732212</v>
       </c>
       <c r="H242" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I242" t="n">
         <v>188</v>
       </c>
-      <c r="J242" t="n">
-        <v>189</v>
-      </c>
+      <c r="J242" t="inlineStr"/>
       <c r="K242" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9102,14 +9504,10 @@
         <v>-241240.757032212</v>
       </c>
       <c r="H243" t="n">
-        <v>2</v>
-      </c>
-      <c r="I243" t="n">
-        <v>189</v>
-      </c>
-      <c r="J243" t="n">
-        <v>189</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I243" t="inlineStr"/>
+      <c r="J243" t="inlineStr"/>
       <c r="K243" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9146,9 +9544,7 @@
         <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
-      <c r="J244" t="n">
-        <v>189</v>
-      </c>
+      <c r="J244" t="inlineStr"/>
       <c r="K244" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9182,12 +9578,12 @@
         <v>-241295.486132212</v>
       </c>
       <c r="H245" t="n">
-        <v>0</v>
-      </c>
-      <c r="I245" t="inlineStr"/>
-      <c r="J245" t="n">
-        <v>189</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I245" t="n">
+        <v>186</v>
+      </c>
+      <c r="J245" t="inlineStr"/>
       <c r="K245" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9221,12 +9617,12 @@
         <v>-214165.356732212</v>
       </c>
       <c r="H246" t="n">
-        <v>0</v>
-      </c>
-      <c r="I246" t="inlineStr"/>
-      <c r="J246" t="n">
-        <v>189</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I246" t="n">
+        <v>186</v>
+      </c>
+      <c r="J246" t="inlineStr"/>
       <c r="K246" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9263,9 +9659,7 @@
         <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
-      <c r="J247" t="n">
-        <v>189</v>
-      </c>
+      <c r="J247" t="inlineStr"/>
       <c r="K247" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9302,9 +9696,7 @@
         <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
-      <c r="J248" t="n">
-        <v>189</v>
-      </c>
+      <c r="J248" t="inlineStr"/>
       <c r="K248" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9341,9 +9733,7 @@
         <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
-      <c r="J249" t="n">
-        <v>189</v>
-      </c>
+      <c r="J249" t="inlineStr"/>
       <c r="K249" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9380,9 +9770,7 @@
         <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
-      <c r="J250" t="n">
-        <v>189</v>
-      </c>
+      <c r="J250" t="inlineStr"/>
       <c r="K250" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9419,9 +9807,7 @@
         <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
-      <c r="J251" t="n">
-        <v>189</v>
-      </c>
+      <c r="J251" t="inlineStr"/>
       <c r="K251" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9458,9 +9844,7 @@
         <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
-      <c r="J252" t="n">
-        <v>189</v>
-      </c>
+      <c r="J252" t="inlineStr"/>
       <c r="K252" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9497,9 +9881,7 @@
         <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
-      <c r="J253" t="n">
-        <v>189</v>
-      </c>
+      <c r="J253" t="inlineStr"/>
       <c r="K253" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9536,9 +9918,7 @@
         <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
-      <c r="J254" t="n">
-        <v>189</v>
-      </c>
+      <c r="J254" t="inlineStr"/>
       <c r="K254" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9575,9 +9955,7 @@
         <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
-      <c r="J255" t="n">
-        <v>189</v>
-      </c>
+      <c r="J255" t="inlineStr"/>
       <c r="K255" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9614,9 +9992,7 @@
         <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
-      <c r="J256" t="n">
-        <v>189</v>
-      </c>
+      <c r="J256" t="inlineStr"/>
       <c r="K256" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9650,14 +10026,10 @@
         <v>-201633.743532212</v>
       </c>
       <c r="H257" t="n">
-        <v>2</v>
-      </c>
-      <c r="I257" t="n">
-        <v>189</v>
-      </c>
-      <c r="J257" t="n">
-        <v>189</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I257" t="inlineStr"/>
+      <c r="J257" t="inlineStr"/>
       <c r="K257" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9691,14 +10063,10 @@
         <v>-201633.743532212</v>
       </c>
       <c r="H258" t="n">
-        <v>2</v>
-      </c>
-      <c r="I258" t="n">
-        <v>190</v>
-      </c>
-      <c r="J258" t="n">
-        <v>189</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I258" t="inlineStr"/>
+      <c r="J258" t="inlineStr"/>
       <c r="K258" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9732,14 +10100,10 @@
         <v>-200787.819132212</v>
       </c>
       <c r="H259" t="n">
-        <v>2</v>
-      </c>
-      <c r="I259" t="n">
-        <v>190</v>
-      </c>
-      <c r="J259" t="n">
-        <v>189</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I259" t="inlineStr"/>
+      <c r="J259" t="inlineStr"/>
       <c r="K259" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9773,12 +10137,12 @@
         <v>-200787.819132212</v>
       </c>
       <c r="H260" t="n">
-        <v>0</v>
-      </c>
-      <c r="I260" t="inlineStr"/>
-      <c r="J260" t="n">
-        <v>189</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I260" t="n">
+        <v>192</v>
+      </c>
+      <c r="J260" t="inlineStr"/>
       <c r="K260" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9812,12 +10176,12 @@
         <v>-200787.819132212</v>
       </c>
       <c r="H261" t="n">
-        <v>0</v>
-      </c>
-      <c r="I261" t="inlineStr"/>
-      <c r="J261" t="n">
-        <v>189</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I261" t="n">
+        <v>192</v>
+      </c>
+      <c r="J261" t="inlineStr"/>
       <c r="K261" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9854,9 +10218,7 @@
         <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
-      <c r="J262" t="n">
-        <v>189</v>
-      </c>
+      <c r="J262" t="inlineStr"/>
       <c r="K262" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9890,12 +10252,12 @@
         <v>-204004.234732212</v>
       </c>
       <c r="H263" t="n">
-        <v>0</v>
-      </c>
-      <c r="I263" t="inlineStr"/>
-      <c r="J263" t="n">
-        <v>189</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I263" t="n">
+        <v>192</v>
+      </c>
+      <c r="J263" t="inlineStr"/>
       <c r="K263" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9929,12 +10291,12 @@
         <v>-204004.234732212</v>
       </c>
       <c r="H264" t="n">
-        <v>0</v>
-      </c>
-      <c r="I264" t="inlineStr"/>
-      <c r="J264" t="n">
-        <v>189</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I264" t="n">
+        <v>190</v>
+      </c>
+      <c r="J264" t="inlineStr"/>
       <c r="K264" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9968,12 +10330,12 @@
         <v>-204004.234732212</v>
       </c>
       <c r="H265" t="n">
-        <v>0</v>
-      </c>
-      <c r="I265" t="inlineStr"/>
-      <c r="J265" t="n">
-        <v>189</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I265" t="n">
+        <v>190</v>
+      </c>
+      <c r="J265" t="inlineStr"/>
       <c r="K265" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10007,12 +10369,12 @@
         <v>-204004.234732212</v>
       </c>
       <c r="H266" t="n">
-        <v>0</v>
-      </c>
-      <c r="I266" t="inlineStr"/>
-      <c r="J266" t="n">
-        <v>189</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I266" t="n">
+        <v>190</v>
+      </c>
+      <c r="J266" t="inlineStr"/>
       <c r="K266" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10046,12 +10408,12 @@
         <v>-204069.234732212</v>
       </c>
       <c r="H267" t="n">
-        <v>0</v>
-      </c>
-      <c r="I267" t="inlineStr"/>
-      <c r="J267" t="n">
-        <v>189</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I267" t="n">
+        <v>190</v>
+      </c>
+      <c r="J267" t="inlineStr"/>
       <c r="K267" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10085,12 +10447,12 @@
         <v>-204069.234732212</v>
       </c>
       <c r="H268" t="n">
-        <v>0</v>
-      </c>
-      <c r="I268" t="inlineStr"/>
-      <c r="J268" t="n">
-        <v>189</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I268" t="n">
+        <v>189</v>
+      </c>
+      <c r="J268" t="inlineStr"/>
       <c r="K268" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10124,12 +10486,12 @@
         <v>-204069.234732212</v>
       </c>
       <c r="H269" t="n">
-        <v>0</v>
-      </c>
-      <c r="I269" t="inlineStr"/>
-      <c r="J269" t="n">
-        <v>189</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I269" t="n">
+        <v>189</v>
+      </c>
+      <c r="J269" t="inlineStr"/>
       <c r="K269" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10163,14 +10525,12 @@
         <v>-204069.234732212</v>
       </c>
       <c r="H270" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I270" t="n">
         <v>189</v>
       </c>
-      <c r="J270" t="n">
-        <v>189</v>
-      </c>
+      <c r="J270" t="inlineStr"/>
       <c r="K270" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10204,12 +10564,12 @@
         <v>-204069.234732212</v>
       </c>
       <c r="H271" t="n">
-        <v>0</v>
-      </c>
-      <c r="I271" t="inlineStr"/>
-      <c r="J271" t="n">
-        <v>189</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I271" t="n">
+        <v>189</v>
+      </c>
+      <c r="J271" t="inlineStr"/>
       <c r="K271" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10243,12 +10603,12 @@
         <v>-204069.234732212</v>
       </c>
       <c r="H272" t="n">
-        <v>0</v>
-      </c>
-      <c r="I272" t="inlineStr"/>
-      <c r="J272" t="n">
-        <v>189</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I272" t="n">
+        <v>189</v>
+      </c>
+      <c r="J272" t="inlineStr"/>
       <c r="K272" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10282,12 +10642,12 @@
         <v>-228151.453732212</v>
       </c>
       <c r="H273" t="n">
-        <v>0</v>
-      </c>
-      <c r="I273" t="inlineStr"/>
-      <c r="J273" t="n">
-        <v>189</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I273" t="n">
+        <v>189</v>
+      </c>
+      <c r="J273" t="inlineStr"/>
       <c r="K273" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10321,12 +10681,12 @@
         <v>-224129.453832212</v>
       </c>
       <c r="H274" t="n">
-        <v>0</v>
-      </c>
-      <c r="I274" t="inlineStr"/>
-      <c r="J274" t="n">
-        <v>189</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I274" t="n">
+        <v>188</v>
+      </c>
+      <c r="J274" t="inlineStr"/>
       <c r="K274" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10360,12 +10720,12 @@
         <v>-218227.687732212</v>
       </c>
       <c r="H275" t="n">
-        <v>0</v>
-      </c>
-      <c r="I275" t="inlineStr"/>
-      <c r="J275" t="n">
-        <v>189</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I275" t="n">
+        <v>189</v>
+      </c>
+      <c r="J275" t="inlineStr"/>
       <c r="K275" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10399,12 +10759,12 @@
         <v>-218227.687732212</v>
       </c>
       <c r="H276" t="n">
-        <v>0</v>
-      </c>
-      <c r="I276" t="inlineStr"/>
-      <c r="J276" t="n">
-        <v>189</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I276" t="n">
+        <v>190</v>
+      </c>
+      <c r="J276" t="inlineStr"/>
       <c r="K276" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10438,12 +10798,12 @@
         <v>-218227.687732212</v>
       </c>
       <c r="H277" t="n">
-        <v>0</v>
-      </c>
-      <c r="I277" t="inlineStr"/>
-      <c r="J277" t="n">
-        <v>189</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I277" t="n">
+        <v>190</v>
+      </c>
+      <c r="J277" t="inlineStr"/>
       <c r="K277" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10477,12 +10837,12 @@
         <v>-218227.687732212</v>
       </c>
       <c r="H278" t="n">
-        <v>0</v>
-      </c>
-      <c r="I278" t="inlineStr"/>
-      <c r="J278" t="n">
-        <v>189</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I278" t="n">
+        <v>190</v>
+      </c>
+      <c r="J278" t="inlineStr"/>
       <c r="K278" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10516,12 +10876,12 @@
         <v>-218227.687732212</v>
       </c>
       <c r="H279" t="n">
-        <v>0</v>
-      </c>
-      <c r="I279" t="inlineStr"/>
-      <c r="J279" t="n">
-        <v>189</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I279" t="n">
+        <v>190</v>
+      </c>
+      <c r="J279" t="inlineStr"/>
       <c r="K279" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10555,12 +10915,12 @@
         <v>-218227.687732212</v>
       </c>
       <c r="H280" t="n">
-        <v>0</v>
-      </c>
-      <c r="I280" t="inlineStr"/>
-      <c r="J280" t="n">
-        <v>189</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I280" t="n">
+        <v>190</v>
+      </c>
+      <c r="J280" t="inlineStr"/>
       <c r="K280" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10594,12 +10954,12 @@
         <v>-218227.687732212</v>
       </c>
       <c r="H281" t="n">
-        <v>0</v>
-      </c>
-      <c r="I281" t="inlineStr"/>
-      <c r="J281" t="n">
-        <v>189</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I281" t="n">
+        <v>190</v>
+      </c>
+      <c r="J281" t="inlineStr"/>
       <c r="K281" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10633,12 +10993,12 @@
         <v>-218061.687732212</v>
       </c>
       <c r="H282" t="n">
-        <v>0</v>
-      </c>
-      <c r="I282" t="inlineStr"/>
-      <c r="J282" t="n">
-        <v>189</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I282" t="n">
+        <v>190</v>
+      </c>
+      <c r="J282" t="inlineStr"/>
       <c r="K282" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10675,9 +11035,7 @@
         <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
-      <c r="J283" t="n">
-        <v>189</v>
-      </c>
+      <c r="J283" t="inlineStr"/>
       <c r="K283" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10714,9 +11072,7 @@
         <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
-      <c r="J284" t="n">
-        <v>189</v>
-      </c>
+      <c r="J284" t="inlineStr"/>
       <c r="K284" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10753,9 +11109,7 @@
         <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
-      <c r="J285" t="n">
-        <v>189</v>
-      </c>
+      <c r="J285" t="inlineStr"/>
       <c r="K285" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10792,9 +11146,7 @@
         <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
-      <c r="J286" t="n">
-        <v>189</v>
-      </c>
+      <c r="J286" t="inlineStr"/>
       <c r="K286" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10831,9 +11183,7 @@
         <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
-      <c r="J287" t="n">
-        <v>189</v>
-      </c>
+      <c r="J287" t="inlineStr"/>
       <c r="K287" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10870,9 +11220,7 @@
         <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
-      <c r="J288" t="n">
-        <v>189</v>
-      </c>
+      <c r="J288" t="inlineStr"/>
       <c r="K288" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10909,9 +11257,7 @@
         <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
-      <c r="J289" t="n">
-        <v>189</v>
-      </c>
+      <c r="J289" t="inlineStr"/>
       <c r="K289" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10948,9 +11294,7 @@
         <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
-      <c r="J290" t="n">
-        <v>189</v>
-      </c>
+      <c r="J290" t="inlineStr"/>
       <c r="K290" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10987,9 +11331,7 @@
         <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
-      <c r="J291" t="n">
-        <v>189</v>
-      </c>
+      <c r="J291" t="inlineStr"/>
       <c r="K291" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11026,9 +11368,7 @@
         <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
-      <c r="J292" t="n">
-        <v>189</v>
-      </c>
+      <c r="J292" t="inlineStr"/>
       <c r="K292" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11062,12 +11402,12 @@
         <v>-225223.1941322121</v>
       </c>
       <c r="H293" t="n">
-        <v>0</v>
-      </c>
-      <c r="I293" t="inlineStr"/>
-      <c r="J293" t="n">
-        <v>189</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I293" t="n">
+        <v>187</v>
+      </c>
+      <c r="J293" t="inlineStr"/>
       <c r="K293" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11101,12 +11441,12 @@
         <v>-210131.7917322121</v>
       </c>
       <c r="H294" t="n">
-        <v>0</v>
-      </c>
-      <c r="I294" t="inlineStr"/>
-      <c r="J294" t="n">
-        <v>189</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I294" t="n">
+        <v>189</v>
+      </c>
+      <c r="J294" t="inlineStr"/>
       <c r="K294" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11140,12 +11480,12 @@
         <v>-210998.3627322121</v>
       </c>
       <c r="H295" t="n">
-        <v>0</v>
-      </c>
-      <c r="I295" t="inlineStr"/>
-      <c r="J295" t="n">
-        <v>189</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I295" t="n">
+        <v>190</v>
+      </c>
+      <c r="J295" t="inlineStr"/>
       <c r="K295" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11182,9 +11522,7 @@
         <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
-      <c r="J296" t="n">
-        <v>189</v>
-      </c>
+      <c r="J296" t="inlineStr"/>
       <c r="K296" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11218,12 +11556,12 @@
         <v>-210998.3627322121</v>
       </c>
       <c r="H297" t="n">
-        <v>0</v>
-      </c>
-      <c r="I297" t="inlineStr"/>
-      <c r="J297" t="n">
-        <v>189</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I297" t="n">
+        <v>189</v>
+      </c>
+      <c r="J297" t="inlineStr"/>
       <c r="K297" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11257,12 +11595,12 @@
         <v>-210998.3627322121</v>
       </c>
       <c r="H298" t="n">
-        <v>0</v>
-      </c>
-      <c r="I298" t="inlineStr"/>
-      <c r="J298" t="n">
-        <v>189</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I298" t="n">
+        <v>189</v>
+      </c>
+      <c r="J298" t="inlineStr"/>
       <c r="K298" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11296,12 +11634,12 @@
         <v>-210998.3627322121</v>
       </c>
       <c r="H299" t="n">
-        <v>0</v>
-      </c>
-      <c r="I299" t="inlineStr"/>
-      <c r="J299" t="n">
-        <v>189</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I299" t="n">
+        <v>189</v>
+      </c>
+      <c r="J299" t="inlineStr"/>
       <c r="K299" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11335,12 +11673,12 @@
         <v>-212768.1427322121</v>
       </c>
       <c r="H300" t="n">
-        <v>0</v>
-      </c>
-      <c r="I300" t="inlineStr"/>
-      <c r="J300" t="n">
-        <v>189</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I300" t="n">
+        <v>189</v>
+      </c>
+      <c r="J300" t="inlineStr"/>
       <c r="K300" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11374,12 +11712,12 @@
         <v>-205451.5354322121</v>
       </c>
       <c r="H301" t="n">
-        <v>0</v>
-      </c>
-      <c r="I301" t="inlineStr"/>
-      <c r="J301" t="n">
-        <v>189</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I301" t="n">
+        <v>187</v>
+      </c>
+      <c r="J301" t="inlineStr"/>
       <c r="K301" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11413,12 +11751,12 @@
         <v>-206416.2071322121</v>
       </c>
       <c r="H302" t="n">
-        <v>0</v>
-      </c>
-      <c r="I302" t="inlineStr"/>
-      <c r="J302" t="n">
-        <v>189</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I302" t="n">
+        <v>188</v>
+      </c>
+      <c r="J302" t="inlineStr"/>
       <c r="K302" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11452,12 +11790,12 @@
         <v>-232030.3543322121</v>
       </c>
       <c r="H303" t="n">
-        <v>0</v>
-      </c>
-      <c r="I303" t="inlineStr"/>
-      <c r="J303" t="n">
-        <v>189</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I303" t="n">
+        <v>187</v>
+      </c>
+      <c r="J303" t="inlineStr"/>
       <c r="K303" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11491,12 +11829,12 @@
         <v>-232030.3543322121</v>
       </c>
       <c r="H304" t="n">
-        <v>0</v>
-      </c>
-      <c r="I304" t="inlineStr"/>
-      <c r="J304" t="n">
-        <v>189</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I304" t="n">
+        <v>186</v>
+      </c>
+      <c r="J304" t="inlineStr"/>
       <c r="K304" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11530,12 +11868,12 @@
         <v>-232029.3543322121</v>
       </c>
       <c r="H305" t="n">
-        <v>0</v>
-      </c>
-      <c r="I305" t="inlineStr"/>
-      <c r="J305" t="n">
-        <v>189</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I305" t="n">
+        <v>186</v>
+      </c>
+      <c r="J305" t="inlineStr"/>
       <c r="K305" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11569,12 +11907,12 @@
         <v>-232935.7930322121</v>
       </c>
       <c r="H306" t="n">
-        <v>0</v>
-      </c>
-      <c r="I306" t="inlineStr"/>
-      <c r="J306" t="n">
-        <v>189</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I306" t="n">
+        <v>187</v>
+      </c>
+      <c r="J306" t="inlineStr"/>
       <c r="K306" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11608,12 +11946,12 @@
         <v>-190139.5739322121</v>
       </c>
       <c r="H307" t="n">
-        <v>0</v>
-      </c>
-      <c r="I307" t="inlineStr"/>
-      <c r="J307" t="n">
-        <v>189</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I307" t="n">
+        <v>185</v>
+      </c>
+      <c r="J307" t="inlineStr"/>
       <c r="K307" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11647,12 +11985,12 @@
         <v>-190139.5739322121</v>
       </c>
       <c r="H308" t="n">
-        <v>0</v>
-      </c>
-      <c r="I308" t="inlineStr"/>
-      <c r="J308" t="n">
-        <v>189</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I308" t="n">
+        <v>186</v>
+      </c>
+      <c r="J308" t="inlineStr"/>
       <c r="K308" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11686,12 +12024,12 @@
         <v>-192066.5739322121</v>
       </c>
       <c r="H309" t="n">
-        <v>0</v>
-      </c>
-      <c r="I309" t="inlineStr"/>
-      <c r="J309" t="n">
-        <v>189</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I309" t="n">
+        <v>186</v>
+      </c>
+      <c r="J309" t="inlineStr"/>
       <c r="K309" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11725,12 +12063,12 @@
         <v>-181525.7799322121</v>
       </c>
       <c r="H310" t="n">
-        <v>0</v>
-      </c>
-      <c r="I310" t="inlineStr"/>
-      <c r="J310" t="n">
-        <v>189</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I310" t="n">
+        <v>184</v>
+      </c>
+      <c r="J310" t="inlineStr"/>
       <c r="K310" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11764,12 +12102,12 @@
         <v>-181525.7799322121</v>
       </c>
       <c r="H311" t="n">
-        <v>0</v>
-      </c>
-      <c r="I311" t="inlineStr"/>
-      <c r="J311" t="n">
-        <v>189</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I311" t="n">
+        <v>185</v>
+      </c>
+      <c r="J311" t="inlineStr"/>
       <c r="K311" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11803,12 +12141,12 @@
         <v>-175563.4681322121</v>
       </c>
       <c r="H312" t="n">
-        <v>0</v>
-      </c>
-      <c r="I312" t="inlineStr"/>
-      <c r="J312" t="n">
-        <v>189</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I312" t="n">
+        <v>185</v>
+      </c>
+      <c r="J312" t="inlineStr"/>
       <c r="K312" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11842,12 +12180,12 @@
         <v>-175563.4681322121</v>
       </c>
       <c r="H313" t="n">
-        <v>0</v>
-      </c>
-      <c r="I313" t="inlineStr"/>
-      <c r="J313" t="n">
-        <v>189</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I313" t="n">
+        <v>186</v>
+      </c>
+      <c r="J313" t="inlineStr"/>
       <c r="K313" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11881,12 +12219,12 @@
         <v>-137462.4435322121</v>
       </c>
       <c r="H314" t="n">
-        <v>0</v>
-      </c>
-      <c r="I314" t="inlineStr"/>
-      <c r="J314" t="n">
-        <v>189</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I314" t="n">
+        <v>186</v>
+      </c>
+      <c r="J314" t="inlineStr"/>
       <c r="K314" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11920,12 +12258,12 @@
         <v>-137922.4435322121</v>
       </c>
       <c r="H315" t="n">
-        <v>0</v>
-      </c>
-      <c r="I315" t="inlineStr"/>
-      <c r="J315" t="n">
-        <v>189</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I315" t="n">
+        <v>189</v>
+      </c>
+      <c r="J315" t="inlineStr"/>
       <c r="K315" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11959,12 +12297,12 @@
         <v>-139935.3985322121</v>
       </c>
       <c r="H316" t="n">
-        <v>0</v>
-      </c>
-      <c r="I316" t="inlineStr"/>
-      <c r="J316" t="n">
-        <v>189</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I316" t="n">
+        <v>188</v>
+      </c>
+      <c r="J316" t="inlineStr"/>
       <c r="K316" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11998,12 +12336,12 @@
         <v>-139931.3985322121</v>
       </c>
       <c r="H317" t="n">
-        <v>0</v>
-      </c>
-      <c r="I317" t="inlineStr"/>
-      <c r="J317" t="n">
-        <v>189</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I317" t="n">
+        <v>187</v>
+      </c>
+      <c r="J317" t="inlineStr"/>
       <c r="K317" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12040,9 +12378,7 @@
         <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
-      <c r="J318" t="n">
-        <v>189</v>
-      </c>
+      <c r="J318" t="inlineStr"/>
       <c r="K318" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12079,9 +12415,7 @@
         <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
-      <c r="J319" t="n">
-        <v>189</v>
-      </c>
+      <c r="J319" t="inlineStr"/>
       <c r="K319" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12118,9 +12452,7 @@
         <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
-      <c r="J320" t="n">
-        <v>189</v>
-      </c>
+      <c r="J320" t="inlineStr"/>
       <c r="K320" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12157,9 +12489,7 @@
         <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
-      <c r="J321" t="n">
-        <v>189</v>
-      </c>
+      <c r="J321" t="inlineStr"/>
       <c r="K321" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12196,9 +12526,7 @@
         <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
-      <c r="J322" t="n">
-        <v>189</v>
-      </c>
+      <c r="J322" t="inlineStr"/>
       <c r="K322" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12235,9 +12563,7 @@
         <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
-      <c r="J323" t="n">
-        <v>189</v>
-      </c>
+      <c r="J323" t="inlineStr"/>
       <c r="K323" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12274,9 +12600,7 @@
         <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
-      <c r="J324" t="n">
-        <v>189</v>
-      </c>
+      <c r="J324" t="inlineStr"/>
       <c r="K324" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12313,9 +12637,7 @@
         <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
-      <c r="J325" t="n">
-        <v>189</v>
-      </c>
+      <c r="J325" t="inlineStr"/>
       <c r="K325" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12352,9 +12674,7 @@
         <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
-      <c r="J326" t="n">
-        <v>189</v>
-      </c>
+      <c r="J326" t="inlineStr"/>
       <c r="K326" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12391,9 +12711,7 @@
         <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
-      <c r="J327" t="n">
-        <v>189</v>
-      </c>
+      <c r="J327" t="inlineStr"/>
       <c r="K327" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12430,9 +12748,7 @@
         <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
-      <c r="J328" t="n">
-        <v>189</v>
-      </c>
+      <c r="J328" t="inlineStr"/>
       <c r="K328" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12469,9 +12785,7 @@
         <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
-      <c r="J329" t="n">
-        <v>189</v>
-      </c>
+      <c r="J329" t="inlineStr"/>
       <c r="K329" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12508,9 +12822,7 @@
         <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
-      <c r="J330" t="n">
-        <v>189</v>
-      </c>
+      <c r="J330" t="inlineStr"/>
       <c r="K330" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12547,9 +12859,7 @@
         <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
-      <c r="J331" t="n">
-        <v>189</v>
-      </c>
+      <c r="J331" t="inlineStr"/>
       <c r="K331" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12586,9 +12896,7 @@
         <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
-      <c r="J332" t="n">
-        <v>189</v>
-      </c>
+      <c r="J332" t="inlineStr"/>
       <c r="K332" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12625,9 +12933,7 @@
         <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
-      <c r="J333" t="n">
-        <v>189</v>
-      </c>
+      <c r="J333" t="inlineStr"/>
       <c r="K333" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12664,9 +12970,7 @@
         <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
-      <c r="J334" t="n">
-        <v>189</v>
-      </c>
+      <c r="J334" t="inlineStr"/>
       <c r="K334" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12703,9 +13007,7 @@
         <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
-      <c r="J335" t="n">
-        <v>189</v>
-      </c>
+      <c r="J335" t="inlineStr"/>
       <c r="K335" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12742,9 +13044,7 @@
         <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
-      <c r="J336" t="n">
-        <v>189</v>
-      </c>
+      <c r="J336" t="inlineStr"/>
       <c r="K336" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12781,9 +13081,7 @@
         <v>0</v>
       </c>
       <c r="I337" t="inlineStr"/>
-      <c r="J337" t="n">
-        <v>189</v>
-      </c>
+      <c r="J337" t="inlineStr"/>
       <c r="K337" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12820,9 +13118,7 @@
         <v>0</v>
       </c>
       <c r="I338" t="inlineStr"/>
-      <c r="J338" t="n">
-        <v>189</v>
-      </c>
+      <c r="J338" t="inlineStr"/>
       <c r="K338" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12859,9 +13155,7 @@
         <v>0</v>
       </c>
       <c r="I339" t="inlineStr"/>
-      <c r="J339" t="n">
-        <v>189</v>
-      </c>
+      <c r="J339" t="inlineStr"/>
       <c r="K339" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12898,9 +13192,7 @@
         <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
-      <c r="J340" t="n">
-        <v>189</v>
-      </c>
+      <c r="J340" t="inlineStr"/>
       <c r="K340" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12937,9 +13229,7 @@
         <v>0</v>
       </c>
       <c r="I341" t="inlineStr"/>
-      <c r="J341" t="n">
-        <v>189</v>
-      </c>
+      <c r="J341" t="inlineStr"/>
       <c r="K341" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12976,9 +13266,7 @@
         <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
-      <c r="J342" t="n">
-        <v>189</v>
-      </c>
+      <c r="J342" t="inlineStr"/>
       <c r="K342" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13015,9 +13303,7 @@
         <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
-      <c r="J343" t="n">
-        <v>189</v>
-      </c>
+      <c r="J343" t="inlineStr"/>
       <c r="K343" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13054,9 +13340,7 @@
         <v>0</v>
       </c>
       <c r="I344" t="inlineStr"/>
-      <c r="J344" t="n">
-        <v>189</v>
-      </c>
+      <c r="J344" t="inlineStr"/>
       <c r="K344" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13093,9 +13377,7 @@
         <v>0</v>
       </c>
       <c r="I345" t="inlineStr"/>
-      <c r="J345" t="n">
-        <v>189</v>
-      </c>
+      <c r="J345" t="inlineStr"/>
       <c r="K345" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13132,9 +13414,7 @@
         <v>0</v>
       </c>
       <c r="I346" t="inlineStr"/>
-      <c r="J346" t="n">
-        <v>189</v>
-      </c>
+      <c r="J346" t="inlineStr"/>
       <c r="K346" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13171,9 +13451,7 @@
         <v>0</v>
       </c>
       <c r="I347" t="inlineStr"/>
-      <c r="J347" t="n">
-        <v>189</v>
-      </c>
+      <c r="J347" t="inlineStr"/>
       <c r="K347" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13210,9 +13488,7 @@
         <v>0</v>
       </c>
       <c r="I348" t="inlineStr"/>
-      <c r="J348" t="n">
-        <v>189</v>
-      </c>
+      <c r="J348" t="inlineStr"/>
       <c r="K348" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13249,9 +13525,7 @@
         <v>0</v>
       </c>
       <c r="I349" t="inlineStr"/>
-      <c r="J349" t="n">
-        <v>189</v>
-      </c>
+      <c r="J349" t="inlineStr"/>
       <c r="K349" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13288,9 +13562,7 @@
         <v>0</v>
       </c>
       <c r="I350" t="inlineStr"/>
-      <c r="J350" t="n">
-        <v>189</v>
-      </c>
+      <c r="J350" t="inlineStr"/>
       <c r="K350" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13327,9 +13599,7 @@
         <v>0</v>
       </c>
       <c r="I351" t="inlineStr"/>
-      <c r="J351" t="n">
-        <v>189</v>
-      </c>
+      <c r="J351" t="inlineStr"/>
       <c r="K351" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13366,9 +13636,7 @@
         <v>0</v>
       </c>
       <c r="I352" t="inlineStr"/>
-      <c r="J352" t="n">
-        <v>189</v>
-      </c>
+      <c r="J352" t="inlineStr"/>
       <c r="K352" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13405,9 +13673,7 @@
         <v>0</v>
       </c>
       <c r="I353" t="inlineStr"/>
-      <c r="J353" t="n">
-        <v>189</v>
-      </c>
+      <c r="J353" t="inlineStr"/>
       <c r="K353" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13444,9 +13710,7 @@
         <v>0</v>
       </c>
       <c r="I354" t="inlineStr"/>
-      <c r="J354" t="n">
-        <v>189</v>
-      </c>
+      <c r="J354" t="inlineStr"/>
       <c r="K354" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13483,9 +13747,7 @@
         <v>0</v>
       </c>
       <c r="I355" t="inlineStr"/>
-      <c r="J355" t="n">
-        <v>189</v>
-      </c>
+      <c r="J355" t="inlineStr"/>
       <c r="K355" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13522,9 +13784,7 @@
         <v>0</v>
       </c>
       <c r="I356" t="inlineStr"/>
-      <c r="J356" t="n">
-        <v>189</v>
-      </c>
+      <c r="J356" t="inlineStr"/>
       <c r="K356" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13561,9 +13821,7 @@
         <v>0</v>
       </c>
       <c r="I357" t="inlineStr"/>
-      <c r="J357" t="n">
-        <v>189</v>
-      </c>
+      <c r="J357" t="inlineStr"/>
       <c r="K357" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13600,9 +13858,7 @@
         <v>0</v>
       </c>
       <c r="I358" t="inlineStr"/>
-      <c r="J358" t="n">
-        <v>189</v>
-      </c>
+      <c r="J358" t="inlineStr"/>
       <c r="K358" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13639,9 +13895,7 @@
         <v>0</v>
       </c>
       <c r="I359" t="inlineStr"/>
-      <c r="J359" t="n">
-        <v>189</v>
-      </c>
+      <c r="J359" t="inlineStr"/>
       <c r="K359" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13678,9 +13932,7 @@
         <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
-      <c r="J360" t="n">
-        <v>189</v>
-      </c>
+      <c r="J360" t="inlineStr"/>
       <c r="K360" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13717,9 +13969,7 @@
         <v>0</v>
       </c>
       <c r="I361" t="inlineStr"/>
-      <c r="J361" t="n">
-        <v>189</v>
-      </c>
+      <c r="J361" t="inlineStr"/>
       <c r="K361" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13756,9 +14006,7 @@
         <v>0</v>
       </c>
       <c r="I362" t="inlineStr"/>
-      <c r="J362" t="n">
-        <v>189</v>
-      </c>
+      <c r="J362" t="inlineStr"/>
       <c r="K362" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13795,9 +14043,7 @@
         <v>0</v>
       </c>
       <c r="I363" t="inlineStr"/>
-      <c r="J363" t="n">
-        <v>189</v>
-      </c>
+      <c r="J363" t="inlineStr"/>
       <c r="K363" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13834,9 +14080,7 @@
         <v>0</v>
       </c>
       <c r="I364" t="inlineStr"/>
-      <c r="J364" t="n">
-        <v>189</v>
-      </c>
+      <c r="J364" t="inlineStr"/>
       <c r="K364" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13873,9 +14117,7 @@
         <v>0</v>
       </c>
       <c r="I365" t="inlineStr"/>
-      <c r="J365" t="n">
-        <v>189</v>
-      </c>
+      <c r="J365" t="inlineStr"/>
       <c r="K365" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13912,9 +14154,7 @@
         <v>0</v>
       </c>
       <c r="I366" t="inlineStr"/>
-      <c r="J366" t="n">
-        <v>189</v>
-      </c>
+      <c r="J366" t="inlineStr"/>
       <c r="K366" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13951,9 +14191,7 @@
         <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
-      <c r="J367" t="n">
-        <v>189</v>
-      </c>
+      <c r="J367" t="inlineStr"/>
       <c r="K367" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13990,9 +14228,7 @@
         <v>0</v>
       </c>
       <c r="I368" t="inlineStr"/>
-      <c r="J368" t="n">
-        <v>189</v>
-      </c>
+      <c r="J368" t="inlineStr"/>
       <c r="K368" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14029,9 +14265,7 @@
         <v>0</v>
       </c>
       <c r="I369" t="inlineStr"/>
-      <c r="J369" t="n">
-        <v>189</v>
-      </c>
+      <c r="J369" t="inlineStr"/>
       <c r="K369" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14068,9 +14302,7 @@
         <v>0</v>
       </c>
       <c r="I370" t="inlineStr"/>
-      <c r="J370" t="n">
-        <v>189</v>
-      </c>
+      <c r="J370" t="inlineStr"/>
       <c r="K370" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14107,9 +14339,7 @@
         <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
-      <c r="J371" t="n">
-        <v>189</v>
-      </c>
+      <c r="J371" t="inlineStr"/>
       <c r="K371" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14146,9 +14376,7 @@
         <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
-      <c r="J372" t="n">
-        <v>189</v>
-      </c>
+      <c r="J372" t="inlineStr"/>
       <c r="K372" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14185,9 +14413,7 @@
         <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
-      <c r="J373" t="n">
-        <v>189</v>
-      </c>
+      <c r="J373" t="inlineStr"/>
       <c r="K373" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14224,9 +14450,7 @@
         <v>0</v>
       </c>
       <c r="I374" t="inlineStr"/>
-      <c r="J374" t="n">
-        <v>189</v>
-      </c>
+      <c r="J374" t="inlineStr"/>
       <c r="K374" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14263,9 +14487,7 @@
         <v>0</v>
       </c>
       <c r="I375" t="inlineStr"/>
-      <c r="J375" t="n">
-        <v>189</v>
-      </c>
+      <c r="J375" t="inlineStr"/>
       <c r="K375" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14302,9 +14524,7 @@
         <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
-      <c r="J376" t="n">
-        <v>189</v>
-      </c>
+      <c r="J376" t="inlineStr"/>
       <c r="K376" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14341,9 +14561,7 @@
         <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
-      <c r="J377" t="n">
-        <v>189</v>
-      </c>
+      <c r="J377" t="inlineStr"/>
       <c r="K377" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14380,9 +14598,7 @@
         <v>0</v>
       </c>
       <c r="I378" t="inlineStr"/>
-      <c r="J378" t="n">
-        <v>189</v>
-      </c>
+      <c r="J378" t="inlineStr"/>
       <c r="K378" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14419,9 +14635,7 @@
         <v>0</v>
       </c>
       <c r="I379" t="inlineStr"/>
-      <c r="J379" t="n">
-        <v>189</v>
-      </c>
+      <c r="J379" t="inlineStr"/>
       <c r="K379" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14458,9 +14672,7 @@
         <v>0</v>
       </c>
       <c r="I380" t="inlineStr"/>
-      <c r="J380" t="n">
-        <v>189</v>
-      </c>
+      <c r="J380" t="inlineStr"/>
       <c r="K380" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14497,9 +14709,7 @@
         <v>0</v>
       </c>
       <c r="I381" t="inlineStr"/>
-      <c r="J381" t="n">
-        <v>189</v>
-      </c>
+      <c r="J381" t="inlineStr"/>
       <c r="K381" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14536,9 +14746,7 @@
         <v>0</v>
       </c>
       <c r="I382" t="inlineStr"/>
-      <c r="J382" t="n">
-        <v>189</v>
-      </c>
+      <c r="J382" t="inlineStr"/>
       <c r="K382" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14575,9 +14783,7 @@
         <v>0</v>
       </c>
       <c r="I383" t="inlineStr"/>
-      <c r="J383" t="n">
-        <v>189</v>
-      </c>
+      <c r="J383" t="inlineStr"/>
       <c r="K383" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14614,9 +14820,7 @@
         <v>0</v>
       </c>
       <c r="I384" t="inlineStr"/>
-      <c r="J384" t="n">
-        <v>189</v>
-      </c>
+      <c r="J384" t="inlineStr"/>
       <c r="K384" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14653,9 +14857,7 @@
         <v>0</v>
       </c>
       <c r="I385" t="inlineStr"/>
-      <c r="J385" t="n">
-        <v>189</v>
-      </c>
+      <c r="J385" t="inlineStr"/>
       <c r="K385" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14692,9 +14894,7 @@
         <v>0</v>
       </c>
       <c r="I386" t="inlineStr"/>
-      <c r="J386" t="n">
-        <v>189</v>
-      </c>
+      <c r="J386" t="inlineStr"/>
       <c r="K386" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14731,9 +14931,7 @@
         <v>0</v>
       </c>
       <c r="I387" t="inlineStr"/>
-      <c r="J387" t="n">
-        <v>189</v>
-      </c>
+      <c r="J387" t="inlineStr"/>
       <c r="K387" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14770,9 +14968,7 @@
         <v>0</v>
       </c>
       <c r="I388" t="inlineStr"/>
-      <c r="J388" t="n">
-        <v>189</v>
-      </c>
+      <c r="J388" t="inlineStr"/>
       <c r="K388" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14809,9 +15005,7 @@
         <v>0</v>
       </c>
       <c r="I389" t="inlineStr"/>
-      <c r="J389" t="n">
-        <v>189</v>
-      </c>
+      <c r="J389" t="inlineStr"/>
       <c r="K389" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14848,9 +15042,7 @@
         <v>0</v>
       </c>
       <c r="I390" t="inlineStr"/>
-      <c r="J390" t="n">
-        <v>189</v>
-      </c>
+      <c r="J390" t="inlineStr"/>
       <c r="K390" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14887,9 +15079,7 @@
         <v>0</v>
       </c>
       <c r="I391" t="inlineStr"/>
-      <c r="J391" t="n">
-        <v>189</v>
-      </c>
+      <c r="J391" t="inlineStr"/>
       <c r="K391" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14923,12 +15113,12 @@
         <v>-143396.5796205561</v>
       </c>
       <c r="H392" t="n">
-        <v>0</v>
-      </c>
-      <c r="I392" t="inlineStr"/>
-      <c r="J392" t="n">
-        <v>189</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I392" t="n">
+        <v>191</v>
+      </c>
+      <c r="J392" t="inlineStr"/>
       <c r="K392" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14962,12 +15152,12 @@
         <v>-143392.2858205561</v>
       </c>
       <c r="H393" t="n">
-        <v>0</v>
-      </c>
-      <c r="I393" t="inlineStr"/>
-      <c r="J393" t="n">
-        <v>189</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I393" t="n">
+        <v>192</v>
+      </c>
+      <c r="J393" t="inlineStr"/>
       <c r="K393" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15001,12 +15191,12 @@
         <v>-143392.2858205561</v>
       </c>
       <c r="H394" t="n">
-        <v>0</v>
-      </c>
-      <c r="I394" t="inlineStr"/>
-      <c r="J394" t="n">
-        <v>189</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I394" t="n">
+        <v>194</v>
+      </c>
+      <c r="J394" t="inlineStr"/>
       <c r="K394" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15043,9 +15233,7 @@
         <v>0</v>
       </c>
       <c r="I395" t="inlineStr"/>
-      <c r="J395" t="n">
-        <v>189</v>
-      </c>
+      <c r="J395" t="inlineStr"/>
       <c r="K395" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15079,12 +15267,12 @@
         <v>-143832.0711205561</v>
       </c>
       <c r="H396" t="n">
-        <v>0</v>
-      </c>
-      <c r="I396" t="inlineStr"/>
-      <c r="J396" t="n">
-        <v>189</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I396" t="n">
+        <v>191</v>
+      </c>
+      <c r="J396" t="inlineStr"/>
       <c r="K396" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15121,9 +15309,7 @@
         <v>0</v>
       </c>
       <c r="I397" t="inlineStr"/>
-      <c r="J397" t="n">
-        <v>189</v>
-      </c>
+      <c r="J397" t="inlineStr"/>
       <c r="K397" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15157,12 +15343,12 @@
         <v>-152131.3082205561</v>
       </c>
       <c r="H398" t="n">
-        <v>0</v>
-      </c>
-      <c r="I398" t="inlineStr"/>
-      <c r="J398" t="n">
-        <v>189</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I398" t="n">
+        <v>189</v>
+      </c>
+      <c r="J398" t="inlineStr"/>
       <c r="K398" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15196,12 +15382,12 @@
         <v>-202608.1089205561</v>
       </c>
       <c r="H399" t="n">
-        <v>0</v>
-      </c>
-      <c r="I399" t="inlineStr"/>
-      <c r="J399" t="n">
-        <v>189</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I399" t="n">
+        <v>189</v>
+      </c>
+      <c r="J399" t="inlineStr"/>
       <c r="K399" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15235,12 +15421,12 @@
         <v>-196814.0090205561</v>
       </c>
       <c r="H400" t="n">
-        <v>0</v>
-      </c>
-      <c r="I400" t="inlineStr"/>
-      <c r="J400" t="n">
-        <v>189</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I400" t="n">
+        <v>186</v>
+      </c>
+      <c r="J400" t="inlineStr"/>
       <c r="K400" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15274,12 +15460,12 @@
         <v>-219407.9768205561</v>
       </c>
       <c r="H401" t="n">
-        <v>0</v>
-      </c>
-      <c r="I401" t="inlineStr"/>
-      <c r="J401" t="n">
-        <v>189</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I401" t="n">
+        <v>188</v>
+      </c>
+      <c r="J401" t="inlineStr"/>
       <c r="K401" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15313,12 +15499,12 @@
         <v>-218507.9768205561</v>
       </c>
       <c r="H402" t="n">
-        <v>0</v>
-      </c>
-      <c r="I402" t="inlineStr"/>
-      <c r="J402" t="n">
-        <v>189</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I402" t="n">
+        <v>185</v>
+      </c>
+      <c r="J402" t="inlineStr"/>
       <c r="K402" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15352,12 +15538,12 @@
         <v>-240518.4313205561</v>
       </c>
       <c r="H403" t="n">
-        <v>0</v>
-      </c>
-      <c r="I403" t="inlineStr"/>
-      <c r="J403" t="n">
-        <v>189</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I403" t="n">
+        <v>187</v>
+      </c>
+      <c r="J403" t="inlineStr"/>
       <c r="K403" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15391,12 +15577,12 @@
         <v>-240988.4313205561</v>
       </c>
       <c r="H404" t="n">
-        <v>0</v>
-      </c>
-      <c r="I404" t="inlineStr"/>
-      <c r="J404" t="n">
-        <v>189</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I404" t="n">
+        <v>186</v>
+      </c>
+      <c r="J404" t="inlineStr"/>
       <c r="K404" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15430,12 +15616,12 @@
         <v>-240734.4313205561</v>
       </c>
       <c r="H405" t="n">
-        <v>0</v>
-      </c>
-      <c r="I405" t="inlineStr"/>
-      <c r="J405" t="n">
-        <v>189</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I405" t="n">
+        <v>185</v>
+      </c>
+      <c r="J405" t="inlineStr"/>
       <c r="K405" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15469,12 +15655,12 @@
         <v>-240734.4313205561</v>
       </c>
       <c r="H406" t="n">
-        <v>0</v>
-      </c>
-      <c r="I406" t="inlineStr"/>
-      <c r="J406" t="n">
-        <v>189</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I406" t="n">
+        <v>186</v>
+      </c>
+      <c r="J406" t="inlineStr"/>
       <c r="K406" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15508,12 +15694,12 @@
         <v>-291211.2320205561</v>
       </c>
       <c r="H407" t="n">
-        <v>0</v>
-      </c>
-      <c r="I407" t="inlineStr"/>
-      <c r="J407" t="n">
-        <v>189</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I407" t="n">
+        <v>186</v>
+      </c>
+      <c r="J407" t="inlineStr"/>
       <c r="K407" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15547,12 +15733,12 @@
         <v>-291156.2870205561</v>
       </c>
       <c r="H408" t="n">
-        <v>0</v>
-      </c>
-      <c r="I408" t="inlineStr"/>
-      <c r="J408" t="n">
-        <v>189</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I408" t="n">
+        <v>182</v>
+      </c>
+      <c r="J408" t="inlineStr"/>
       <c r="K408" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15586,12 +15772,12 @@
         <v>-291156.2870205561</v>
       </c>
       <c r="H409" t="n">
-        <v>0</v>
-      </c>
-      <c r="I409" t="inlineStr"/>
-      <c r="J409" t="n">
-        <v>189</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I409" t="n">
+        <v>187</v>
+      </c>
+      <c r="J409" t="inlineStr"/>
       <c r="K409" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15625,12 +15811,12 @@
         <v>-291156.2870205561</v>
       </c>
       <c r="H410" t="n">
-        <v>0</v>
-      </c>
-      <c r="I410" t="inlineStr"/>
-      <c r="J410" t="n">
-        <v>189</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I410" t="n">
+        <v>187</v>
+      </c>
+      <c r="J410" t="inlineStr"/>
       <c r="K410" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15664,12 +15850,12 @@
         <v>-291156.2870205561</v>
       </c>
       <c r="H411" t="n">
-        <v>0</v>
-      </c>
-      <c r="I411" t="inlineStr"/>
-      <c r="J411" t="n">
-        <v>189</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I411" t="n">
+        <v>187</v>
+      </c>
+      <c r="J411" t="inlineStr"/>
       <c r="K411" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15706,9 +15892,7 @@
         <v>0</v>
       </c>
       <c r="I412" t="inlineStr"/>
-      <c r="J412" t="n">
-        <v>189</v>
-      </c>
+      <c r="J412" t="inlineStr"/>
       <c r="K412" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15745,9 +15929,7 @@
         <v>0</v>
       </c>
       <c r="I413" t="inlineStr"/>
-      <c r="J413" t="n">
-        <v>189</v>
-      </c>
+      <c r="J413" t="inlineStr"/>
       <c r="K413" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15784,9 +15966,7 @@
         <v>0</v>
       </c>
       <c r="I414" t="inlineStr"/>
-      <c r="J414" t="n">
-        <v>189</v>
-      </c>
+      <c r="J414" t="inlineStr"/>
       <c r="K414" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15823,9 +16003,7 @@
         <v>0</v>
       </c>
       <c r="I415" t="inlineStr"/>
-      <c r="J415" t="n">
-        <v>189</v>
-      </c>
+      <c r="J415" t="inlineStr"/>
       <c r="K415" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15862,9 +16040,7 @@
         <v>0</v>
       </c>
       <c r="I416" t="inlineStr"/>
-      <c r="J416" t="n">
-        <v>189</v>
-      </c>
+      <c r="J416" t="inlineStr"/>
       <c r="K416" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15901,9 +16077,7 @@
         <v>0</v>
       </c>
       <c r="I417" t="inlineStr"/>
-      <c r="J417" t="n">
-        <v>189</v>
-      </c>
+      <c r="J417" t="inlineStr"/>
       <c r="K417" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15940,9 +16114,7 @@
         <v>0</v>
       </c>
       <c r="I418" t="inlineStr"/>
-      <c r="J418" t="n">
-        <v>189</v>
-      </c>
+      <c r="J418" t="inlineStr"/>
       <c r="K418" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15979,9 +16151,7 @@
         <v>0</v>
       </c>
       <c r="I419" t="inlineStr"/>
-      <c r="J419" t="n">
-        <v>189</v>
-      </c>
+      <c r="J419" t="inlineStr"/>
       <c r="K419" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16018,9 +16188,7 @@
         <v>0</v>
       </c>
       <c r="I420" t="inlineStr"/>
-      <c r="J420" t="n">
-        <v>189</v>
-      </c>
+      <c r="J420" t="inlineStr"/>
       <c r="K420" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16057,9 +16225,7 @@
         <v>0</v>
       </c>
       <c r="I421" t="inlineStr"/>
-      <c r="J421" t="n">
-        <v>189</v>
-      </c>
+      <c r="J421" t="inlineStr"/>
       <c r="K421" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16096,9 +16262,7 @@
         <v>0</v>
       </c>
       <c r="I422" t="inlineStr"/>
-      <c r="J422" t="n">
-        <v>189</v>
-      </c>
+      <c r="J422" t="inlineStr"/>
       <c r="K422" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16135,9 +16299,7 @@
         <v>0</v>
       </c>
       <c r="I423" t="inlineStr"/>
-      <c r="J423" t="n">
-        <v>189</v>
-      </c>
+      <c r="J423" t="inlineStr"/>
       <c r="K423" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16174,9 +16336,7 @@
         <v>0</v>
       </c>
       <c r="I424" t="inlineStr"/>
-      <c r="J424" t="n">
-        <v>189</v>
-      </c>
+      <c r="J424" t="inlineStr"/>
       <c r="K424" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16213,9 +16373,7 @@
         <v>0</v>
       </c>
       <c r="I425" t="inlineStr"/>
-      <c r="J425" t="n">
-        <v>189</v>
-      </c>
+      <c r="J425" t="inlineStr"/>
       <c r="K425" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16252,9 +16410,7 @@
         <v>0</v>
       </c>
       <c r="I426" t="inlineStr"/>
-      <c r="J426" t="n">
-        <v>189</v>
-      </c>
+      <c r="J426" t="inlineStr"/>
       <c r="K426" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16291,9 +16447,7 @@
         <v>0</v>
       </c>
       <c r="I427" t="inlineStr"/>
-      <c r="J427" t="n">
-        <v>189</v>
-      </c>
+      <c r="J427" t="inlineStr"/>
       <c r="K427" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16330,9 +16484,7 @@
         <v>0</v>
       </c>
       <c r="I428" t="inlineStr"/>
-      <c r="J428" t="n">
-        <v>189</v>
-      </c>
+      <c r="J428" t="inlineStr"/>
       <c r="K428" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16369,9 +16521,7 @@
         <v>0</v>
       </c>
       <c r="I429" t="inlineStr"/>
-      <c r="J429" t="n">
-        <v>189</v>
-      </c>
+      <c r="J429" t="inlineStr"/>
       <c r="K429" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16408,9 +16558,7 @@
         <v>0</v>
       </c>
       <c r="I430" t="inlineStr"/>
-      <c r="J430" t="n">
-        <v>189</v>
-      </c>
+      <c r="J430" t="inlineStr"/>
       <c r="K430" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16447,9 +16595,7 @@
         <v>0</v>
       </c>
       <c r="I431" t="inlineStr"/>
-      <c r="J431" t="n">
-        <v>189</v>
-      </c>
+      <c r="J431" t="inlineStr"/>
       <c r="K431" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16486,9 +16632,7 @@
         <v>0</v>
       </c>
       <c r="I432" t="inlineStr"/>
-      <c r="J432" t="n">
-        <v>189</v>
-      </c>
+      <c r="J432" t="inlineStr"/>
       <c r="K432" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16525,9 +16669,7 @@
         <v>0</v>
       </c>
       <c r="I433" t="inlineStr"/>
-      <c r="J433" t="n">
-        <v>189</v>
-      </c>
+      <c r="J433" t="inlineStr"/>
       <c r="K433" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16564,9 +16706,7 @@
         <v>0</v>
       </c>
       <c r="I434" t="inlineStr"/>
-      <c r="J434" t="n">
-        <v>189</v>
-      </c>
+      <c r="J434" t="inlineStr"/>
       <c r="K434" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16603,9 +16743,7 @@
         <v>0</v>
       </c>
       <c r="I435" t="inlineStr"/>
-      <c r="J435" t="n">
-        <v>189</v>
-      </c>
+      <c r="J435" t="inlineStr"/>
       <c r="K435" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16642,9 +16780,7 @@
         <v>0</v>
       </c>
       <c r="I436" t="inlineStr"/>
-      <c r="J436" t="n">
-        <v>189</v>
-      </c>
+      <c r="J436" t="inlineStr"/>
       <c r="K436" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16681,9 +16817,7 @@
         <v>0</v>
       </c>
       <c r="I437" t="inlineStr"/>
-      <c r="J437" t="n">
-        <v>189</v>
-      </c>
+      <c r="J437" t="inlineStr"/>
       <c r="K437" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16720,9 +16854,7 @@
         <v>0</v>
       </c>
       <c r="I438" t="inlineStr"/>
-      <c r="J438" t="n">
-        <v>189</v>
-      </c>
+      <c r="J438" t="inlineStr"/>
       <c r="K438" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16759,9 +16891,7 @@
         <v>0</v>
       </c>
       <c r="I439" t="inlineStr"/>
-      <c r="J439" t="n">
-        <v>189</v>
-      </c>
+      <c r="J439" t="inlineStr"/>
       <c r="K439" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16798,9 +16928,7 @@
         <v>0</v>
       </c>
       <c r="I440" t="inlineStr"/>
-      <c r="J440" t="n">
-        <v>189</v>
-      </c>
+      <c r="J440" t="inlineStr"/>
       <c r="K440" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16837,9 +16965,7 @@
         <v>0</v>
       </c>
       <c r="I441" t="inlineStr"/>
-      <c r="J441" t="n">
-        <v>189</v>
-      </c>
+      <c r="J441" t="inlineStr"/>
       <c r="K441" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16876,9 +17002,7 @@
         <v>0</v>
       </c>
       <c r="I442" t="inlineStr"/>
-      <c r="J442" t="n">
-        <v>189</v>
-      </c>
+      <c r="J442" t="inlineStr"/>
       <c r="K442" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16915,9 +17039,7 @@
         <v>0</v>
       </c>
       <c r="I443" t="inlineStr"/>
-      <c r="J443" t="n">
-        <v>189</v>
-      </c>
+      <c r="J443" t="inlineStr"/>
       <c r="K443" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16954,9 +17076,7 @@
         <v>0</v>
       </c>
       <c r="I444" t="inlineStr"/>
-      <c r="J444" t="n">
-        <v>189</v>
-      </c>
+      <c r="J444" t="inlineStr"/>
       <c r="K444" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16993,9 +17113,7 @@
         <v>0</v>
       </c>
       <c r="I445" t="inlineStr"/>
-      <c r="J445" t="n">
-        <v>189</v>
-      </c>
+      <c r="J445" t="inlineStr"/>
       <c r="K445" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17032,9 +17150,7 @@
         <v>0</v>
       </c>
       <c r="I446" t="inlineStr"/>
-      <c r="J446" t="n">
-        <v>189</v>
-      </c>
+      <c r="J446" t="inlineStr"/>
       <c r="K446" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17071,9 +17187,7 @@
         <v>0</v>
       </c>
       <c r="I447" t="inlineStr"/>
-      <c r="J447" t="n">
-        <v>189</v>
-      </c>
+      <c r="J447" t="inlineStr"/>
       <c r="K447" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17110,9 +17224,7 @@
         <v>0</v>
       </c>
       <c r="I448" t="inlineStr"/>
-      <c r="J448" t="n">
-        <v>189</v>
-      </c>
+      <c r="J448" t="inlineStr"/>
       <c r="K448" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17149,9 +17261,7 @@
         <v>0</v>
       </c>
       <c r="I449" t="inlineStr"/>
-      <c r="J449" t="n">
-        <v>189</v>
-      </c>
+      <c r="J449" t="inlineStr"/>
       <c r="K449" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17188,9 +17298,7 @@
         <v>0</v>
       </c>
       <c r="I450" t="inlineStr"/>
-      <c r="J450" t="n">
-        <v>189</v>
-      </c>
+      <c r="J450" t="inlineStr"/>
       <c r="K450" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17227,9 +17335,7 @@
         <v>0</v>
       </c>
       <c r="I451" t="inlineStr"/>
-      <c r="J451" t="n">
-        <v>189</v>
-      </c>
+      <c r="J451" t="inlineStr"/>
       <c r="K451" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17266,9 +17372,7 @@
         <v>0</v>
       </c>
       <c r="I452" t="inlineStr"/>
-      <c r="J452" t="n">
-        <v>189</v>
-      </c>
+      <c r="J452" t="inlineStr"/>
       <c r="K452" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17305,9 +17409,7 @@
         <v>0</v>
       </c>
       <c r="I453" t="inlineStr"/>
-      <c r="J453" t="n">
-        <v>189</v>
-      </c>
+      <c r="J453" t="inlineStr"/>
       <c r="K453" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17344,9 +17446,7 @@
         <v>0</v>
       </c>
       <c r="I454" t="inlineStr"/>
-      <c r="J454" t="n">
-        <v>189</v>
-      </c>
+      <c r="J454" t="inlineStr"/>
       <c r="K454" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17383,9 +17483,7 @@
         <v>0</v>
       </c>
       <c r="I455" t="inlineStr"/>
-      <c r="J455" t="n">
-        <v>189</v>
-      </c>
+      <c r="J455" t="inlineStr"/>
       <c r="K455" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17422,9 +17520,7 @@
         <v>0</v>
       </c>
       <c r="I456" t="inlineStr"/>
-      <c r="J456" t="n">
-        <v>189</v>
-      </c>
+      <c r="J456" t="inlineStr"/>
       <c r="K456" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17461,9 +17557,7 @@
         <v>0</v>
       </c>
       <c r="I457" t="inlineStr"/>
-      <c r="J457" t="n">
-        <v>189</v>
-      </c>
+      <c r="J457" t="inlineStr"/>
       <c r="K457" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17500,9 +17594,7 @@
         <v>0</v>
       </c>
       <c r="I458" t="inlineStr"/>
-      <c r="J458" t="n">
-        <v>189</v>
-      </c>
+      <c r="J458" t="inlineStr"/>
       <c r="K458" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17539,9 +17631,7 @@
         <v>0</v>
       </c>
       <c r="I459" t="inlineStr"/>
-      <c r="J459" t="n">
-        <v>189</v>
-      </c>
+      <c r="J459" t="inlineStr"/>
       <c r="K459" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17578,9 +17668,7 @@
         <v>0</v>
       </c>
       <c r="I460" t="inlineStr"/>
-      <c r="J460" t="n">
-        <v>189</v>
-      </c>
+      <c r="J460" t="inlineStr"/>
       <c r="K460" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17592,6 +17680,6 @@
       <c r="M460" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-29 BackTest RDN.xlsx
+++ b/BackTest/2019-10-29 BackTest RDN.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-14402.82877351351</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,14 +484,10 @@
         <v>-14402.82877351351</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" t="n">
-        <v>185</v>
-      </c>
-      <c r="J3" t="n">
-        <v>185</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
@@ -521,19 +517,11 @@
         <v>-21839.82877351351</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>185</v>
-      </c>
-      <c r="J4" t="n">
-        <v>185</v>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -562,19 +550,11 @@
         <v>-82360.70946061028</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>184</v>
-      </c>
-      <c r="J5" t="n">
-        <v>185</v>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -603,19 +583,11 @@
         <v>-82348.78967451402</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>182</v>
-      </c>
-      <c r="J6" t="n">
-        <v>185</v>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
         <v>1</v>
       </c>
@@ -644,19 +616,11 @@
         <v>-82247.30847451402</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>187</v>
-      </c>
-      <c r="J7" t="n">
-        <v>185</v>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -688,14 +652,8 @@
         <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
-      <c r="J8" t="n">
-        <v>185</v>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -727,14 +685,8 @@
         <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
-      <c r="J9" t="n">
-        <v>185</v>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -766,14 +718,8 @@
         <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
-      <c r="J10" t="n">
-        <v>185</v>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -805,14 +751,8 @@
         <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
-      <c r="J11" t="n">
-        <v>185</v>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -841,19 +781,11 @@
         <v>-84858.61587451403</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>185</v>
-      </c>
-      <c r="J12" t="n">
-        <v>185</v>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -882,19 +814,11 @@
         <v>-84026.59437451402</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>185</v>
-      </c>
-      <c r="J13" t="n">
-        <v>185</v>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -923,19 +847,11 @@
         <v>-86811.53367451402</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>186</v>
-      </c>
-      <c r="J14" t="n">
-        <v>185</v>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -964,19 +880,11 @@
         <v>-86799.61431967531</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" t="n">
-        <v>184</v>
-      </c>
-      <c r="J15" t="n">
-        <v>185</v>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -1005,19 +913,11 @@
         <v>-94184.61431967531</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>186</v>
-      </c>
-      <c r="J16" t="n">
-        <v>185</v>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -1049,14 +949,8 @@
         <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
-      <c r="J17" t="n">
-        <v>185</v>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -1085,19 +979,11 @@
         <v>-90882.69837451402</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>185</v>
-      </c>
-      <c r="J18" t="n">
-        <v>185</v>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1129,14 +1015,8 @@
         <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
-      <c r="J19" t="n">
-        <v>185</v>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1168,14 +1048,8 @@
         <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="n">
-        <v>185</v>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1207,14 +1081,8 @@
         <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
-      <c r="J21" t="n">
-        <v>185</v>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1246,14 +1114,8 @@
         <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
-      <c r="J22" t="n">
-        <v>185</v>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1285,14 +1147,8 @@
         <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
-      <c r="J23" t="n">
-        <v>185</v>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1324,14 +1180,8 @@
         <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
-      <c r="J24" t="n">
-        <v>185</v>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1363,14 +1213,8 @@
         <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
-      <c r="J25" t="n">
-        <v>185</v>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1402,14 +1246,8 @@
         <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
-      <c r="J26" t="n">
-        <v>185</v>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1441,14 +1279,8 @@
         <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
-      <c r="J27" t="n">
-        <v>185</v>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1480,14 +1312,8 @@
         <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="n">
-        <v>185</v>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1519,14 +1345,8 @@
         <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="n">
-        <v>185</v>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1558,14 +1378,8 @@
         <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="n">
-        <v>185</v>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1597,14 +1411,8 @@
         <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="n">
-        <v>185</v>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1636,14 +1444,8 @@
         <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="n">
-        <v>185</v>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1675,14 +1477,8 @@
         <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="n">
-        <v>185</v>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1714,14 +1510,8 @@
         <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="n">
-        <v>185</v>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1750,17 +1540,11 @@
         <v>-103601.3712587245</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="n">
-        <v>185</v>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1789,17 +1573,11 @@
         <v>-103834.1111587245</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="n">
-        <v>185</v>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1828,17 +1606,11 @@
         <v>-101742.3942587245</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="n">
-        <v>185</v>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1867,17 +1639,11 @@
         <v>-101742.3942587245</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="n">
-        <v>185</v>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1906,17 +1672,11 @@
         <v>-121514.3056587245</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="n">
-        <v>185</v>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1945,17 +1705,11 @@
         <v>-123848.4783587245</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="n">
-        <v>185</v>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1984,17 +1738,11 @@
         <v>-113355.5253587245</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="n">
-        <v>185</v>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -2023,17 +1771,11 @@
         <v>-95643.36915872454</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="n">
-        <v>185</v>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -2062,17 +1804,11 @@
         <v>-95656.47325872454</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="n">
-        <v>185</v>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -2101,17 +1837,11 @@
         <v>-96256.47325872454</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="n">
-        <v>185</v>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -2140,17 +1870,11 @@
         <v>-101104.2867587245</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="n">
-        <v>185</v>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -2182,14 +1906,8 @@
         <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="n">
-        <v>185</v>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -2221,14 +1939,8 @@
         <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="n">
-        <v>185</v>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2260,14 +1972,8 @@
         <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="n">
-        <v>185</v>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2299,14 +2005,8 @@
         <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="n">
-        <v>185</v>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2338,14 +2038,8 @@
         <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="n">
-        <v>185</v>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2377,14 +2071,8 @@
         <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="n">
-        <v>185</v>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2416,14 +2104,8 @@
         <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="n">
-        <v>185</v>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2455,14 +2137,8 @@
         <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="n">
-        <v>185</v>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2494,14 +2170,8 @@
         <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="n">
-        <v>185</v>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2533,14 +2203,8 @@
         <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="n">
-        <v>185</v>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2572,14 +2236,8 @@
         <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="n">
-        <v>185</v>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2611,14 +2269,8 @@
         <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="n">
-        <v>185</v>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2650,14 +2302,8 @@
         <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="n">
-        <v>185</v>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2686,17 +2332,11 @@
         <v>-75027.42195872455</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="n">
-        <v>185</v>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2728,14 +2368,8 @@
         <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="n">
-        <v>185</v>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2764,17 +2398,11 @@
         <v>-70003.42195872455</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="n">
-        <v>185</v>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2806,14 +2434,8 @@
         <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="n">
-        <v>185</v>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2845,14 +2467,8 @@
         <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="n">
-        <v>185</v>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2884,14 +2500,8 @@
         <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="n">
-        <v>185</v>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2923,14 +2533,8 @@
         <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="n">
-        <v>185</v>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2959,17 +2563,11 @@
         <v>-77443.99395872455</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="n">
-        <v>185</v>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2998,17 +2596,11 @@
         <v>-77443.99395872455</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="n">
-        <v>185</v>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -3037,17 +2629,11 @@
         <v>-78241.76915872455</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="n">
-        <v>185</v>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -3076,17 +2662,11 @@
         <v>-78241.76915872455</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="n">
-        <v>185</v>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -3118,14 +2698,8 @@
         <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="n">
-        <v>185</v>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -3157,14 +2731,8 @@
         <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="n">
-        <v>185</v>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -3196,14 +2764,8 @@
         <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="n">
-        <v>185</v>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -3235,14 +2797,8 @@
         <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="n">
-        <v>185</v>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -3274,14 +2830,8 @@
         <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="n">
-        <v>185</v>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -3313,14 +2863,8 @@
         <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="n">
-        <v>185</v>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -3352,14 +2896,8 @@
         <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="n">
-        <v>185</v>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3391,14 +2929,8 @@
         <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="n">
-        <v>185</v>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3430,14 +2962,8 @@
         <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="n">
-        <v>185</v>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3469,14 +2995,8 @@
         <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="n">
-        <v>185</v>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3508,14 +3028,8 @@
         <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="n">
-        <v>185</v>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3547,14 +3061,8 @@
         <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="n">
-        <v>185</v>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3586,14 +3094,8 @@
         <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="n">
-        <v>185</v>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3625,14 +3127,8 @@
         <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="n">
-        <v>185</v>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3664,14 +3160,8 @@
         <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="n">
-        <v>185</v>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3703,14 +3193,8 @@
         <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="n">
-        <v>185</v>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3742,14 +3226,8 @@
         <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="n">
-        <v>185</v>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3781,14 +3259,8 @@
         <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="n">
-        <v>185</v>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3820,14 +3292,8 @@
         <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="n">
-        <v>185</v>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3859,14 +3325,8 @@
         <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="n">
-        <v>185</v>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3898,14 +3358,8 @@
         <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="n">
-        <v>185</v>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3937,14 +3391,8 @@
         <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="n">
-        <v>185</v>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3976,14 +3424,8 @@
         <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="n">
-        <v>185</v>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -4015,14 +3457,8 @@
         <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="n">
-        <v>185</v>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -4054,14 +3490,8 @@
         <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="n">
-        <v>185</v>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -4093,14 +3523,8 @@
         <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="n">
-        <v>185</v>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -4132,14 +3556,8 @@
         <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="n">
-        <v>185</v>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -4171,14 +3589,8 @@
         <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="n">
-        <v>185</v>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -4210,14 +3622,8 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="n">
-        <v>185</v>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -4249,14 +3655,8 @@
         <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="n">
-        <v>185</v>
-      </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -4288,14 +3688,8 @@
         <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="n">
-        <v>185</v>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -4327,14 +3721,8 @@
         <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="n">
-        <v>185</v>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -4366,14 +3754,8 @@
         <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="n">
-        <v>185</v>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -4405,14 +3787,8 @@
         <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="n">
-        <v>185</v>
-      </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4444,14 +3820,8 @@
         <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="n">
-        <v>185</v>
-      </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4483,14 +3853,8 @@
         <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="n">
-        <v>185</v>
-      </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4522,14 +3886,8 @@
         <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="n">
-        <v>185</v>
-      </c>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4561,14 +3919,8 @@
         <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="n">
-        <v>185</v>
-      </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4600,14 +3952,8 @@
         <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="n">
-        <v>185</v>
-      </c>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4639,14 +3985,8 @@
         <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="n">
-        <v>185</v>
-      </c>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4678,14 +4018,8 @@
         <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="n">
-        <v>185</v>
-      </c>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4717,14 +4051,8 @@
         <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="n">
-        <v>185</v>
-      </c>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4756,14 +4084,8 @@
         <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="n">
-        <v>185</v>
-      </c>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4795,14 +4117,8 @@
         <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="n">
-        <v>185</v>
-      </c>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4834,14 +4150,8 @@
         <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="n">
-        <v>185</v>
-      </c>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4873,14 +4183,8 @@
         <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="n">
-        <v>185</v>
-      </c>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4912,14 +4216,8 @@
         <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="n">
-        <v>185</v>
-      </c>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4951,14 +4249,8 @@
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="n">
-        <v>185</v>
-      </c>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4990,14 +4282,8 @@
         <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="n">
-        <v>185</v>
-      </c>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -5029,14 +4315,8 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="n">
-        <v>185</v>
-      </c>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -5068,14 +4348,8 @@
         <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="n">
-        <v>185</v>
-      </c>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -5107,14 +4381,8 @@
         <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="n">
-        <v>185</v>
-      </c>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -5146,14 +4414,8 @@
         <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="n">
-        <v>185</v>
-      </c>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -5185,14 +4447,8 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="n">
-        <v>185</v>
-      </c>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -5224,14 +4480,8 @@
         <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="n">
-        <v>185</v>
-      </c>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -5263,14 +4513,8 @@
         <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="n">
-        <v>185</v>
-      </c>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -5299,23 +4543,15 @@
         <v>4382.898336036335</v>
       </c>
       <c r="H126" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="n">
-        <v>185</v>
-      </c>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
       <c r="L126" t="n">
-        <v>1.086891891891892</v>
-      </c>
-      <c r="M126" t="n">
-        <v>1.010869565217391</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5340,7 +4576,7 @@
         <v>-6004.872663963666</v>
       </c>
       <c r="H127" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -5373,7 +4609,7 @@
         <v>-5002.872663963666</v>
       </c>
       <c r="H128" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -5406,7 +4642,7 @@
         <v>2642.259036036334</v>
       </c>
       <c r="H129" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -5439,7 +4675,7 @@
         <v>-4357.776863963666</v>
       </c>
       <c r="H130" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -5472,7 +4708,7 @@
         <v>-51957.31016396367</v>
       </c>
       <c r="H131" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -5505,7 +4741,7 @@
         <v>-39691.91446396367</v>
       </c>
       <c r="H132" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -5538,7 +4774,7 @@
         <v>-42014.14656396367</v>
       </c>
       <c r="H133" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -5571,7 +4807,7 @@
         <v>-74074.43966396367</v>
       </c>
       <c r="H134" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -5604,7 +4840,7 @@
         <v>-68616.67326396366</v>
       </c>
       <c r="H135" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -5637,7 +4873,7 @@
         <v>-69547.67326396366</v>
       </c>
       <c r="H136" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -5670,7 +4906,7 @@
         <v>-69547.67326396366</v>
       </c>
       <c r="H137" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -5703,7 +4939,7 @@
         <v>-69547.67326396366</v>
       </c>
       <c r="H138" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -5736,7 +4972,7 @@
         <v>-69349.67326396366</v>
       </c>
       <c r="H139" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5769,7 +5005,7 @@
         <v>-69349.67326396366</v>
       </c>
       <c r="H140" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5802,7 +5038,7 @@
         <v>-69349.67326396366</v>
       </c>
       <c r="H141" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5835,7 +5071,7 @@
         <v>-90591.05056396365</v>
       </c>
       <c r="H142" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5868,7 +5104,7 @@
         <v>-90591.05056396365</v>
       </c>
       <c r="H143" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5901,7 +5137,7 @@
         <v>-101613.1499639637</v>
       </c>
       <c r="H144" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5967,7 +5203,7 @@
         <v>-101612.1499639637</v>
       </c>
       <c r="H146" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -6000,7 +5236,7 @@
         <v>-103716.0083395982</v>
       </c>
       <c r="H147" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -6957,10 +6193,14 @@
         <v>-216325.8364142226</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
-      </c>
-      <c r="I176" t="inlineStr"/>
-      <c r="J176" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I176" t="n">
+        <v>187</v>
+      </c>
+      <c r="J176" t="n">
+        <v>187</v>
+      </c>
       <c r="K176" t="inlineStr"/>
       <c r="L176" t="n">
         <v>1</v>
@@ -6993,8 +6233,14 @@
         <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>187</v>
+      </c>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -7023,11 +6269,19 @@
         <v>-232828.1878142226</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
-      </c>
-      <c r="I178" t="inlineStr"/>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I178" t="n">
+        <v>186</v>
+      </c>
+      <c r="J178" t="n">
+        <v>187</v>
+      </c>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -7056,11 +6310,19 @@
         <v>-229228.1878142226</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
-      </c>
-      <c r="I179" t="inlineStr"/>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I179" t="n">
+        <v>183</v>
+      </c>
+      <c r="J179" t="n">
+        <v>187</v>
+      </c>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -7089,11 +6351,19 @@
         <v>-229228.1878142226</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
-      </c>
-      <c r="I180" t="inlineStr"/>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I180" t="n">
+        <v>186</v>
+      </c>
+      <c r="J180" t="n">
+        <v>187</v>
+      </c>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -7125,8 +6395,14 @@
         <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>187</v>
+      </c>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -7155,11 +6431,19 @@
         <v>-241091.5787142226</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
-      </c>
-      <c r="I182" t="inlineStr"/>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I182" t="n">
+        <v>185</v>
+      </c>
+      <c r="J182" t="n">
+        <v>187</v>
+      </c>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -7191,8 +6475,14 @@
         <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>187</v>
+      </c>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -7221,15 +6511,15 @@
         <v>-240723.5418142226</v>
       </c>
       <c r="H184" t="n">
-        <v>1</v>
-      </c>
-      <c r="I184" t="n">
-        <v>183</v>
-      </c>
-      <c r="J184" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>187</v>
+      </c>
       <c r="K184" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L184" t="n">
@@ -7260,12 +6550,12 @@
         <v>-240723.5418142226</v>
       </c>
       <c r="H185" t="n">
-        <v>1</v>
-      </c>
-      <c r="I185" t="n">
-        <v>185</v>
-      </c>
-      <c r="J185" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>187</v>
+      </c>
       <c r="K185" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7299,12 +6589,12 @@
         <v>-240723.5418142226</v>
       </c>
       <c r="H186" t="n">
-        <v>1</v>
-      </c>
-      <c r="I186" t="n">
-        <v>185</v>
-      </c>
-      <c r="J186" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>187</v>
+      </c>
       <c r="K186" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7338,12 +6628,12 @@
         <v>-240723.5418142226</v>
       </c>
       <c r="H187" t="n">
-        <v>1</v>
-      </c>
-      <c r="I187" t="n">
-        <v>185</v>
-      </c>
-      <c r="J187" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I187" t="inlineStr"/>
+      <c r="J187" t="n">
+        <v>187</v>
+      </c>
       <c r="K187" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7377,12 +6667,12 @@
         <v>-240723.5418142226</v>
       </c>
       <c r="H188" t="n">
-        <v>1</v>
-      </c>
-      <c r="I188" t="n">
-        <v>185</v>
-      </c>
-      <c r="J188" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I188" t="inlineStr"/>
+      <c r="J188" t="n">
+        <v>187</v>
+      </c>
       <c r="K188" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7416,12 +6706,12 @@
         <v>-232163.4454142226</v>
       </c>
       <c r="H189" t="n">
-        <v>1</v>
-      </c>
-      <c r="I189" t="n">
-        <v>185</v>
-      </c>
-      <c r="J189" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I189" t="inlineStr"/>
+      <c r="J189" t="n">
+        <v>187</v>
+      </c>
       <c r="K189" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7460,7 +6750,9 @@
       <c r="I190" t="n">
         <v>186</v>
       </c>
-      <c r="J190" t="inlineStr"/>
+      <c r="J190" t="n">
+        <v>187</v>
+      </c>
       <c r="K190" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7494,12 +6786,12 @@
         <v>-232163.4454142226</v>
       </c>
       <c r="H191" t="n">
-        <v>1</v>
-      </c>
-      <c r="I191" t="n">
-        <v>186</v>
-      </c>
-      <c r="J191" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I191" t="inlineStr"/>
+      <c r="J191" t="n">
+        <v>187</v>
+      </c>
       <c r="K191" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7538,7 +6830,9 @@
       <c r="I192" t="n">
         <v>186</v>
       </c>
-      <c r="J192" t="inlineStr"/>
+      <c r="J192" t="n">
+        <v>187</v>
+      </c>
       <c r="K192" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7572,12 +6866,12 @@
         <v>-232163.4454142226</v>
       </c>
       <c r="H193" t="n">
-        <v>1</v>
-      </c>
-      <c r="I193" t="n">
-        <v>186</v>
-      </c>
-      <c r="J193" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I193" t="inlineStr"/>
+      <c r="J193" t="n">
+        <v>187</v>
+      </c>
       <c r="K193" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7616,7 +6910,9 @@
       <c r="I194" t="n">
         <v>186</v>
       </c>
-      <c r="J194" t="inlineStr"/>
+      <c r="J194" t="n">
+        <v>187</v>
+      </c>
       <c r="K194" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7650,12 +6946,12 @@
         <v>-232163.4454142226</v>
       </c>
       <c r="H195" t="n">
-        <v>1</v>
-      </c>
-      <c r="I195" t="n">
-        <v>186</v>
-      </c>
-      <c r="J195" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I195" t="inlineStr"/>
+      <c r="J195" t="n">
+        <v>187</v>
+      </c>
       <c r="K195" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7694,7 +6990,9 @@
       <c r="I196" t="n">
         <v>186</v>
       </c>
-      <c r="J196" t="inlineStr"/>
+      <c r="J196" t="n">
+        <v>187</v>
+      </c>
       <c r="K196" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7728,10 +7026,14 @@
         <v>-228228.7446142226</v>
       </c>
       <c r="H197" t="n">
-        <v>0</v>
-      </c>
-      <c r="I197" t="inlineStr"/>
-      <c r="J197" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I197" t="n">
+        <v>187</v>
+      </c>
+      <c r="J197" t="n">
+        <v>187</v>
+      </c>
       <c r="K197" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7770,7 +7072,9 @@
       <c r="I198" t="n">
         <v>185</v>
       </c>
-      <c r="J198" t="inlineStr"/>
+      <c r="J198" t="n">
+        <v>187</v>
+      </c>
       <c r="K198" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7807,7 +7111,9 @@
         <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
-      <c r="J199" t="inlineStr"/>
+      <c r="J199" t="n">
+        <v>187</v>
+      </c>
       <c r="K199" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7844,7 +7150,9 @@
         <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="inlineStr"/>
+      <c r="J200" t="n">
+        <v>187</v>
+      </c>
       <c r="K200" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7878,12 +7186,12 @@
         <v>-228228.7446142226</v>
       </c>
       <c r="H201" t="n">
-        <v>1</v>
-      </c>
-      <c r="I201" t="n">
-        <v>185</v>
-      </c>
-      <c r="J201" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I201" t="inlineStr"/>
+      <c r="J201" t="n">
+        <v>187</v>
+      </c>
       <c r="K201" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7917,12 +7225,12 @@
         <v>-228228.7446142226</v>
       </c>
       <c r="H202" t="n">
-        <v>1</v>
-      </c>
-      <c r="I202" t="n">
-        <v>185</v>
-      </c>
-      <c r="J202" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I202" t="inlineStr"/>
+      <c r="J202" t="n">
+        <v>187</v>
+      </c>
       <c r="K202" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7956,12 +7264,12 @@
         <v>-228228.7446142226</v>
       </c>
       <c r="H203" t="n">
-        <v>1</v>
-      </c>
-      <c r="I203" t="n">
-        <v>185</v>
-      </c>
-      <c r="J203" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I203" t="inlineStr"/>
+      <c r="J203" t="n">
+        <v>187</v>
+      </c>
       <c r="K203" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7995,12 +7303,12 @@
         <v>-228228.7446142226</v>
       </c>
       <c r="H204" t="n">
-        <v>1</v>
-      </c>
-      <c r="I204" t="n">
-        <v>185</v>
-      </c>
-      <c r="J204" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I204" t="inlineStr"/>
+      <c r="J204" t="n">
+        <v>187</v>
+      </c>
       <c r="K204" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8034,12 +7342,12 @@
         <v>-233908.0869142226</v>
       </c>
       <c r="H205" t="n">
-        <v>1</v>
-      </c>
-      <c r="I205" t="n">
-        <v>185</v>
-      </c>
-      <c r="J205" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I205" t="inlineStr"/>
+      <c r="J205" t="n">
+        <v>187</v>
+      </c>
       <c r="K205" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8073,12 +7381,12 @@
         <v>-233990.2123142226</v>
       </c>
       <c r="H206" t="n">
-        <v>1</v>
-      </c>
-      <c r="I206" t="n">
-        <v>184</v>
-      </c>
-      <c r="J206" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I206" t="inlineStr"/>
+      <c r="J206" t="n">
+        <v>187</v>
+      </c>
       <c r="K206" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8112,12 +7420,12 @@
         <v>-239967.9328142226</v>
       </c>
       <c r="H207" t="n">
-        <v>1</v>
-      </c>
-      <c r="I207" t="n">
-        <v>183</v>
-      </c>
-      <c r="J207" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I207" t="inlineStr"/>
+      <c r="J207" t="n">
+        <v>187</v>
+      </c>
       <c r="K207" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8151,12 +7459,12 @@
         <v>-238371.6143142226</v>
       </c>
       <c r="H208" t="n">
-        <v>1</v>
-      </c>
-      <c r="I208" t="n">
-        <v>182</v>
-      </c>
-      <c r="J208" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I208" t="inlineStr"/>
+      <c r="J208" t="n">
+        <v>187</v>
+      </c>
       <c r="K208" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8190,12 +7498,12 @@
         <v>-238371.6143142226</v>
       </c>
       <c r="H209" t="n">
-        <v>1</v>
-      </c>
-      <c r="I209" t="n">
-        <v>184</v>
-      </c>
-      <c r="J209" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I209" t="inlineStr"/>
+      <c r="J209" t="n">
+        <v>187</v>
+      </c>
       <c r="K209" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8229,12 +7537,12 @@
         <v>-243242.4290142226</v>
       </c>
       <c r="H210" t="n">
-        <v>1</v>
-      </c>
-      <c r="I210" t="n">
-        <v>184</v>
-      </c>
-      <c r="J210" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I210" t="inlineStr"/>
+      <c r="J210" t="n">
+        <v>187</v>
+      </c>
       <c r="K210" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8268,12 +7576,12 @@
         <v>-251296.3640142226</v>
       </c>
       <c r="H211" t="n">
-        <v>1</v>
-      </c>
-      <c r="I211" t="n">
-        <v>183</v>
-      </c>
-      <c r="J211" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I211" t="inlineStr"/>
+      <c r="J211" t="n">
+        <v>187</v>
+      </c>
       <c r="K211" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8307,12 +7615,12 @@
         <v>-251296.3640142226</v>
       </c>
       <c r="H212" t="n">
-        <v>1</v>
-      </c>
-      <c r="I212" t="n">
-        <v>182</v>
-      </c>
-      <c r="J212" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I212" t="inlineStr"/>
+      <c r="J212" t="n">
+        <v>187</v>
+      </c>
       <c r="K212" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8346,12 +7654,12 @@
         <v>-251296.3640142226</v>
       </c>
       <c r="H213" t="n">
-        <v>1</v>
-      </c>
-      <c r="I213" t="n">
-        <v>182</v>
-      </c>
-      <c r="J213" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I213" t="inlineStr"/>
+      <c r="J213" t="n">
+        <v>187</v>
+      </c>
       <c r="K213" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8385,12 +7693,12 @@
         <v>-250457.3641142226</v>
       </c>
       <c r="H214" t="n">
-        <v>1</v>
-      </c>
-      <c r="I214" t="n">
-        <v>182</v>
-      </c>
-      <c r="J214" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I214" t="inlineStr"/>
+      <c r="J214" t="n">
+        <v>187</v>
+      </c>
       <c r="K214" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8424,12 +7732,12 @@
         <v>-250457.3641142226</v>
       </c>
       <c r="H215" t="n">
-        <v>1</v>
-      </c>
-      <c r="I215" t="n">
-        <v>183</v>
-      </c>
-      <c r="J215" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I215" t="inlineStr"/>
+      <c r="J215" t="n">
+        <v>187</v>
+      </c>
       <c r="K215" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8463,12 +7771,12 @@
         <v>-250457.3641142226</v>
       </c>
       <c r="H216" t="n">
-        <v>1</v>
-      </c>
-      <c r="I216" t="n">
-        <v>183</v>
-      </c>
-      <c r="J216" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I216" t="inlineStr"/>
+      <c r="J216" t="n">
+        <v>187</v>
+      </c>
       <c r="K216" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8502,12 +7810,12 @@
         <v>-248219.1943142226</v>
       </c>
       <c r="H217" t="n">
-        <v>1</v>
-      </c>
-      <c r="I217" t="n">
-        <v>183</v>
-      </c>
-      <c r="J217" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I217" t="inlineStr"/>
+      <c r="J217" t="n">
+        <v>187</v>
+      </c>
       <c r="K217" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8541,12 +7849,12 @@
         <v>-249702.8241142226</v>
       </c>
       <c r="H218" t="n">
-        <v>1</v>
-      </c>
-      <c r="I218" t="n">
-        <v>184</v>
-      </c>
-      <c r="J218" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I218" t="inlineStr"/>
+      <c r="J218" t="n">
+        <v>187</v>
+      </c>
       <c r="K218" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8580,12 +7888,12 @@
         <v>-242921.7317142226</v>
       </c>
       <c r="H219" t="n">
-        <v>1</v>
-      </c>
-      <c r="I219" t="n">
-        <v>183</v>
-      </c>
-      <c r="J219" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I219" t="inlineStr"/>
+      <c r="J219" t="n">
+        <v>187</v>
+      </c>
       <c r="K219" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8619,12 +7927,12 @@
         <v>-242921.7317142226</v>
       </c>
       <c r="H220" t="n">
-        <v>1</v>
-      </c>
-      <c r="I220" t="n">
-        <v>184</v>
-      </c>
-      <c r="J220" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I220" t="inlineStr"/>
+      <c r="J220" t="n">
+        <v>187</v>
+      </c>
       <c r="K220" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8658,12 +7966,12 @@
         <v>-242921.7317142226</v>
       </c>
       <c r="H221" t="n">
-        <v>1</v>
-      </c>
-      <c r="I221" t="n">
-        <v>184</v>
-      </c>
-      <c r="J221" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I221" t="inlineStr"/>
+      <c r="J221" t="n">
+        <v>187</v>
+      </c>
       <c r="K221" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8697,12 +8005,12 @@
         <v>-242921.7317142226</v>
       </c>
       <c r="H222" t="n">
-        <v>1</v>
-      </c>
-      <c r="I222" t="n">
-        <v>184</v>
-      </c>
-      <c r="J222" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I222" t="inlineStr"/>
+      <c r="J222" t="n">
+        <v>187</v>
+      </c>
       <c r="K222" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8736,12 +8044,12 @@
         <v>-242921.7317142226</v>
       </c>
       <c r="H223" t="n">
-        <v>1</v>
-      </c>
-      <c r="I223" t="n">
-        <v>184</v>
-      </c>
-      <c r="J223" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I223" t="inlineStr"/>
+      <c r="J223" t="n">
+        <v>187</v>
+      </c>
       <c r="K223" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8775,12 +8083,12 @@
         <v>-242921.7317142226</v>
       </c>
       <c r="H224" t="n">
-        <v>1</v>
-      </c>
-      <c r="I224" t="n">
-        <v>184</v>
-      </c>
-      <c r="J224" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I224" t="inlineStr"/>
+      <c r="J224" t="n">
+        <v>187</v>
+      </c>
       <c r="K224" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8814,12 +8122,12 @@
         <v>-247827.5878142226</v>
       </c>
       <c r="H225" t="n">
-        <v>1</v>
-      </c>
-      <c r="I225" t="n">
-        <v>184</v>
-      </c>
-      <c r="J225" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I225" t="inlineStr"/>
+      <c r="J225" t="n">
+        <v>187</v>
+      </c>
       <c r="K225" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8853,12 +8161,12 @@
         <v>-250168.6652142226</v>
       </c>
       <c r="H226" t="n">
-        <v>1</v>
-      </c>
-      <c r="I226" t="n">
-        <v>183</v>
-      </c>
-      <c r="J226" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I226" t="inlineStr"/>
+      <c r="J226" t="n">
+        <v>187</v>
+      </c>
       <c r="K226" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8892,12 +8200,12 @@
         <v>-249614.4986142226</v>
       </c>
       <c r="H227" t="n">
-        <v>1</v>
-      </c>
-      <c r="I227" t="n">
-        <v>182</v>
-      </c>
-      <c r="J227" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I227" t="inlineStr"/>
+      <c r="J227" t="n">
+        <v>187</v>
+      </c>
       <c r="K227" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8931,12 +8239,12 @@
         <v>-249614.4986142226</v>
       </c>
       <c r="H228" t="n">
-        <v>1</v>
-      </c>
-      <c r="I228" t="n">
-        <v>183</v>
-      </c>
-      <c r="J228" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I228" t="inlineStr"/>
+      <c r="J228" t="n">
+        <v>187</v>
+      </c>
       <c r="K228" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8970,12 +8278,12 @@
         <v>-249478.2782142226</v>
       </c>
       <c r="H229" t="n">
-        <v>1</v>
-      </c>
-      <c r="I229" t="n">
-        <v>183</v>
-      </c>
-      <c r="J229" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I229" t="inlineStr"/>
+      <c r="J229" t="n">
+        <v>187</v>
+      </c>
       <c r="K229" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9009,12 +8317,12 @@
         <v>-249478.2782142226</v>
       </c>
       <c r="H230" t="n">
-        <v>1</v>
-      </c>
-      <c r="I230" t="n">
-        <v>186</v>
-      </c>
-      <c r="J230" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I230" t="inlineStr"/>
+      <c r="J230" t="n">
+        <v>187</v>
+      </c>
       <c r="K230" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9048,12 +8356,12 @@
         <v>-252561.2466142226</v>
       </c>
       <c r="H231" t="n">
-        <v>1</v>
-      </c>
-      <c r="I231" t="n">
-        <v>186</v>
-      </c>
-      <c r="J231" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I231" t="inlineStr"/>
+      <c r="J231" t="n">
+        <v>187</v>
+      </c>
       <c r="K231" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9087,12 +8395,12 @@
         <v>-252361.2466142226</v>
       </c>
       <c r="H232" t="n">
-        <v>1</v>
-      </c>
-      <c r="I232" t="n">
-        <v>185</v>
-      </c>
-      <c r="J232" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I232" t="inlineStr"/>
+      <c r="J232" t="n">
+        <v>187</v>
+      </c>
       <c r="K232" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9129,7 +8437,9 @@
         <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
-      <c r="J233" t="inlineStr"/>
+      <c r="J233" t="n">
+        <v>187</v>
+      </c>
       <c r="K233" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9166,7 +8476,9 @@
         <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
-      <c r="J234" t="inlineStr"/>
+      <c r="J234" t="n">
+        <v>187</v>
+      </c>
       <c r="K234" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9203,7 +8515,9 @@
         <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
-      <c r="J235" t="inlineStr"/>
+      <c r="J235" t="n">
+        <v>187</v>
+      </c>
       <c r="K235" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9240,7 +8554,9 @@
         <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
-      <c r="J236" t="inlineStr"/>
+      <c r="J236" t="n">
+        <v>187</v>
+      </c>
       <c r="K236" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9277,7 +8593,9 @@
         <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
-      <c r="J237" t="inlineStr"/>
+      <c r="J237" t="n">
+        <v>187</v>
+      </c>
       <c r="K237" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9314,7 +8632,9 @@
         <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
-      <c r="J238" t="inlineStr"/>
+      <c r="J238" t="n">
+        <v>187</v>
+      </c>
       <c r="K238" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9348,12 +8668,12 @@
         <v>-254989.2013142226</v>
       </c>
       <c r="H239" t="n">
-        <v>1</v>
-      </c>
-      <c r="I239" t="n">
-        <v>188</v>
-      </c>
-      <c r="J239" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I239" t="inlineStr"/>
+      <c r="J239" t="n">
+        <v>187</v>
+      </c>
       <c r="K239" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9387,12 +8707,12 @@
         <v>-250623.2013142226</v>
       </c>
       <c r="H240" t="n">
-        <v>1</v>
-      </c>
-      <c r="I240" t="n">
-        <v>187</v>
-      </c>
-      <c r="J240" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I240" t="inlineStr"/>
+      <c r="J240" t="n">
+        <v>187</v>
+      </c>
       <c r="K240" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9426,12 +8746,12 @@
         <v>-250623.2013142226</v>
       </c>
       <c r="H241" t="n">
-        <v>1</v>
-      </c>
-      <c r="I241" t="n">
-        <v>188</v>
-      </c>
-      <c r="J241" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I241" t="inlineStr"/>
+      <c r="J241" t="n">
+        <v>187</v>
+      </c>
       <c r="K241" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9465,12 +8785,12 @@
         <v>-240041.190732212</v>
       </c>
       <c r="H242" t="n">
-        <v>1</v>
-      </c>
-      <c r="I242" t="n">
-        <v>188</v>
-      </c>
-      <c r="J242" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I242" t="inlineStr"/>
+      <c r="J242" t="n">
+        <v>187</v>
+      </c>
       <c r="K242" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9507,7 +8827,9 @@
         <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
-      <c r="J243" t="inlineStr"/>
+      <c r="J243" t="n">
+        <v>187</v>
+      </c>
       <c r="K243" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9544,7 +8866,9 @@
         <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
-      <c r="J244" t="inlineStr"/>
+      <c r="J244" t="n">
+        <v>187</v>
+      </c>
       <c r="K244" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9578,12 +8902,12 @@
         <v>-241295.486132212</v>
       </c>
       <c r="H245" t="n">
-        <v>1</v>
-      </c>
-      <c r="I245" t="n">
-        <v>186</v>
-      </c>
-      <c r="J245" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I245" t="inlineStr"/>
+      <c r="J245" t="n">
+        <v>187</v>
+      </c>
       <c r="K245" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9617,12 +8941,12 @@
         <v>-214165.356732212</v>
       </c>
       <c r="H246" t="n">
-        <v>1</v>
-      </c>
-      <c r="I246" t="n">
-        <v>186</v>
-      </c>
-      <c r="J246" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I246" t="inlineStr"/>
+      <c r="J246" t="n">
+        <v>187</v>
+      </c>
       <c r="K246" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9659,7 +8983,9 @@
         <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
-      <c r="J247" t="inlineStr"/>
+      <c r="J247" t="n">
+        <v>187</v>
+      </c>
       <c r="K247" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9696,7 +9022,9 @@
         <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
-      <c r="J248" t="inlineStr"/>
+      <c r="J248" t="n">
+        <v>187</v>
+      </c>
       <c r="K248" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9733,7 +9061,9 @@
         <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
-      <c r="J249" t="inlineStr"/>
+      <c r="J249" t="n">
+        <v>187</v>
+      </c>
       <c r="K249" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9770,7 +9100,9 @@
         <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
-      <c r="J250" t="inlineStr"/>
+      <c r="J250" t="n">
+        <v>187</v>
+      </c>
       <c r="K250" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9807,7 +9139,9 @@
         <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
-      <c r="J251" t="inlineStr"/>
+      <c r="J251" t="n">
+        <v>187</v>
+      </c>
       <c r="K251" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9844,7 +9178,9 @@
         <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
-      <c r="J252" t="inlineStr"/>
+      <c r="J252" t="n">
+        <v>187</v>
+      </c>
       <c r="K252" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9881,7 +9217,9 @@
         <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
-      <c r="J253" t="inlineStr"/>
+      <c r="J253" t="n">
+        <v>187</v>
+      </c>
       <c r="K253" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9918,7 +9256,9 @@
         <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
-      <c r="J254" t="inlineStr"/>
+      <c r="J254" t="n">
+        <v>187</v>
+      </c>
       <c r="K254" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9955,7 +9295,9 @@
         <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
-      <c r="J255" t="inlineStr"/>
+      <c r="J255" t="n">
+        <v>187</v>
+      </c>
       <c r="K255" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9992,7 +9334,9 @@
         <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
-      <c r="J256" t="inlineStr"/>
+      <c r="J256" t="n">
+        <v>187</v>
+      </c>
       <c r="K256" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10026,17 +9370,19 @@
         <v>-201633.743532212</v>
       </c>
       <c r="H257" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I257" t="inlineStr"/>
-      <c r="J257" t="inlineStr"/>
+      <c r="J257" t="n">
+        <v>187</v>
+      </c>
       <c r="K257" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L257" t="n">
-        <v>1</v>
+        <v>1.011042780748663</v>
       </c>
       <c r="M257" t="inlineStr"/>
     </row>
@@ -10063,15 +9409,11 @@
         <v>-201633.743532212</v>
       </c>
       <c r="H258" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K258" t="inlineStr"/>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -10100,15 +9442,11 @@
         <v>-200787.819132212</v>
       </c>
       <c r="H259" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K259" t="inlineStr"/>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -10137,17 +9475,11 @@
         <v>-200787.819132212</v>
       </c>
       <c r="H260" t="n">
-        <v>1</v>
-      </c>
-      <c r="I260" t="n">
-        <v>192</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K260" t="inlineStr"/>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -10176,17 +9508,11 @@
         <v>-200787.819132212</v>
       </c>
       <c r="H261" t="n">
-        <v>1</v>
-      </c>
-      <c r="I261" t="n">
-        <v>192</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K261" t="inlineStr"/>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -10219,11 +9545,7 @@
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K262" t="inlineStr"/>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -10252,17 +9574,11 @@
         <v>-204004.234732212</v>
       </c>
       <c r="H263" t="n">
-        <v>1</v>
-      </c>
-      <c r="I263" t="n">
-        <v>192</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K263" t="inlineStr"/>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -10291,17 +9607,11 @@
         <v>-204004.234732212</v>
       </c>
       <c r="H264" t="n">
-        <v>1</v>
-      </c>
-      <c r="I264" t="n">
-        <v>190</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K264" t="inlineStr"/>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -10330,17 +9640,11 @@
         <v>-204004.234732212</v>
       </c>
       <c r="H265" t="n">
-        <v>1</v>
-      </c>
-      <c r="I265" t="n">
-        <v>190</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K265" t="inlineStr"/>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -10369,17 +9673,11 @@
         <v>-204004.234732212</v>
       </c>
       <c r="H266" t="n">
-        <v>1</v>
-      </c>
-      <c r="I266" t="n">
-        <v>190</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K266" t="inlineStr"/>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -10408,17 +9706,11 @@
         <v>-204069.234732212</v>
       </c>
       <c r="H267" t="n">
-        <v>1</v>
-      </c>
-      <c r="I267" t="n">
-        <v>190</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K267" t="inlineStr"/>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -10447,17 +9739,11 @@
         <v>-204069.234732212</v>
       </c>
       <c r="H268" t="n">
-        <v>1</v>
-      </c>
-      <c r="I268" t="n">
-        <v>189</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K268" t="inlineStr"/>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -10486,17 +9772,11 @@
         <v>-204069.234732212</v>
       </c>
       <c r="H269" t="n">
-        <v>1</v>
-      </c>
-      <c r="I269" t="n">
-        <v>189</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K269" t="inlineStr"/>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -10525,17 +9805,11 @@
         <v>-204069.234732212</v>
       </c>
       <c r="H270" t="n">
-        <v>1</v>
-      </c>
-      <c r="I270" t="n">
-        <v>189</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K270" t="inlineStr"/>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -10564,17 +9838,11 @@
         <v>-204069.234732212</v>
       </c>
       <c r="H271" t="n">
-        <v>1</v>
-      </c>
-      <c r="I271" t="n">
-        <v>189</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K271" t="inlineStr"/>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -10603,17 +9871,11 @@
         <v>-204069.234732212</v>
       </c>
       <c r="H272" t="n">
-        <v>1</v>
-      </c>
-      <c r="I272" t="n">
-        <v>189</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K272" t="inlineStr"/>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -10642,17 +9904,11 @@
         <v>-228151.453732212</v>
       </c>
       <c r="H273" t="n">
-        <v>1</v>
-      </c>
-      <c r="I273" t="n">
-        <v>189</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K273" t="inlineStr"/>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -10681,17 +9937,11 @@
         <v>-224129.453832212</v>
       </c>
       <c r="H274" t="n">
-        <v>1</v>
-      </c>
-      <c r="I274" t="n">
-        <v>188</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K274" t="inlineStr"/>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -10720,17 +9970,11 @@
         <v>-218227.687732212</v>
       </c>
       <c r="H275" t="n">
-        <v>1</v>
-      </c>
-      <c r="I275" t="n">
-        <v>189</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K275" t="inlineStr"/>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -10759,17 +10003,11 @@
         <v>-218227.687732212</v>
       </c>
       <c r="H276" t="n">
-        <v>1</v>
-      </c>
-      <c r="I276" t="n">
-        <v>190</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K276" t="inlineStr"/>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -10798,17 +10036,11 @@
         <v>-218227.687732212</v>
       </c>
       <c r="H277" t="n">
-        <v>1</v>
-      </c>
-      <c r="I277" t="n">
-        <v>190</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K277" t="inlineStr"/>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -10837,17 +10069,11 @@
         <v>-218227.687732212</v>
       </c>
       <c r="H278" t="n">
-        <v>1</v>
-      </c>
-      <c r="I278" t="n">
-        <v>190</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K278" t="inlineStr"/>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -10876,17 +10102,11 @@
         <v>-218227.687732212</v>
       </c>
       <c r="H279" t="n">
-        <v>1</v>
-      </c>
-      <c r="I279" t="n">
-        <v>190</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K279" t="inlineStr"/>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -10915,17 +10135,11 @@
         <v>-218227.687732212</v>
       </c>
       <c r="H280" t="n">
-        <v>1</v>
-      </c>
-      <c r="I280" t="n">
-        <v>190</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K280" t="inlineStr"/>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -10954,17 +10168,11 @@
         <v>-218227.687732212</v>
       </c>
       <c r="H281" t="n">
-        <v>1</v>
-      </c>
-      <c r="I281" t="n">
-        <v>190</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K281" t="inlineStr"/>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -10993,17 +10201,11 @@
         <v>-218061.687732212</v>
       </c>
       <c r="H282" t="n">
-        <v>1</v>
-      </c>
-      <c r="I282" t="n">
-        <v>190</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K282" t="inlineStr"/>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -11032,15 +10234,11 @@
         <v>-217374.719032212</v>
       </c>
       <c r="H283" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K283" t="inlineStr"/>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -11073,11 +10271,7 @@
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K284" t="inlineStr"/>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -11106,15 +10300,11 @@
         <v>-217982.4190322121</v>
       </c>
       <c r="H285" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K285" t="inlineStr"/>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -11147,11 +10337,7 @@
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K286" t="inlineStr"/>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -11184,11 +10370,7 @@
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K287" t="inlineStr"/>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -11221,11 +10403,7 @@
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K288" t="inlineStr"/>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -11258,11 +10436,7 @@
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K289" t="inlineStr"/>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -11295,11 +10469,7 @@
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K290" t="inlineStr"/>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -11332,11 +10502,7 @@
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K291" t="inlineStr"/>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -11369,11 +10535,7 @@
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K292" t="inlineStr"/>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -11402,17 +10564,11 @@
         <v>-225223.1941322121</v>
       </c>
       <c r="H293" t="n">
-        <v>1</v>
-      </c>
-      <c r="I293" t="n">
-        <v>187</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K293" t="inlineStr"/>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -11441,17 +10597,11 @@
         <v>-210131.7917322121</v>
       </c>
       <c r="H294" t="n">
-        <v>1</v>
-      </c>
-      <c r="I294" t="n">
-        <v>189</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K294" t="inlineStr"/>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -11480,17 +10630,11 @@
         <v>-210998.3627322121</v>
       </c>
       <c r="H295" t="n">
-        <v>1</v>
-      </c>
-      <c r="I295" t="n">
-        <v>190</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K295" t="inlineStr"/>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -11523,11 +10667,7 @@
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K296" t="inlineStr"/>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -11556,17 +10696,11 @@
         <v>-210998.3627322121</v>
       </c>
       <c r="H297" t="n">
-        <v>1</v>
-      </c>
-      <c r="I297" t="n">
-        <v>189</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K297" t="inlineStr"/>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -11595,17 +10729,11 @@
         <v>-210998.3627322121</v>
       </c>
       <c r="H298" t="n">
-        <v>1</v>
-      </c>
-      <c r="I298" t="n">
-        <v>189</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K298" t="inlineStr"/>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -11634,17 +10762,11 @@
         <v>-210998.3627322121</v>
       </c>
       <c r="H299" t="n">
-        <v>1</v>
-      </c>
-      <c r="I299" t="n">
-        <v>189</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K299" t="inlineStr"/>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -11673,17 +10795,11 @@
         <v>-212768.1427322121</v>
       </c>
       <c r="H300" t="n">
-        <v>1</v>
-      </c>
-      <c r="I300" t="n">
-        <v>189</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K300" t="inlineStr"/>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -11712,17 +10828,11 @@
         <v>-205451.5354322121</v>
       </c>
       <c r="H301" t="n">
-        <v>1</v>
-      </c>
-      <c r="I301" t="n">
-        <v>187</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K301" t="inlineStr"/>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -11751,17 +10861,11 @@
         <v>-206416.2071322121</v>
       </c>
       <c r="H302" t="n">
-        <v>1</v>
-      </c>
-      <c r="I302" t="n">
-        <v>188</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K302" t="inlineStr"/>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -11790,17 +10894,11 @@
         <v>-232030.3543322121</v>
       </c>
       <c r="H303" t="n">
-        <v>1</v>
-      </c>
-      <c r="I303" t="n">
-        <v>187</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K303" t="inlineStr"/>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -11829,17 +10927,11 @@
         <v>-232030.3543322121</v>
       </c>
       <c r="H304" t="n">
-        <v>1</v>
-      </c>
-      <c r="I304" t="n">
-        <v>186</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K304" t="inlineStr"/>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -11868,17 +10960,11 @@
         <v>-232029.3543322121</v>
       </c>
       <c r="H305" t="n">
-        <v>1</v>
-      </c>
-      <c r="I305" t="n">
-        <v>186</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K305" t="inlineStr"/>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -11907,17 +10993,11 @@
         <v>-232935.7930322121</v>
       </c>
       <c r="H306" t="n">
-        <v>1</v>
-      </c>
-      <c r="I306" t="n">
-        <v>187</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K306" t="inlineStr"/>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -11946,17 +11026,11 @@
         <v>-190139.5739322121</v>
       </c>
       <c r="H307" t="n">
-        <v>1</v>
-      </c>
-      <c r="I307" t="n">
-        <v>185</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K307" t="inlineStr"/>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -11985,17 +11059,11 @@
         <v>-190139.5739322121</v>
       </c>
       <c r="H308" t="n">
-        <v>1</v>
-      </c>
-      <c r="I308" t="n">
-        <v>186</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K308" t="inlineStr"/>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -12024,17 +11092,11 @@
         <v>-192066.5739322121</v>
       </c>
       <c r="H309" t="n">
-        <v>1</v>
-      </c>
-      <c r="I309" t="n">
-        <v>186</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K309" t="inlineStr"/>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -12063,17 +11125,11 @@
         <v>-181525.7799322121</v>
       </c>
       <c r="H310" t="n">
-        <v>1</v>
-      </c>
-      <c r="I310" t="n">
-        <v>184</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K310" t="inlineStr"/>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -12102,17 +11158,11 @@
         <v>-181525.7799322121</v>
       </c>
       <c r="H311" t="n">
-        <v>1</v>
-      </c>
-      <c r="I311" t="n">
-        <v>185</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K311" t="inlineStr"/>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -12141,17 +11191,11 @@
         <v>-175563.4681322121</v>
       </c>
       <c r="H312" t="n">
-        <v>1</v>
-      </c>
-      <c r="I312" t="n">
-        <v>185</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K312" t="inlineStr"/>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -12180,17 +11224,11 @@
         <v>-175563.4681322121</v>
       </c>
       <c r="H313" t="n">
-        <v>1</v>
-      </c>
-      <c r="I313" t="n">
-        <v>186</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K313" t="inlineStr"/>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -12219,17 +11257,11 @@
         <v>-137462.4435322121</v>
       </c>
       <c r="H314" t="n">
-        <v>1</v>
-      </c>
-      <c r="I314" t="n">
-        <v>186</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K314" t="inlineStr"/>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -12258,17 +11290,11 @@
         <v>-137922.4435322121</v>
       </c>
       <c r="H315" t="n">
-        <v>1</v>
-      </c>
-      <c r="I315" t="n">
-        <v>189</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K315" t="inlineStr"/>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -12297,17 +11323,11 @@
         <v>-139935.3985322121</v>
       </c>
       <c r="H316" t="n">
-        <v>1</v>
-      </c>
-      <c r="I316" t="n">
-        <v>188</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K316" t="inlineStr"/>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -12336,17 +11356,11 @@
         <v>-139931.3985322121</v>
       </c>
       <c r="H317" t="n">
-        <v>1</v>
-      </c>
-      <c r="I317" t="n">
-        <v>187</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K317" t="inlineStr"/>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -12379,11 +11393,7 @@
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K318" t="inlineStr"/>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -12416,11 +11426,7 @@
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K319" t="inlineStr"/>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -12453,11 +11459,7 @@
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K320" t="inlineStr"/>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -12490,11 +11492,7 @@
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K321" t="inlineStr"/>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -12527,11 +11525,7 @@
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K322" t="inlineStr"/>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -12564,11 +11558,7 @@
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K323" t="inlineStr"/>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -12601,11 +11591,7 @@
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K324" t="inlineStr"/>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -12638,11 +11624,7 @@
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K325" t="inlineStr"/>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -12675,11 +11657,7 @@
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K326" t="inlineStr"/>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -12712,11 +11690,7 @@
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K327" t="inlineStr"/>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -12749,11 +11723,7 @@
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
-      <c r="K328" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K328" t="inlineStr"/>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -12786,11 +11756,7 @@
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
-      <c r="K329" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K329" t="inlineStr"/>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -12823,11 +11789,7 @@
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
-      <c r="K330" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K330" t="inlineStr"/>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -12860,11 +11822,7 @@
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
-      <c r="K331" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K331" t="inlineStr"/>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -12897,11 +11855,7 @@
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
-      <c r="K332" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K332" t="inlineStr"/>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -12934,11 +11888,7 @@
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
-      <c r="K333" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K333" t="inlineStr"/>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -12971,11 +11921,7 @@
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
-      <c r="K334" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K334" t="inlineStr"/>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -13008,11 +11954,7 @@
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
-      <c r="K335" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K335" t="inlineStr"/>
       <c r="L335" t="n">
         <v>1</v>
       </c>
@@ -13045,11 +11987,7 @@
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
-      <c r="K336" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K336" t="inlineStr"/>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -13082,11 +12020,7 @@
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
-      <c r="K337" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K337" t="inlineStr"/>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -13119,11 +12053,7 @@
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
-      <c r="K338" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K338" t="inlineStr"/>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -13156,11 +12086,7 @@
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
-      <c r="K339" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K339" t="inlineStr"/>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -13193,11 +12119,7 @@
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
-      <c r="K340" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K340" t="inlineStr"/>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -13230,11 +12152,7 @@
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
-      <c r="K341" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K341" t="inlineStr"/>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -13267,11 +12185,7 @@
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
-      <c r="K342" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K342" t="inlineStr"/>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -13304,11 +12218,7 @@
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
-      <c r="K343" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K343" t="inlineStr"/>
       <c r="L343" t="n">
         <v>1</v>
       </c>
@@ -13341,11 +12251,7 @@
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
-      <c r="K344" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K344" t="inlineStr"/>
       <c r="L344" t="n">
         <v>1</v>
       </c>
@@ -13378,11 +12284,7 @@
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
-      <c r="K345" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K345" t="inlineStr"/>
       <c r="L345" t="n">
         <v>1</v>
       </c>
@@ -13415,11 +12317,7 @@
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
-      <c r="K346" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K346" t="inlineStr"/>
       <c r="L346" t="n">
         <v>1</v>
       </c>
@@ -13452,11 +12350,7 @@
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
-      <c r="K347" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K347" t="inlineStr"/>
       <c r="L347" t="n">
         <v>1</v>
       </c>
@@ -13489,11 +12383,7 @@
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
-      <c r="K348" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K348" t="inlineStr"/>
       <c r="L348" t="n">
         <v>1</v>
       </c>
@@ -13526,11 +12416,7 @@
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
-      <c r="K349" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K349" t="inlineStr"/>
       <c r="L349" t="n">
         <v>1</v>
       </c>
@@ -13563,11 +12449,7 @@
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
-      <c r="K350" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K350" t="inlineStr"/>
       <c r="L350" t="n">
         <v>1</v>
       </c>
@@ -13600,11 +12482,7 @@
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
-      <c r="K351" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K351" t="inlineStr"/>
       <c r="L351" t="n">
         <v>1</v>
       </c>
@@ -13637,11 +12515,7 @@
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
-      <c r="K352" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K352" t="inlineStr"/>
       <c r="L352" t="n">
         <v>1</v>
       </c>
@@ -13674,11 +12548,7 @@
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
-      <c r="K353" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K353" t="inlineStr"/>
       <c r="L353" t="n">
         <v>1</v>
       </c>
@@ -13711,11 +12581,7 @@
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
-      <c r="K354" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K354" t="inlineStr"/>
       <c r="L354" t="n">
         <v>1</v>
       </c>
@@ -13748,11 +12614,7 @@
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
-      <c r="K355" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K355" t="inlineStr"/>
       <c r="L355" t="n">
         <v>1</v>
       </c>
@@ -13785,11 +12647,7 @@
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
-      <c r="K356" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K356" t="inlineStr"/>
       <c r="L356" t="n">
         <v>1</v>
       </c>
@@ -13822,11 +12680,7 @@
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
-      <c r="K357" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K357" t="inlineStr"/>
       <c r="L357" t="n">
         <v>1</v>
       </c>
@@ -13859,11 +12713,7 @@
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
-      <c r="K358" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K358" t="inlineStr"/>
       <c r="L358" t="n">
         <v>1</v>
       </c>
@@ -13896,11 +12746,7 @@
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
-      <c r="K359" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K359" t="inlineStr"/>
       <c r="L359" t="n">
         <v>1</v>
       </c>
@@ -13933,11 +12779,7 @@
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
-      <c r="K360" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K360" t="inlineStr"/>
       <c r="L360" t="n">
         <v>1</v>
       </c>
@@ -13970,11 +12812,7 @@
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
-      <c r="K361" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K361" t="inlineStr"/>
       <c r="L361" t="n">
         <v>1</v>
       </c>
@@ -14007,11 +12845,7 @@
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
-      <c r="K362" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K362" t="inlineStr"/>
       <c r="L362" t="n">
         <v>1</v>
       </c>
@@ -14044,11 +12878,7 @@
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
-      <c r="K363" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K363" t="inlineStr"/>
       <c r="L363" t="n">
         <v>1</v>
       </c>
@@ -14081,11 +12911,7 @@
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
-      <c r="K364" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K364" t="inlineStr"/>
       <c r="L364" t="n">
         <v>1</v>
       </c>
@@ -14118,11 +12944,7 @@
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
-      <c r="K365" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K365" t="inlineStr"/>
       <c r="L365" t="n">
         <v>1</v>
       </c>
@@ -14155,11 +12977,7 @@
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
-      <c r="K366" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K366" t="inlineStr"/>
       <c r="L366" t="n">
         <v>1</v>
       </c>
@@ -14192,11 +13010,7 @@
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
-      <c r="K367" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K367" t="inlineStr"/>
       <c r="L367" t="n">
         <v>1</v>
       </c>
@@ -14229,11 +13043,7 @@
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
-      <c r="K368" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K368" t="inlineStr"/>
       <c r="L368" t="n">
         <v>1</v>
       </c>
@@ -14266,11 +13076,7 @@
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
-      <c r="K369" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K369" t="inlineStr"/>
       <c r="L369" t="n">
         <v>1</v>
       </c>
@@ -14303,11 +13109,7 @@
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
-      <c r="K370" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K370" t="inlineStr"/>
       <c r="L370" t="n">
         <v>1</v>
       </c>
@@ -14340,11 +13142,7 @@
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
-      <c r="K371" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K371" t="inlineStr"/>
       <c r="L371" t="n">
         <v>1</v>
       </c>
@@ -14377,11 +13175,7 @@
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
-      <c r="K372" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K372" t="inlineStr"/>
       <c r="L372" t="n">
         <v>1</v>
       </c>
@@ -14414,11 +13208,7 @@
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
-      <c r="K373" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K373" t="inlineStr"/>
       <c r="L373" t="n">
         <v>1</v>
       </c>
@@ -14451,11 +13241,7 @@
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
-      <c r="K374" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K374" t="inlineStr"/>
       <c r="L374" t="n">
         <v>1</v>
       </c>
@@ -14488,11 +13274,7 @@
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
-      <c r="K375" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K375" t="inlineStr"/>
       <c r="L375" t="n">
         <v>1</v>
       </c>
@@ -14525,11 +13307,7 @@
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
-      <c r="K376" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K376" t="inlineStr"/>
       <c r="L376" t="n">
         <v>1</v>
       </c>
@@ -14562,11 +13340,7 @@
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
-      <c r="K377" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K377" t="inlineStr"/>
       <c r="L377" t="n">
         <v>1</v>
       </c>
@@ -14599,11 +13373,7 @@
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
-      <c r="K378" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K378" t="inlineStr"/>
       <c r="L378" t="n">
         <v>1</v>
       </c>
@@ -14636,11 +13406,7 @@
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
-      <c r="K379" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K379" t="inlineStr"/>
       <c r="L379" t="n">
         <v>1</v>
       </c>
@@ -14673,11 +13439,7 @@
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
-      <c r="K380" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K380" t="inlineStr"/>
       <c r="L380" t="n">
         <v>1</v>
       </c>
@@ -14710,11 +13472,7 @@
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
-      <c r="K381" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K381" t="inlineStr"/>
       <c r="L381" t="n">
         <v>1</v>
       </c>
@@ -14747,11 +13505,7 @@
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
-      <c r="K382" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K382" t="inlineStr"/>
       <c r="L382" t="n">
         <v>1</v>
       </c>
@@ -14784,11 +13538,7 @@
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
-      <c r="K383" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K383" t="inlineStr"/>
       <c r="L383" t="n">
         <v>1</v>
       </c>
@@ -14821,11 +13571,7 @@
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
-      <c r="K384" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K384" t="inlineStr"/>
       <c r="L384" t="n">
         <v>1</v>
       </c>
@@ -14858,11 +13604,7 @@
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
-      <c r="K385" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K385" t="inlineStr"/>
       <c r="L385" t="n">
         <v>1</v>
       </c>
@@ -14895,11 +13637,7 @@
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
-      <c r="K386" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K386" t="inlineStr"/>
       <c r="L386" t="n">
         <v>1</v>
       </c>
@@ -14932,11 +13670,7 @@
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
-      <c r="K387" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K387" t="inlineStr"/>
       <c r="L387" t="n">
         <v>1</v>
       </c>
@@ -14969,11 +13703,7 @@
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
-      <c r="K388" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K388" t="inlineStr"/>
       <c r="L388" t="n">
         <v>1</v>
       </c>
@@ -15006,11 +13736,7 @@
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
-      <c r="K389" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K389" t="inlineStr"/>
       <c r="L389" t="n">
         <v>1</v>
       </c>
@@ -15043,11 +13769,7 @@
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
-      <c r="K390" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K390" t="inlineStr"/>
       <c r="L390" t="n">
         <v>1</v>
       </c>
@@ -15080,11 +13802,7 @@
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
-      <c r="K391" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K391" t="inlineStr"/>
       <c r="L391" t="n">
         <v>1</v>
       </c>
@@ -15113,17 +13831,11 @@
         <v>-143396.5796205561</v>
       </c>
       <c r="H392" t="n">
-        <v>1</v>
-      </c>
-      <c r="I392" t="n">
-        <v>191</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
-      <c r="K392" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K392" t="inlineStr"/>
       <c r="L392" t="n">
         <v>1</v>
       </c>
@@ -15152,17 +13864,11 @@
         <v>-143392.2858205561</v>
       </c>
       <c r="H393" t="n">
-        <v>1</v>
-      </c>
-      <c r="I393" t="n">
-        <v>192</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
-      <c r="K393" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K393" t="inlineStr"/>
       <c r="L393" t="n">
         <v>1</v>
       </c>
@@ -15191,17 +13897,11 @@
         <v>-143392.2858205561</v>
       </c>
       <c r="H394" t="n">
-        <v>1</v>
-      </c>
-      <c r="I394" t="n">
-        <v>194</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
-      <c r="K394" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K394" t="inlineStr"/>
       <c r="L394" t="n">
         <v>1</v>
       </c>
@@ -15234,11 +13934,7 @@
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
-      <c r="K395" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K395" t="inlineStr"/>
       <c r="L395" t="n">
         <v>1</v>
       </c>
@@ -15267,17 +13963,11 @@
         <v>-143832.0711205561</v>
       </c>
       <c r="H396" t="n">
-        <v>1</v>
-      </c>
-      <c r="I396" t="n">
-        <v>191</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
-      <c r="K396" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K396" t="inlineStr"/>
       <c r="L396" t="n">
         <v>1</v>
       </c>
@@ -15310,11 +14000,7 @@
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
-      <c r="K397" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K397" t="inlineStr"/>
       <c r="L397" t="n">
         <v>1</v>
       </c>
@@ -15343,17 +14029,11 @@
         <v>-152131.3082205561</v>
       </c>
       <c r="H398" t="n">
-        <v>1</v>
-      </c>
-      <c r="I398" t="n">
-        <v>189</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
-      <c r="K398" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K398" t="inlineStr"/>
       <c r="L398" t="n">
         <v>1</v>
       </c>
@@ -15382,17 +14062,11 @@
         <v>-202608.1089205561</v>
       </c>
       <c r="H399" t="n">
-        <v>1</v>
-      </c>
-      <c r="I399" t="n">
-        <v>189</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
-      <c r="K399" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K399" t="inlineStr"/>
       <c r="L399" t="n">
         <v>1</v>
       </c>
@@ -15421,17 +14095,11 @@
         <v>-196814.0090205561</v>
       </c>
       <c r="H400" t="n">
-        <v>1</v>
-      </c>
-      <c r="I400" t="n">
-        <v>186</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
-      <c r="K400" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K400" t="inlineStr"/>
       <c r="L400" t="n">
         <v>1</v>
       </c>
@@ -15460,17 +14128,11 @@
         <v>-219407.9768205561</v>
       </c>
       <c r="H401" t="n">
-        <v>1</v>
-      </c>
-      <c r="I401" t="n">
-        <v>188</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
-      <c r="K401" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K401" t="inlineStr"/>
       <c r="L401" t="n">
         <v>1</v>
       </c>
@@ -15499,17 +14161,11 @@
         <v>-218507.9768205561</v>
       </c>
       <c r="H402" t="n">
-        <v>1</v>
-      </c>
-      <c r="I402" t="n">
-        <v>185</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
-      <c r="K402" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K402" t="inlineStr"/>
       <c r="L402" t="n">
         <v>1</v>
       </c>
@@ -15538,17 +14194,11 @@
         <v>-240518.4313205561</v>
       </c>
       <c r="H403" t="n">
-        <v>1</v>
-      </c>
-      <c r="I403" t="n">
-        <v>187</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
-      <c r="K403" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K403" t="inlineStr"/>
       <c r="L403" t="n">
         <v>1</v>
       </c>
@@ -15577,17 +14227,11 @@
         <v>-240988.4313205561</v>
       </c>
       <c r="H404" t="n">
-        <v>1</v>
-      </c>
-      <c r="I404" t="n">
-        <v>186</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
-      <c r="K404" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K404" t="inlineStr"/>
       <c r="L404" t="n">
         <v>1</v>
       </c>
@@ -15616,17 +14260,11 @@
         <v>-240734.4313205561</v>
       </c>
       <c r="H405" t="n">
-        <v>1</v>
-      </c>
-      <c r="I405" t="n">
-        <v>185</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
-      <c r="K405" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K405" t="inlineStr"/>
       <c r="L405" t="n">
         <v>1</v>
       </c>
@@ -15655,17 +14293,11 @@
         <v>-240734.4313205561</v>
       </c>
       <c r="H406" t="n">
-        <v>1</v>
-      </c>
-      <c r="I406" t="n">
-        <v>186</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
-      <c r="K406" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K406" t="inlineStr"/>
       <c r="L406" t="n">
         <v>1</v>
       </c>
@@ -15694,17 +14326,11 @@
         <v>-291211.2320205561</v>
       </c>
       <c r="H407" t="n">
-        <v>1</v>
-      </c>
-      <c r="I407" t="n">
-        <v>186</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
-      <c r="K407" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K407" t="inlineStr"/>
       <c r="L407" t="n">
         <v>1</v>
       </c>
@@ -15733,17 +14359,11 @@
         <v>-291156.2870205561</v>
       </c>
       <c r="H408" t="n">
-        <v>1</v>
-      </c>
-      <c r="I408" t="n">
-        <v>182</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
-      <c r="K408" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K408" t="inlineStr"/>
       <c r="L408" t="n">
         <v>1</v>
       </c>
@@ -15772,17 +14392,11 @@
         <v>-291156.2870205561</v>
       </c>
       <c r="H409" t="n">
-        <v>1</v>
-      </c>
-      <c r="I409" t="n">
-        <v>187</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
-      <c r="K409" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K409" t="inlineStr"/>
       <c r="L409" t="n">
         <v>1</v>
       </c>
@@ -15811,17 +14425,11 @@
         <v>-291156.2870205561</v>
       </c>
       <c r="H410" t="n">
-        <v>1</v>
-      </c>
-      <c r="I410" t="n">
-        <v>187</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
-      <c r="K410" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K410" t="inlineStr"/>
       <c r="L410" t="n">
         <v>1</v>
       </c>
@@ -15850,17 +14458,11 @@
         <v>-291156.2870205561</v>
       </c>
       <c r="H411" t="n">
-        <v>1</v>
-      </c>
-      <c r="I411" t="n">
-        <v>187</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
-      <c r="K411" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K411" t="inlineStr"/>
       <c r="L411" t="n">
         <v>1</v>
       </c>
@@ -15893,11 +14495,7 @@
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
-      <c r="K412" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K412" t="inlineStr"/>
       <c r="L412" t="n">
         <v>1</v>
       </c>
@@ -15930,11 +14528,7 @@
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
-      <c r="K413" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K413" t="inlineStr"/>
       <c r="L413" t="n">
         <v>1</v>
       </c>
@@ -15967,11 +14561,7 @@
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
-      <c r="K414" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K414" t="inlineStr"/>
       <c r="L414" t="n">
         <v>1</v>
       </c>
@@ -16004,11 +14594,7 @@
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
-      <c r="K415" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K415" t="inlineStr"/>
       <c r="L415" t="n">
         <v>1</v>
       </c>
@@ -16041,11 +14627,7 @@
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
-      <c r="K416" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K416" t="inlineStr"/>
       <c r="L416" t="n">
         <v>1</v>
       </c>
@@ -16078,11 +14660,7 @@
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
-      <c r="K417" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K417" t="inlineStr"/>
       <c r="L417" t="n">
         <v>1</v>
       </c>
@@ -16115,11 +14693,7 @@
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
-      <c r="K418" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K418" t="inlineStr"/>
       <c r="L418" t="n">
         <v>1</v>
       </c>
@@ -16152,11 +14726,7 @@
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr"/>
-      <c r="K419" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K419" t="inlineStr"/>
       <c r="L419" t="n">
         <v>1</v>
       </c>
@@ -16189,11 +14759,7 @@
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr"/>
-      <c r="K420" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K420" t="inlineStr"/>
       <c r="L420" t="n">
         <v>1</v>
       </c>
@@ -16226,11 +14792,7 @@
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr"/>
-      <c r="K421" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K421" t="inlineStr"/>
       <c r="L421" t="n">
         <v>1</v>
       </c>
@@ -16263,11 +14825,7 @@
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="inlineStr"/>
-      <c r="K422" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K422" t="inlineStr"/>
       <c r="L422" t="n">
         <v>1</v>
       </c>
@@ -16300,11 +14858,7 @@
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="inlineStr"/>
-      <c r="K423" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K423" t="inlineStr"/>
       <c r="L423" t="n">
         <v>1</v>
       </c>
@@ -16337,11 +14891,7 @@
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="inlineStr"/>
-      <c r="K424" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K424" t="inlineStr"/>
       <c r="L424" t="n">
         <v>1</v>
       </c>
@@ -16374,11 +14924,7 @@
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="inlineStr"/>
-      <c r="K425" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K425" t="inlineStr"/>
       <c r="L425" t="n">
         <v>1</v>
       </c>
@@ -16411,11 +14957,7 @@
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr"/>
-      <c r="K426" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K426" t="inlineStr"/>
       <c r="L426" t="n">
         <v>1</v>
       </c>
@@ -16448,11 +14990,7 @@
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr"/>
-      <c r="K427" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K427" t="inlineStr"/>
       <c r="L427" t="n">
         <v>1</v>
       </c>
@@ -16485,11 +15023,7 @@
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr"/>
-      <c r="K428" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K428" t="inlineStr"/>
       <c r="L428" t="n">
         <v>1</v>
       </c>
@@ -16522,11 +15056,7 @@
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
-      <c r="K429" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K429" t="inlineStr"/>
       <c r="L429" t="n">
         <v>1</v>
       </c>
@@ -16559,11 +15089,7 @@
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
-      <c r="K430" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K430" t="inlineStr"/>
       <c r="L430" t="n">
         <v>1</v>
       </c>
@@ -16596,11 +15122,7 @@
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="inlineStr"/>
-      <c r="K431" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K431" t="inlineStr"/>
       <c r="L431" t="n">
         <v>1</v>
       </c>
@@ -16633,11 +15155,7 @@
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
-      <c r="K432" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K432" t="inlineStr"/>
       <c r="L432" t="n">
         <v>1</v>
       </c>
@@ -16670,11 +15188,7 @@
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr"/>
-      <c r="K433" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K433" t="inlineStr"/>
       <c r="L433" t="n">
         <v>1</v>
       </c>
@@ -16707,11 +15221,7 @@
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
-      <c r="K434" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K434" t="inlineStr"/>
       <c r="L434" t="n">
         <v>1</v>
       </c>
@@ -16744,11 +15254,7 @@
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
-      <c r="K435" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K435" t="inlineStr"/>
       <c r="L435" t="n">
         <v>1</v>
       </c>
@@ -16781,11 +15287,7 @@
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr"/>
-      <c r="K436" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K436" t="inlineStr"/>
       <c r="L436" t="n">
         <v>1</v>
       </c>
@@ -16818,11 +15320,7 @@
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="inlineStr"/>
-      <c r="K437" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K437" t="inlineStr"/>
       <c r="L437" t="n">
         <v>1</v>
       </c>
@@ -16855,11 +15353,7 @@
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr"/>
-      <c r="K438" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K438" t="inlineStr"/>
       <c r="L438" t="n">
         <v>1</v>
       </c>
@@ -16892,11 +15386,7 @@
       </c>
       <c r="I439" t="inlineStr"/>
       <c r="J439" t="inlineStr"/>
-      <c r="K439" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K439" t="inlineStr"/>
       <c r="L439" t="n">
         <v>1</v>
       </c>
@@ -16929,11 +15419,7 @@
       </c>
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="inlineStr"/>
-      <c r="K440" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K440" t="inlineStr"/>
       <c r="L440" t="n">
         <v>1</v>
       </c>
@@ -16966,11 +15452,7 @@
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="inlineStr"/>
-      <c r="K441" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K441" t="inlineStr"/>
       <c r="L441" t="n">
         <v>1</v>
       </c>
@@ -17003,11 +15485,7 @@
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr"/>
-      <c r="K442" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K442" t="inlineStr"/>
       <c r="L442" t="n">
         <v>1</v>
       </c>
@@ -17040,11 +15518,7 @@
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr"/>
-      <c r="K443" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K443" t="inlineStr"/>
       <c r="L443" t="n">
         <v>1</v>
       </c>
@@ -17077,11 +15551,7 @@
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr"/>
-      <c r="K444" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K444" t="inlineStr"/>
       <c r="L444" t="n">
         <v>1</v>
       </c>
@@ -17114,11 +15584,7 @@
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr"/>
-      <c r="K445" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K445" t="inlineStr"/>
       <c r="L445" t="n">
         <v>1</v>
       </c>
@@ -17151,11 +15617,7 @@
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr"/>
-      <c r="K446" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K446" t="inlineStr"/>
       <c r="L446" t="n">
         <v>1</v>
       </c>
@@ -17188,11 +15650,7 @@
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="inlineStr"/>
-      <c r="K447" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K447" t="inlineStr"/>
       <c r="L447" t="n">
         <v>1</v>
       </c>
@@ -17225,11 +15683,7 @@
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="inlineStr"/>
-      <c r="K448" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K448" t="inlineStr"/>
       <c r="L448" t="n">
         <v>1</v>
       </c>
@@ -17262,11 +15716,7 @@
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="inlineStr"/>
-      <c r="K449" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K449" t="inlineStr"/>
       <c r="L449" t="n">
         <v>1</v>
       </c>
@@ -17299,11 +15749,7 @@
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr"/>
-      <c r="K450" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K450" t="inlineStr"/>
       <c r="L450" t="n">
         <v>1</v>
       </c>
@@ -17336,11 +15782,7 @@
       </c>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="inlineStr"/>
-      <c r="K451" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K451" t="inlineStr"/>
       <c r="L451" t="n">
         <v>1</v>
       </c>
@@ -17373,11 +15815,7 @@
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="inlineStr"/>
-      <c r="K452" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K452" t="inlineStr"/>
       <c r="L452" t="n">
         <v>1</v>
       </c>
@@ -17410,11 +15848,7 @@
       </c>
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="inlineStr"/>
-      <c r="K453" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K453" t="inlineStr"/>
       <c r="L453" t="n">
         <v>1</v>
       </c>
@@ -17447,11 +15881,7 @@
       </c>
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="inlineStr"/>
-      <c r="K454" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K454" t="inlineStr"/>
       <c r="L454" t="n">
         <v>1</v>
       </c>
@@ -17484,11 +15914,7 @@
       </c>
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="inlineStr"/>
-      <c r="K455" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K455" t="inlineStr"/>
       <c r="L455" t="n">
         <v>1</v>
       </c>
@@ -17521,11 +15947,7 @@
       </c>
       <c r="I456" t="inlineStr"/>
       <c r="J456" t="inlineStr"/>
-      <c r="K456" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K456" t="inlineStr"/>
       <c r="L456" t="n">
         <v>1</v>
       </c>
@@ -17558,11 +15980,7 @@
       </c>
       <c r="I457" t="inlineStr"/>
       <c r="J457" t="inlineStr"/>
-      <c r="K457" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K457" t="inlineStr"/>
       <c r="L457" t="n">
         <v>1</v>
       </c>
@@ -17595,11 +16013,7 @@
       </c>
       <c r="I458" t="inlineStr"/>
       <c r="J458" t="inlineStr"/>
-      <c r="K458" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K458" t="inlineStr"/>
       <c r="L458" t="n">
         <v>1</v>
       </c>
@@ -17632,11 +16046,7 @@
       </c>
       <c r="I459" t="inlineStr"/>
       <c r="J459" t="inlineStr"/>
-      <c r="K459" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K459" t="inlineStr"/>
       <c r="L459" t="n">
         <v>1</v>
       </c>
@@ -17669,17 +16079,13 @@
       </c>
       <c r="I460" t="inlineStr"/>
       <c r="J460" t="inlineStr"/>
-      <c r="K460" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K460" t="inlineStr"/>
       <c r="L460" t="n">
         <v>1</v>
       </c>
       <c r="M460" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-29 BackTest RDN.xlsx
+++ b/BackTest/2019-10-29 BackTest RDN.xlsx
@@ -1540,7 +1540,7 @@
         <v>-103601.3712587245</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>-103834.1111587245</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>-101742.3942587245</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>-101742.3942587245</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>-121514.3056587245</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>-123848.4783587245</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>-113355.5253587245</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>-95643.36915872454</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>-95656.47325872454</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>-96256.47325872454</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>-101104.2867587245</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>-75027.42195872455</v>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>-70003.42195872455</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>-77443.99395872455</v>
       </c>
       <c r="H66" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>-77443.99395872455</v>
       </c>
       <c r="H67" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>-78241.76915872455</v>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>-78241.76915872455</v>
       </c>
       <c r="H69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -3487,7 +3487,7 @@
         <v>47802.30466664858</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3520,7 +3520,7 @@
         <v>36273.35226664857</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3553,7 +3553,7 @@
         <v>36273.35226664857</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3586,7 +3586,7 @@
         <v>43293.87756664857</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3619,7 +3619,7 @@
         <v>6157.412566648578</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3652,7 +3652,7 @@
         <v>30668.82216664858</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3685,7 +3685,7 @@
         <v>-15935.15243335142</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3718,7 +3718,7 @@
         <v>-15935.15243335142</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3751,7 +3751,7 @@
         <v>-15935.15243335142</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3784,7 +3784,7 @@
         <v>-15935.15243335142</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3817,7 +3817,7 @@
         <v>-20484.18183335142</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -4015,7 +4015,7 @@
         <v>-15519.24463335142</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4246,7 +4246,7 @@
         <v>-12945.65616396367</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4279,7 +4279,7 @@
         <v>-13000.07276396367</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4312,7 +4312,7 @@
         <v>-15000.07276396367</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4444,7 +4444,7 @@
         <v>-157.2088639636659</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4477,7 +4477,7 @@
         <v>4282.209736036334</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4510,7 +4510,7 @@
         <v>4886.185036036334</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4543,7 +4543,7 @@
         <v>4382.898336036335</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4576,7 +4576,7 @@
         <v>-6004.872663963666</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4609,7 +4609,7 @@
         <v>-5002.872663963666</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4642,7 +4642,7 @@
         <v>2642.259036036334</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4675,7 +4675,7 @@
         <v>-4357.776863963666</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4708,7 +4708,7 @@
         <v>-51957.31016396367</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -4741,7 +4741,7 @@
         <v>-39691.91446396367</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -4774,7 +4774,7 @@
         <v>-42014.14656396367</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -4807,7 +4807,7 @@
         <v>-74074.43966396367</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -6193,14 +6193,10 @@
         <v>-216325.8364142226</v>
       </c>
       <c r="H176" t="n">
-        <v>1</v>
-      </c>
-      <c r="I176" t="n">
-        <v>187</v>
-      </c>
-      <c r="J176" t="n">
-        <v>187</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I176" t="inlineStr"/>
+      <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr"/>
       <c r="L176" t="n">
         <v>1</v>
@@ -6233,14 +6229,8 @@
         <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="n">
-        <v>187</v>
-      </c>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6269,19 +6259,11 @@
         <v>-232828.1878142226</v>
       </c>
       <c r="H178" t="n">
-        <v>1</v>
-      </c>
-      <c r="I178" t="n">
-        <v>186</v>
-      </c>
-      <c r="J178" t="n">
-        <v>187</v>
-      </c>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I178" t="inlineStr"/>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6310,19 +6292,11 @@
         <v>-229228.1878142226</v>
       </c>
       <c r="H179" t="n">
-        <v>1</v>
-      </c>
-      <c r="I179" t="n">
-        <v>183</v>
-      </c>
-      <c r="J179" t="n">
-        <v>187</v>
-      </c>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I179" t="inlineStr"/>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -6351,19 +6325,11 @@
         <v>-229228.1878142226</v>
       </c>
       <c r="H180" t="n">
-        <v>1</v>
-      </c>
-      <c r="I180" t="n">
-        <v>186</v>
-      </c>
-      <c r="J180" t="n">
-        <v>187</v>
-      </c>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I180" t="inlineStr"/>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -6395,14 +6361,8 @@
         <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="n">
-        <v>187</v>
-      </c>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -6431,19 +6391,11 @@
         <v>-241091.5787142226</v>
       </c>
       <c r="H182" t="n">
-        <v>1</v>
-      </c>
-      <c r="I182" t="n">
-        <v>185</v>
-      </c>
-      <c r="J182" t="n">
-        <v>187</v>
-      </c>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I182" t="inlineStr"/>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -6475,14 +6427,8 @@
         <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="n">
-        <v>187</v>
-      </c>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="inlineStr"/>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -6514,14 +6460,8 @@
         <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="n">
-        <v>187</v>
-      </c>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="inlineStr"/>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -6553,14 +6493,8 @@
         <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="n">
-        <v>187</v>
-      </c>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="inlineStr"/>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -6592,14 +6526,8 @@
         <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="n">
-        <v>187</v>
-      </c>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="inlineStr"/>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -6631,14 +6559,8 @@
         <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="n">
-        <v>187</v>
-      </c>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="inlineStr"/>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -6670,14 +6592,8 @@
         <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="n">
-        <v>187</v>
-      </c>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="inlineStr"/>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -6709,14 +6625,8 @@
         <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="n">
-        <v>187</v>
-      </c>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="inlineStr"/>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -6745,19 +6655,11 @@
         <v>-232163.4454142226</v>
       </c>
       <c r="H190" t="n">
-        <v>1</v>
-      </c>
-      <c r="I190" t="n">
-        <v>186</v>
-      </c>
-      <c r="J190" t="n">
-        <v>187</v>
-      </c>
-      <c r="K190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I190" t="inlineStr"/>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="inlineStr"/>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -6789,14 +6691,8 @@
         <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="n">
-        <v>187</v>
-      </c>
-      <c r="K191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="inlineStr"/>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -6825,19 +6721,11 @@
         <v>-232163.4454142226</v>
       </c>
       <c r="H192" t="n">
-        <v>1</v>
-      </c>
-      <c r="I192" t="n">
-        <v>186</v>
-      </c>
-      <c r="J192" t="n">
-        <v>187</v>
-      </c>
-      <c r="K192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I192" t="inlineStr"/>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="inlineStr"/>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -6869,14 +6757,8 @@
         <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="n">
-        <v>187</v>
-      </c>
-      <c r="K193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="inlineStr"/>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -6905,19 +6787,11 @@
         <v>-232163.4454142226</v>
       </c>
       <c r="H194" t="n">
-        <v>1</v>
-      </c>
-      <c r="I194" t="n">
-        <v>186</v>
-      </c>
-      <c r="J194" t="n">
-        <v>187</v>
-      </c>
-      <c r="K194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I194" t="inlineStr"/>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="inlineStr"/>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -6949,14 +6823,8 @@
         <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="n">
-        <v>187</v>
-      </c>
-      <c r="K195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="inlineStr"/>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -6985,19 +6853,11 @@
         <v>-227627.2768142226</v>
       </c>
       <c r="H196" t="n">
-        <v>1</v>
-      </c>
-      <c r="I196" t="n">
-        <v>186</v>
-      </c>
-      <c r="J196" t="n">
-        <v>187</v>
-      </c>
-      <c r="K196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I196" t="inlineStr"/>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="inlineStr"/>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -7026,19 +6886,11 @@
         <v>-228228.7446142226</v>
       </c>
       <c r="H197" t="n">
-        <v>1</v>
-      </c>
-      <c r="I197" t="n">
-        <v>187</v>
-      </c>
-      <c r="J197" t="n">
-        <v>187</v>
-      </c>
-      <c r="K197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I197" t="inlineStr"/>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="inlineStr"/>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -7067,19 +6919,11 @@
         <v>-228228.7446142226</v>
       </c>
       <c r="H198" t="n">
-        <v>1</v>
-      </c>
-      <c r="I198" t="n">
-        <v>185</v>
-      </c>
-      <c r="J198" t="n">
-        <v>187</v>
-      </c>
-      <c r="K198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I198" t="inlineStr"/>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="inlineStr"/>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -7111,14 +6955,8 @@
         <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
-      <c r="J199" t="n">
-        <v>187</v>
-      </c>
-      <c r="K199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="inlineStr"/>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -7150,14 +6988,8 @@
         <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="n">
-        <v>187</v>
-      </c>
-      <c r="K200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="inlineStr"/>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7189,14 +7021,8 @@
         <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="n">
-        <v>187</v>
-      </c>
-      <c r="K201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J201" t="inlineStr"/>
+      <c r="K201" t="inlineStr"/>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7228,14 +7054,8 @@
         <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="n">
-        <v>187</v>
-      </c>
-      <c r="K202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J202" t="inlineStr"/>
+      <c r="K202" t="inlineStr"/>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7267,14 +7087,8 @@
         <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="n">
-        <v>187</v>
-      </c>
-      <c r="K203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J203" t="inlineStr"/>
+      <c r="K203" t="inlineStr"/>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7306,14 +7120,8 @@
         <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="n">
-        <v>187</v>
-      </c>
-      <c r="K204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J204" t="inlineStr"/>
+      <c r="K204" t="inlineStr"/>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7345,14 +7153,8 @@
         <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="n">
-        <v>187</v>
-      </c>
-      <c r="K205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J205" t="inlineStr"/>
+      <c r="K205" t="inlineStr"/>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -7384,14 +7186,8 @@
         <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="n">
-        <v>187</v>
-      </c>
-      <c r="K206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J206" t="inlineStr"/>
+      <c r="K206" t="inlineStr"/>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -7423,14 +7219,8 @@
         <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="n">
-        <v>187</v>
-      </c>
-      <c r="K207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J207" t="inlineStr"/>
+      <c r="K207" t="inlineStr"/>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -7462,14 +7252,8 @@
         <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="n">
-        <v>187</v>
-      </c>
-      <c r="K208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J208" t="inlineStr"/>
+      <c r="K208" t="inlineStr"/>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -7501,14 +7285,8 @@
         <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="n">
-        <v>187</v>
-      </c>
-      <c r="K209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J209" t="inlineStr"/>
+      <c r="K209" t="inlineStr"/>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -7540,14 +7318,8 @@
         <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="n">
-        <v>187</v>
-      </c>
-      <c r="K210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J210" t="inlineStr"/>
+      <c r="K210" t="inlineStr"/>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -7579,14 +7351,8 @@
         <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="n">
-        <v>187</v>
-      </c>
-      <c r="K211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J211" t="inlineStr"/>
+      <c r="K211" t="inlineStr"/>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -7615,17 +7381,15 @@
         <v>-251296.3640142226</v>
       </c>
       <c r="H212" t="n">
-        <v>0</v>
-      </c>
-      <c r="I212" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I212" t="n">
+        <v>182</v>
+      </c>
       <c r="J212" t="n">
-        <v>187</v>
-      </c>
-      <c r="K212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="K212" t="inlineStr"/>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -7654,15 +7418,17 @@
         <v>-251296.3640142226</v>
       </c>
       <c r="H213" t="n">
-        <v>0</v>
-      </c>
-      <c r="I213" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I213" t="n">
+        <v>182</v>
+      </c>
       <c r="J213" t="n">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="K213" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L213" t="n">
@@ -7693,15 +7459,17 @@
         <v>-250457.3641142226</v>
       </c>
       <c r="H214" t="n">
-        <v>0</v>
-      </c>
-      <c r="I214" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I214" t="n">
+        <v>182</v>
+      </c>
       <c r="J214" t="n">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="K214" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L214" t="n">
@@ -7732,17 +7500,15 @@
         <v>-250457.3641142226</v>
       </c>
       <c r="H215" t="n">
-        <v>0</v>
-      </c>
-      <c r="I215" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I215" t="n">
+        <v>183</v>
+      </c>
       <c r="J215" t="n">
-        <v>187</v>
-      </c>
-      <c r="K215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>183</v>
+      </c>
+      <c r="K215" t="inlineStr"/>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -7771,15 +7537,17 @@
         <v>-250457.3641142226</v>
       </c>
       <c r="H216" t="n">
-        <v>0</v>
-      </c>
-      <c r="I216" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I216" t="n">
+        <v>183</v>
+      </c>
       <c r="J216" t="n">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="K216" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L216" t="n">
@@ -7810,15 +7578,17 @@
         <v>-248219.1943142226</v>
       </c>
       <c r="H217" t="n">
-        <v>0</v>
-      </c>
-      <c r="I217" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I217" t="n">
+        <v>183</v>
+      </c>
       <c r="J217" t="n">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="K217" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L217" t="n">
@@ -7849,15 +7619,17 @@
         <v>-249702.8241142226</v>
       </c>
       <c r="H218" t="n">
-        <v>0</v>
-      </c>
-      <c r="I218" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I218" t="n">
+        <v>184</v>
+      </c>
       <c r="J218" t="n">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="K218" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L218" t="n">
@@ -7888,11 +7660,13 @@
         <v>-242921.7317142226</v>
       </c>
       <c r="H219" t="n">
-        <v>0</v>
-      </c>
-      <c r="I219" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I219" t="n">
+        <v>183</v>
+      </c>
       <c r="J219" t="n">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="K219" t="inlineStr">
         <is>
@@ -7927,11 +7701,13 @@
         <v>-242921.7317142226</v>
       </c>
       <c r="H220" t="n">
-        <v>0</v>
-      </c>
-      <c r="I220" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I220" t="n">
+        <v>184</v>
+      </c>
       <c r="J220" t="n">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="K220" t="inlineStr">
         <is>
@@ -7966,11 +7742,13 @@
         <v>-242921.7317142226</v>
       </c>
       <c r="H221" t="n">
-        <v>0</v>
-      </c>
-      <c r="I221" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I221" t="n">
+        <v>184</v>
+      </c>
       <c r="J221" t="n">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="K221" t="inlineStr">
         <is>
@@ -8005,11 +7783,13 @@
         <v>-242921.7317142226</v>
       </c>
       <c r="H222" t="n">
-        <v>0</v>
-      </c>
-      <c r="I222" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I222" t="n">
+        <v>184</v>
+      </c>
       <c r="J222" t="n">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="K222" t="inlineStr">
         <is>
@@ -8044,11 +7824,13 @@
         <v>-242921.7317142226</v>
       </c>
       <c r="H223" t="n">
-        <v>0</v>
-      </c>
-      <c r="I223" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I223" t="n">
+        <v>184</v>
+      </c>
       <c r="J223" t="n">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="K223" t="inlineStr">
         <is>
@@ -8083,11 +7865,13 @@
         <v>-242921.7317142226</v>
       </c>
       <c r="H224" t="n">
-        <v>0</v>
-      </c>
-      <c r="I224" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I224" t="n">
+        <v>184</v>
+      </c>
       <c r="J224" t="n">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="K224" t="inlineStr">
         <is>
@@ -8122,11 +7906,13 @@
         <v>-247827.5878142226</v>
       </c>
       <c r="H225" t="n">
-        <v>0</v>
-      </c>
-      <c r="I225" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I225" t="n">
+        <v>184</v>
+      </c>
       <c r="J225" t="n">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="K225" t="inlineStr">
         <is>
@@ -8161,11 +7947,13 @@
         <v>-250168.6652142226</v>
       </c>
       <c r="H226" t="n">
-        <v>0</v>
-      </c>
-      <c r="I226" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I226" t="n">
+        <v>183</v>
+      </c>
       <c r="J226" t="n">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="K226" t="inlineStr">
         <is>
@@ -8200,11 +7988,13 @@
         <v>-249614.4986142226</v>
       </c>
       <c r="H227" t="n">
-        <v>0</v>
-      </c>
-      <c r="I227" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I227" t="n">
+        <v>182</v>
+      </c>
       <c r="J227" t="n">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="K227" t="inlineStr">
         <is>
@@ -8239,11 +8029,13 @@
         <v>-249614.4986142226</v>
       </c>
       <c r="H228" t="n">
-        <v>0</v>
-      </c>
-      <c r="I228" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I228" t="n">
+        <v>183</v>
+      </c>
       <c r="J228" t="n">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="K228" t="inlineStr">
         <is>
@@ -8278,11 +8070,13 @@
         <v>-249478.2782142226</v>
       </c>
       <c r="H229" t="n">
-        <v>0</v>
-      </c>
-      <c r="I229" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I229" t="n">
+        <v>183</v>
+      </c>
       <c r="J229" t="n">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="K229" t="inlineStr">
         <is>
@@ -8317,11 +8111,13 @@
         <v>-249478.2782142226</v>
       </c>
       <c r="H230" t="n">
-        <v>0</v>
-      </c>
-      <c r="I230" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I230" t="n">
+        <v>186</v>
+      </c>
       <c r="J230" t="n">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="K230" t="inlineStr">
         <is>
@@ -8356,11 +8152,13 @@
         <v>-252561.2466142226</v>
       </c>
       <c r="H231" t="n">
-        <v>0</v>
-      </c>
-      <c r="I231" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I231" t="n">
+        <v>186</v>
+      </c>
       <c r="J231" t="n">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="K231" t="inlineStr">
         <is>
@@ -8395,11 +8193,13 @@
         <v>-252361.2466142226</v>
       </c>
       <c r="H232" t="n">
-        <v>0</v>
-      </c>
-      <c r="I232" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I232" t="n">
+        <v>185</v>
+      </c>
       <c r="J232" t="n">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="K232" t="inlineStr">
         <is>
@@ -8434,11 +8234,13 @@
         <v>-246401.2783142226</v>
       </c>
       <c r="H233" t="n">
-        <v>0</v>
-      </c>
-      <c r="I233" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I233" t="n">
+        <v>188</v>
+      </c>
       <c r="J233" t="n">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="K233" t="inlineStr">
         <is>
@@ -8473,11 +8275,13 @@
         <v>-246401.2783142226</v>
       </c>
       <c r="H234" t="n">
-        <v>0</v>
-      </c>
-      <c r="I234" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I234" t="n">
+        <v>189</v>
+      </c>
       <c r="J234" t="n">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="K234" t="inlineStr">
         <is>
@@ -8512,11 +8316,13 @@
         <v>-246401.2783142226</v>
       </c>
       <c r="H235" t="n">
-        <v>0</v>
-      </c>
-      <c r="I235" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I235" t="n">
+        <v>189</v>
+      </c>
       <c r="J235" t="n">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="K235" t="inlineStr">
         <is>
@@ -8551,11 +8357,13 @@
         <v>-246401.2783142226</v>
       </c>
       <c r="H236" t="n">
-        <v>0</v>
-      </c>
-      <c r="I236" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I236" t="n">
+        <v>189</v>
+      </c>
       <c r="J236" t="n">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="K236" t="inlineStr">
         <is>
@@ -8590,11 +8398,13 @@
         <v>-252978.2013142226</v>
       </c>
       <c r="H237" t="n">
-        <v>0</v>
-      </c>
-      <c r="I237" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I237" t="n">
+        <v>189</v>
+      </c>
       <c r="J237" t="n">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="K237" t="inlineStr">
         <is>
@@ -8629,11 +8439,13 @@
         <v>-251511.2013142226</v>
       </c>
       <c r="H238" t="n">
-        <v>0</v>
-      </c>
-      <c r="I238" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I238" t="n">
+        <v>187</v>
+      </c>
       <c r="J238" t="n">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="K238" t="inlineStr">
         <is>
@@ -8668,11 +8480,13 @@
         <v>-254989.2013142226</v>
       </c>
       <c r="H239" t="n">
-        <v>0</v>
-      </c>
-      <c r="I239" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I239" t="n">
+        <v>188</v>
+      </c>
       <c r="J239" t="n">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="K239" t="inlineStr">
         <is>
@@ -8707,11 +8521,13 @@
         <v>-250623.2013142226</v>
       </c>
       <c r="H240" t="n">
-        <v>0</v>
-      </c>
-      <c r="I240" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I240" t="n">
+        <v>187</v>
+      </c>
       <c r="J240" t="n">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="K240" t="inlineStr">
         <is>
@@ -8746,11 +8562,13 @@
         <v>-250623.2013142226</v>
       </c>
       <c r="H241" t="n">
-        <v>0</v>
-      </c>
-      <c r="I241" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I241" t="n">
+        <v>188</v>
+      </c>
       <c r="J241" t="n">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="K241" t="inlineStr">
         <is>
@@ -8785,11 +8603,13 @@
         <v>-240041.190732212</v>
       </c>
       <c r="H242" t="n">
-        <v>0</v>
-      </c>
-      <c r="I242" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I242" t="n">
+        <v>188</v>
+      </c>
       <c r="J242" t="n">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="K242" t="inlineStr">
         <is>
@@ -8824,11 +8644,13 @@
         <v>-241240.757032212</v>
       </c>
       <c r="H243" t="n">
-        <v>0</v>
-      </c>
-      <c r="I243" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I243" t="n">
+        <v>189</v>
+      </c>
       <c r="J243" t="n">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="K243" t="inlineStr">
         <is>
@@ -8863,11 +8685,13 @@
         <v>-241295.486132212</v>
       </c>
       <c r="H244" t="n">
-        <v>0</v>
-      </c>
-      <c r="I244" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I244" t="n">
+        <v>188</v>
+      </c>
       <c r="J244" t="n">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="K244" t="inlineStr">
         <is>
@@ -8902,11 +8726,13 @@
         <v>-241295.486132212</v>
       </c>
       <c r="H245" t="n">
-        <v>0</v>
-      </c>
-      <c r="I245" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I245" t="n">
+        <v>186</v>
+      </c>
       <c r="J245" t="n">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="K245" t="inlineStr">
         <is>
@@ -8941,11 +8767,13 @@
         <v>-214165.356732212</v>
       </c>
       <c r="H246" t="n">
-        <v>0</v>
-      </c>
-      <c r="I246" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I246" t="n">
+        <v>186</v>
+      </c>
       <c r="J246" t="n">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="K246" t="inlineStr">
         <is>
@@ -8984,7 +8812,7 @@
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="n">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="K247" t="inlineStr">
         <is>
@@ -9023,7 +8851,7 @@
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="n">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="K248" t="inlineStr">
         <is>
@@ -9062,7 +8890,7 @@
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="n">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="K249" t="inlineStr">
         <is>
@@ -9101,7 +8929,7 @@
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="n">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="K250" t="inlineStr">
         <is>
@@ -9140,7 +8968,7 @@
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="n">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="K251" t="inlineStr">
         <is>
@@ -9179,7 +9007,7 @@
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="n">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="K252" t="inlineStr">
         <is>
@@ -9214,11 +9042,13 @@
         <v>-197843.301932212</v>
       </c>
       <c r="H253" t="n">
-        <v>0</v>
-      </c>
-      <c r="I253" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I253" t="n">
+        <v>189</v>
+      </c>
       <c r="J253" t="n">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="K253" t="inlineStr">
         <is>
@@ -9257,7 +9087,7 @@
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="n">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="K254" t="inlineStr">
         <is>
@@ -9296,7 +9126,7 @@
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="n">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="K255" t="inlineStr">
         <is>
@@ -9335,7 +9165,7 @@
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="n">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="K256" t="inlineStr">
         <is>
@@ -9370,19 +9200,19 @@
         <v>-201633.743532212</v>
       </c>
       <c r="H257" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="n">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="K257" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L257" t="n">
-        <v>1.011042780748663</v>
+        <v>1</v>
       </c>
       <c r="M257" t="inlineStr"/>
     </row>
@@ -9409,11 +9239,17 @@
         <v>-201633.743532212</v>
       </c>
       <c r="H258" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
-      <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
+      <c r="J258" t="n">
+        <v>183</v>
+      </c>
+      <c r="K258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -9442,11 +9278,17 @@
         <v>-200787.819132212</v>
       </c>
       <c r="H259" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
-      <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
+      <c r="J259" t="n">
+        <v>183</v>
+      </c>
+      <c r="K259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -9478,8 +9320,14 @@
         <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
-      <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
+      <c r="J260" t="n">
+        <v>183</v>
+      </c>
+      <c r="K260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -9511,8 +9359,14 @@
         <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
-      <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
+      <c r="J261" t="n">
+        <v>183</v>
+      </c>
+      <c r="K261" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -9544,8 +9398,14 @@
         <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
-      <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
+      <c r="J262" t="n">
+        <v>183</v>
+      </c>
+      <c r="K262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -9574,11 +9434,17 @@
         <v>-204004.234732212</v>
       </c>
       <c r="H263" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
-      <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
+      <c r="J263" t="n">
+        <v>183</v>
+      </c>
+      <c r="K263" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -9610,8 +9476,14 @@
         <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
-      <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
+      <c r="J264" t="n">
+        <v>183</v>
+      </c>
+      <c r="K264" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -9643,8 +9515,14 @@
         <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
-      <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
+      <c r="J265" t="n">
+        <v>183</v>
+      </c>
+      <c r="K265" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -9676,8 +9554,14 @@
         <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
-      <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
+      <c r="J266" t="n">
+        <v>183</v>
+      </c>
+      <c r="K266" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -9709,8 +9593,14 @@
         <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
-      <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
+      <c r="J267" t="n">
+        <v>183</v>
+      </c>
+      <c r="K267" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -9739,11 +9629,17 @@
         <v>-204069.234732212</v>
       </c>
       <c r="H268" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
-      <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr"/>
+      <c r="J268" t="n">
+        <v>183</v>
+      </c>
+      <c r="K268" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -9772,11 +9668,17 @@
         <v>-204069.234732212</v>
       </c>
       <c r="H269" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
-      <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr"/>
+      <c r="J269" t="n">
+        <v>183</v>
+      </c>
+      <c r="K269" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -9805,11 +9707,17 @@
         <v>-204069.234732212</v>
       </c>
       <c r="H270" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
-      <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
+      <c r="J270" t="n">
+        <v>183</v>
+      </c>
+      <c r="K270" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -9838,11 +9746,17 @@
         <v>-204069.234732212</v>
       </c>
       <c r="H271" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
-      <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr"/>
+      <c r="J271" t="n">
+        <v>183</v>
+      </c>
+      <c r="K271" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -9871,11 +9785,17 @@
         <v>-204069.234732212</v>
       </c>
       <c r="H272" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
-      <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr"/>
+      <c r="J272" t="n">
+        <v>183</v>
+      </c>
+      <c r="K272" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -9904,11 +9824,17 @@
         <v>-228151.453732212</v>
       </c>
       <c r="H273" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
-      <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
+      <c r="J273" t="n">
+        <v>183</v>
+      </c>
+      <c r="K273" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -9937,11 +9863,17 @@
         <v>-224129.453832212</v>
       </c>
       <c r="H274" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
-      <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr"/>
+      <c r="J274" t="n">
+        <v>183</v>
+      </c>
+      <c r="K274" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -9970,11 +9902,17 @@
         <v>-218227.687732212</v>
       </c>
       <c r="H275" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
-      <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr"/>
+      <c r="J275" t="n">
+        <v>183</v>
+      </c>
+      <c r="K275" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -10003,11 +9941,17 @@
         <v>-218227.687732212</v>
       </c>
       <c r="H276" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
-      <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr"/>
+      <c r="J276" t="n">
+        <v>183</v>
+      </c>
+      <c r="K276" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -10036,11 +9980,17 @@
         <v>-218227.687732212</v>
       </c>
       <c r="H277" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
-      <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr"/>
+      <c r="J277" t="n">
+        <v>183</v>
+      </c>
+      <c r="K277" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -10069,11 +10019,17 @@
         <v>-218227.687732212</v>
       </c>
       <c r="H278" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
-      <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr"/>
+      <c r="J278" t="n">
+        <v>183</v>
+      </c>
+      <c r="K278" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -10105,8 +10061,14 @@
         <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
-      <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr"/>
+      <c r="J279" t="n">
+        <v>183</v>
+      </c>
+      <c r="K279" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -10138,8 +10100,14 @@
         <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
-      <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr"/>
+      <c r="J280" t="n">
+        <v>183</v>
+      </c>
+      <c r="K280" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -10168,11 +10136,17 @@
         <v>-218227.687732212</v>
       </c>
       <c r="H281" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
-      <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr"/>
+      <c r="J281" t="n">
+        <v>183</v>
+      </c>
+      <c r="K281" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -10201,11 +10175,17 @@
         <v>-218061.687732212</v>
       </c>
       <c r="H282" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
-      <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr"/>
+      <c r="J282" t="n">
+        <v>183</v>
+      </c>
+      <c r="K282" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -10234,11 +10214,17 @@
         <v>-217374.719032212</v>
       </c>
       <c r="H283" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
-      <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr"/>
+      <c r="J283" t="n">
+        <v>183</v>
+      </c>
+      <c r="K283" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -10270,8 +10256,14 @@
         <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
-      <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr"/>
+      <c r="J284" t="n">
+        <v>183</v>
+      </c>
+      <c r="K284" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -10300,11 +10292,17 @@
         <v>-217982.4190322121</v>
       </c>
       <c r="H285" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
-      <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr"/>
+      <c r="J285" t="n">
+        <v>183</v>
+      </c>
+      <c r="K285" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -10336,8 +10334,14 @@
         <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
-      <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr"/>
+      <c r="J286" t="n">
+        <v>183</v>
+      </c>
+      <c r="K286" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -10369,8 +10373,14 @@
         <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
-      <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr"/>
+      <c r="J287" t="n">
+        <v>183</v>
+      </c>
+      <c r="K287" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -10402,8 +10412,14 @@
         <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
-      <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr"/>
+      <c r="J288" t="n">
+        <v>183</v>
+      </c>
+      <c r="K288" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -10435,8 +10451,14 @@
         <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
-      <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr"/>
+      <c r="J289" t="n">
+        <v>183</v>
+      </c>
+      <c r="K289" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -10468,8 +10490,14 @@
         <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
-      <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr"/>
+      <c r="J290" t="n">
+        <v>183</v>
+      </c>
+      <c r="K290" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -10501,8 +10529,14 @@
         <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
-      <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr"/>
+      <c r="J291" t="n">
+        <v>183</v>
+      </c>
+      <c r="K291" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -10534,8 +10568,14 @@
         <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
-      <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr"/>
+      <c r="J292" t="n">
+        <v>183</v>
+      </c>
+      <c r="K292" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -10567,8 +10607,14 @@
         <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
-      <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr"/>
+      <c r="J293" t="n">
+        <v>183</v>
+      </c>
+      <c r="K293" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -10600,8 +10646,14 @@
         <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
-      <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr"/>
+      <c r="J294" t="n">
+        <v>183</v>
+      </c>
+      <c r="K294" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -10633,8 +10685,14 @@
         <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
-      <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr"/>
+      <c r="J295" t="n">
+        <v>183</v>
+      </c>
+      <c r="K295" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -10666,8 +10724,14 @@
         <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
-      <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr"/>
+      <c r="J296" t="n">
+        <v>183</v>
+      </c>
+      <c r="K296" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -10699,8 +10763,14 @@
         <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
-      <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr"/>
+      <c r="J297" t="n">
+        <v>183</v>
+      </c>
+      <c r="K297" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -10732,8 +10802,14 @@
         <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
-      <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr"/>
+      <c r="J298" t="n">
+        <v>183</v>
+      </c>
+      <c r="K298" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -10765,8 +10841,14 @@
         <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
-      <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr"/>
+      <c r="J299" t="n">
+        <v>183</v>
+      </c>
+      <c r="K299" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -10798,8 +10880,14 @@
         <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
-      <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr"/>
+      <c r="J300" t="n">
+        <v>183</v>
+      </c>
+      <c r="K300" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -10831,8 +10919,14 @@
         <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
-      <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr"/>
+      <c r="J301" t="n">
+        <v>183</v>
+      </c>
+      <c r="K301" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -10864,8 +10958,14 @@
         <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
-      <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr"/>
+      <c r="J302" t="n">
+        <v>183</v>
+      </c>
+      <c r="K302" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -10897,8 +10997,14 @@
         <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
-      <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr"/>
+      <c r="J303" t="n">
+        <v>183</v>
+      </c>
+      <c r="K303" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -10930,8 +11036,14 @@
         <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
-      <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr"/>
+      <c r="J304" t="n">
+        <v>183</v>
+      </c>
+      <c r="K304" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -10963,8 +11075,14 @@
         <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
-      <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr"/>
+      <c r="J305" t="n">
+        <v>183</v>
+      </c>
+      <c r="K305" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -10996,8 +11114,14 @@
         <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
-      <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr"/>
+      <c r="J306" t="n">
+        <v>183</v>
+      </c>
+      <c r="K306" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -11029,8 +11153,14 @@
         <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
-      <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr"/>
+      <c r="J307" t="n">
+        <v>183</v>
+      </c>
+      <c r="K307" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -11062,8 +11192,14 @@
         <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
-      <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr"/>
+      <c r="J308" t="n">
+        <v>183</v>
+      </c>
+      <c r="K308" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -11095,8 +11231,14 @@
         <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
-      <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr"/>
+      <c r="J309" t="n">
+        <v>183</v>
+      </c>
+      <c r="K309" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -11128,8 +11270,14 @@
         <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
-      <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr"/>
+      <c r="J310" t="n">
+        <v>183</v>
+      </c>
+      <c r="K310" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -11161,8 +11309,14 @@
         <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
-      <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr"/>
+      <c r="J311" t="n">
+        <v>183</v>
+      </c>
+      <c r="K311" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -11194,8 +11348,14 @@
         <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
-      <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr"/>
+      <c r="J312" t="n">
+        <v>183</v>
+      </c>
+      <c r="K312" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -11227,8 +11387,14 @@
         <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
-      <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr"/>
+      <c r="J313" t="n">
+        <v>183</v>
+      </c>
+      <c r="K313" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -11260,8 +11426,14 @@
         <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
-      <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr"/>
+      <c r="J314" t="n">
+        <v>183</v>
+      </c>
+      <c r="K314" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -11293,8 +11465,14 @@
         <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
-      <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr"/>
+      <c r="J315" t="n">
+        <v>183</v>
+      </c>
+      <c r="K315" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -11326,8 +11504,14 @@
         <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
-      <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr"/>
+      <c r="J316" t="n">
+        <v>183</v>
+      </c>
+      <c r="K316" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -11359,8 +11543,14 @@
         <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
-      <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr"/>
+      <c r="J317" t="n">
+        <v>183</v>
+      </c>
+      <c r="K317" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -11392,8 +11582,14 @@
         <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
-      <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr"/>
+      <c r="J318" t="n">
+        <v>183</v>
+      </c>
+      <c r="K318" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -11425,8 +11621,14 @@
         <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
-      <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr"/>
+      <c r="J319" t="n">
+        <v>183</v>
+      </c>
+      <c r="K319" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -11458,8 +11660,14 @@
         <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
-      <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr"/>
+      <c r="J320" t="n">
+        <v>183</v>
+      </c>
+      <c r="K320" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -11491,8 +11699,14 @@
         <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
-      <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr"/>
+      <c r="J321" t="n">
+        <v>183</v>
+      </c>
+      <c r="K321" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -11524,8 +11738,14 @@
         <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
-      <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr"/>
+      <c r="J322" t="n">
+        <v>183</v>
+      </c>
+      <c r="K322" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -11557,8 +11777,14 @@
         <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
-      <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr"/>
+      <c r="J323" t="n">
+        <v>183</v>
+      </c>
+      <c r="K323" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -11590,8 +11816,14 @@
         <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
-      <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr"/>
+      <c r="J324" t="n">
+        <v>183</v>
+      </c>
+      <c r="K324" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -11623,8 +11855,14 @@
         <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
-      <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr"/>
+      <c r="J325" t="n">
+        <v>183</v>
+      </c>
+      <c r="K325" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -11656,8 +11894,14 @@
         <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
-      <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr"/>
+      <c r="J326" t="n">
+        <v>183</v>
+      </c>
+      <c r="K326" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -11689,8 +11933,14 @@
         <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
-      <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr"/>
+      <c r="J327" t="n">
+        <v>183</v>
+      </c>
+      <c r="K327" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -11722,8 +11972,14 @@
         <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
-      <c r="J328" t="inlineStr"/>
-      <c r="K328" t="inlineStr"/>
+      <c r="J328" t="n">
+        <v>183</v>
+      </c>
+      <c r="K328" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -11755,8 +12011,14 @@
         <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
-      <c r="J329" t="inlineStr"/>
-      <c r="K329" t="inlineStr"/>
+      <c r="J329" t="n">
+        <v>183</v>
+      </c>
+      <c r="K329" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -11788,8 +12050,14 @@
         <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
-      <c r="J330" t="inlineStr"/>
-      <c r="K330" t="inlineStr"/>
+      <c r="J330" t="n">
+        <v>183</v>
+      </c>
+      <c r="K330" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -11821,8 +12089,14 @@
         <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
-      <c r="J331" t="inlineStr"/>
-      <c r="K331" t="inlineStr"/>
+      <c r="J331" t="n">
+        <v>183</v>
+      </c>
+      <c r="K331" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -11854,8 +12128,14 @@
         <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
-      <c r="J332" t="inlineStr"/>
-      <c r="K332" t="inlineStr"/>
+      <c r="J332" t="n">
+        <v>183</v>
+      </c>
+      <c r="K332" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -11887,8 +12167,14 @@
         <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
-      <c r="J333" t="inlineStr"/>
-      <c r="K333" t="inlineStr"/>
+      <c r="J333" t="n">
+        <v>183</v>
+      </c>
+      <c r="K333" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -11920,8 +12206,14 @@
         <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
-      <c r="J334" t="inlineStr"/>
-      <c r="K334" t="inlineStr"/>
+      <c r="J334" t="n">
+        <v>183</v>
+      </c>
+      <c r="K334" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -11953,8 +12245,14 @@
         <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
-      <c r="J335" t="inlineStr"/>
-      <c r="K335" t="inlineStr"/>
+      <c r="J335" t="n">
+        <v>183</v>
+      </c>
+      <c r="K335" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L335" t="n">
         <v>1</v>
       </c>
@@ -11986,8 +12284,14 @@
         <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
-      <c r="J336" t="inlineStr"/>
-      <c r="K336" t="inlineStr"/>
+      <c r="J336" t="n">
+        <v>183</v>
+      </c>
+      <c r="K336" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -12019,8 +12323,14 @@
         <v>0</v>
       </c>
       <c r="I337" t="inlineStr"/>
-      <c r="J337" t="inlineStr"/>
-      <c r="K337" t="inlineStr"/>
+      <c r="J337" t="n">
+        <v>183</v>
+      </c>
+      <c r="K337" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -12052,8 +12362,14 @@
         <v>0</v>
       </c>
       <c r="I338" t="inlineStr"/>
-      <c r="J338" t="inlineStr"/>
-      <c r="K338" t="inlineStr"/>
+      <c r="J338" t="n">
+        <v>183</v>
+      </c>
+      <c r="K338" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -12085,8 +12401,14 @@
         <v>0</v>
       </c>
       <c r="I339" t="inlineStr"/>
-      <c r="J339" t="inlineStr"/>
-      <c r="K339" t="inlineStr"/>
+      <c r="J339" t="n">
+        <v>183</v>
+      </c>
+      <c r="K339" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -12118,8 +12440,14 @@
         <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
-      <c r="J340" t="inlineStr"/>
-      <c r="K340" t="inlineStr"/>
+      <c r="J340" t="n">
+        <v>183</v>
+      </c>
+      <c r="K340" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -12151,8 +12479,14 @@
         <v>0</v>
       </c>
       <c r="I341" t="inlineStr"/>
-      <c r="J341" t="inlineStr"/>
-      <c r="K341" t="inlineStr"/>
+      <c r="J341" t="n">
+        <v>183</v>
+      </c>
+      <c r="K341" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -12184,8 +12518,14 @@
         <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
-      <c r="J342" t="inlineStr"/>
-      <c r="K342" t="inlineStr"/>
+      <c r="J342" t="n">
+        <v>183</v>
+      </c>
+      <c r="K342" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -12217,8 +12557,14 @@
         <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
-      <c r="J343" t="inlineStr"/>
-      <c r="K343" t="inlineStr"/>
+      <c r="J343" t="n">
+        <v>183</v>
+      </c>
+      <c r="K343" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L343" t="n">
         <v>1</v>
       </c>
@@ -12250,8 +12596,14 @@
         <v>0</v>
       </c>
       <c r="I344" t="inlineStr"/>
-      <c r="J344" t="inlineStr"/>
-      <c r="K344" t="inlineStr"/>
+      <c r="J344" t="n">
+        <v>183</v>
+      </c>
+      <c r="K344" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L344" t="n">
         <v>1</v>
       </c>
@@ -12283,8 +12635,14 @@
         <v>0</v>
       </c>
       <c r="I345" t="inlineStr"/>
-      <c r="J345" t="inlineStr"/>
-      <c r="K345" t="inlineStr"/>
+      <c r="J345" t="n">
+        <v>183</v>
+      </c>
+      <c r="K345" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L345" t="n">
         <v>1</v>
       </c>
@@ -12316,8 +12674,14 @@
         <v>0</v>
       </c>
       <c r="I346" t="inlineStr"/>
-      <c r="J346" t="inlineStr"/>
-      <c r="K346" t="inlineStr"/>
+      <c r="J346" t="n">
+        <v>183</v>
+      </c>
+      <c r="K346" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L346" t="n">
         <v>1</v>
       </c>
@@ -12349,8 +12713,14 @@
         <v>0</v>
       </c>
       <c r="I347" t="inlineStr"/>
-      <c r="J347" t="inlineStr"/>
-      <c r="K347" t="inlineStr"/>
+      <c r="J347" t="n">
+        <v>183</v>
+      </c>
+      <c r="K347" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L347" t="n">
         <v>1</v>
       </c>
@@ -12382,8 +12752,14 @@
         <v>0</v>
       </c>
       <c r="I348" t="inlineStr"/>
-      <c r="J348" t="inlineStr"/>
-      <c r="K348" t="inlineStr"/>
+      <c r="J348" t="n">
+        <v>183</v>
+      </c>
+      <c r="K348" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L348" t="n">
         <v>1</v>
       </c>
@@ -12415,8 +12791,14 @@
         <v>0</v>
       </c>
       <c r="I349" t="inlineStr"/>
-      <c r="J349" t="inlineStr"/>
-      <c r="K349" t="inlineStr"/>
+      <c r="J349" t="n">
+        <v>183</v>
+      </c>
+      <c r="K349" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L349" t="n">
         <v>1</v>
       </c>
@@ -12448,8 +12830,14 @@
         <v>0</v>
       </c>
       <c r="I350" t="inlineStr"/>
-      <c r="J350" t="inlineStr"/>
-      <c r="K350" t="inlineStr"/>
+      <c r="J350" t="n">
+        <v>183</v>
+      </c>
+      <c r="K350" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L350" t="n">
         <v>1</v>
       </c>
@@ -12481,8 +12869,14 @@
         <v>0</v>
       </c>
       <c r="I351" t="inlineStr"/>
-      <c r="J351" t="inlineStr"/>
-      <c r="K351" t="inlineStr"/>
+      <c r="J351" t="n">
+        <v>183</v>
+      </c>
+      <c r="K351" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L351" t="n">
         <v>1</v>
       </c>
@@ -12514,8 +12908,14 @@
         <v>0</v>
       </c>
       <c r="I352" t="inlineStr"/>
-      <c r="J352" t="inlineStr"/>
-      <c r="K352" t="inlineStr"/>
+      <c r="J352" t="n">
+        <v>183</v>
+      </c>
+      <c r="K352" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L352" t="n">
         <v>1</v>
       </c>
@@ -12547,8 +12947,14 @@
         <v>0</v>
       </c>
       <c r="I353" t="inlineStr"/>
-      <c r="J353" t="inlineStr"/>
-      <c r="K353" t="inlineStr"/>
+      <c r="J353" t="n">
+        <v>183</v>
+      </c>
+      <c r="K353" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L353" t="n">
         <v>1</v>
       </c>
@@ -12580,8 +12986,14 @@
         <v>0</v>
       </c>
       <c r="I354" t="inlineStr"/>
-      <c r="J354" t="inlineStr"/>
-      <c r="K354" t="inlineStr"/>
+      <c r="J354" t="n">
+        <v>183</v>
+      </c>
+      <c r="K354" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L354" t="n">
         <v>1</v>
       </c>
@@ -12613,8 +13025,14 @@
         <v>0</v>
       </c>
       <c r="I355" t="inlineStr"/>
-      <c r="J355" t="inlineStr"/>
-      <c r="K355" t="inlineStr"/>
+      <c r="J355" t="n">
+        <v>183</v>
+      </c>
+      <c r="K355" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L355" t="n">
         <v>1</v>
       </c>
@@ -12646,8 +13064,14 @@
         <v>0</v>
       </c>
       <c r="I356" t="inlineStr"/>
-      <c r="J356" t="inlineStr"/>
-      <c r="K356" t="inlineStr"/>
+      <c r="J356" t="n">
+        <v>183</v>
+      </c>
+      <c r="K356" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L356" t="n">
         <v>1</v>
       </c>
@@ -12679,8 +13103,14 @@
         <v>0</v>
       </c>
       <c r="I357" t="inlineStr"/>
-      <c r="J357" t="inlineStr"/>
-      <c r="K357" t="inlineStr"/>
+      <c r="J357" t="n">
+        <v>183</v>
+      </c>
+      <c r="K357" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L357" t="n">
         <v>1</v>
       </c>
@@ -12712,8 +13142,14 @@
         <v>0</v>
       </c>
       <c r="I358" t="inlineStr"/>
-      <c r="J358" t="inlineStr"/>
-      <c r="K358" t="inlineStr"/>
+      <c r="J358" t="n">
+        <v>183</v>
+      </c>
+      <c r="K358" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L358" t="n">
         <v>1</v>
       </c>
@@ -12745,8 +13181,14 @@
         <v>0</v>
       </c>
       <c r="I359" t="inlineStr"/>
-      <c r="J359" t="inlineStr"/>
-      <c r="K359" t="inlineStr"/>
+      <c r="J359" t="n">
+        <v>183</v>
+      </c>
+      <c r="K359" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L359" t="n">
         <v>1</v>
       </c>
@@ -12778,8 +13220,14 @@
         <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
-      <c r="J360" t="inlineStr"/>
-      <c r="K360" t="inlineStr"/>
+      <c r="J360" t="n">
+        <v>183</v>
+      </c>
+      <c r="K360" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L360" t="n">
         <v>1</v>
       </c>
@@ -12811,8 +13259,14 @@
         <v>0</v>
       </c>
       <c r="I361" t="inlineStr"/>
-      <c r="J361" t="inlineStr"/>
-      <c r="K361" t="inlineStr"/>
+      <c r="J361" t="n">
+        <v>183</v>
+      </c>
+      <c r="K361" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L361" t="n">
         <v>1</v>
       </c>
@@ -12844,8 +13298,14 @@
         <v>0</v>
       </c>
       <c r="I362" t="inlineStr"/>
-      <c r="J362" t="inlineStr"/>
-      <c r="K362" t="inlineStr"/>
+      <c r="J362" t="n">
+        <v>183</v>
+      </c>
+      <c r="K362" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L362" t="n">
         <v>1</v>
       </c>
@@ -12877,8 +13337,14 @@
         <v>0</v>
       </c>
       <c r="I363" t="inlineStr"/>
-      <c r="J363" t="inlineStr"/>
-      <c r="K363" t="inlineStr"/>
+      <c r="J363" t="n">
+        <v>183</v>
+      </c>
+      <c r="K363" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L363" t="n">
         <v>1</v>
       </c>
@@ -12910,8 +13376,14 @@
         <v>0</v>
       </c>
       <c r="I364" t="inlineStr"/>
-      <c r="J364" t="inlineStr"/>
-      <c r="K364" t="inlineStr"/>
+      <c r="J364" t="n">
+        <v>183</v>
+      </c>
+      <c r="K364" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L364" t="n">
         <v>1</v>
       </c>
@@ -12943,8 +13415,14 @@
         <v>0</v>
       </c>
       <c r="I365" t="inlineStr"/>
-      <c r="J365" t="inlineStr"/>
-      <c r="K365" t="inlineStr"/>
+      <c r="J365" t="n">
+        <v>183</v>
+      </c>
+      <c r="K365" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L365" t="n">
         <v>1</v>
       </c>
@@ -12976,8 +13454,14 @@
         <v>0</v>
       </c>
       <c r="I366" t="inlineStr"/>
-      <c r="J366" t="inlineStr"/>
-      <c r="K366" t="inlineStr"/>
+      <c r="J366" t="n">
+        <v>183</v>
+      </c>
+      <c r="K366" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L366" t="n">
         <v>1</v>
       </c>
@@ -13009,8 +13493,14 @@
         <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
-      <c r="J367" t="inlineStr"/>
-      <c r="K367" t="inlineStr"/>
+      <c r="J367" t="n">
+        <v>183</v>
+      </c>
+      <c r="K367" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L367" t="n">
         <v>1</v>
       </c>
@@ -13042,8 +13532,14 @@
         <v>0</v>
       </c>
       <c r="I368" t="inlineStr"/>
-      <c r="J368" t="inlineStr"/>
-      <c r="K368" t="inlineStr"/>
+      <c r="J368" t="n">
+        <v>183</v>
+      </c>
+      <c r="K368" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L368" t="n">
         <v>1</v>
       </c>
@@ -13075,8 +13571,14 @@
         <v>0</v>
       </c>
       <c r="I369" t="inlineStr"/>
-      <c r="J369" t="inlineStr"/>
-      <c r="K369" t="inlineStr"/>
+      <c r="J369" t="n">
+        <v>183</v>
+      </c>
+      <c r="K369" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L369" t="n">
         <v>1</v>
       </c>
@@ -13108,8 +13610,14 @@
         <v>0</v>
       </c>
       <c r="I370" t="inlineStr"/>
-      <c r="J370" t="inlineStr"/>
-      <c r="K370" t="inlineStr"/>
+      <c r="J370" t="n">
+        <v>183</v>
+      </c>
+      <c r="K370" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L370" t="n">
         <v>1</v>
       </c>
@@ -13141,8 +13649,14 @@
         <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
-      <c r="J371" t="inlineStr"/>
-      <c r="K371" t="inlineStr"/>
+      <c r="J371" t="n">
+        <v>183</v>
+      </c>
+      <c r="K371" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L371" t="n">
         <v>1</v>
       </c>
@@ -13174,8 +13688,14 @@
         <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
-      <c r="J372" t="inlineStr"/>
-      <c r="K372" t="inlineStr"/>
+      <c r="J372" t="n">
+        <v>183</v>
+      </c>
+      <c r="K372" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L372" t="n">
         <v>1</v>
       </c>
@@ -13207,8 +13727,14 @@
         <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
-      <c r="J373" t="inlineStr"/>
-      <c r="K373" t="inlineStr"/>
+      <c r="J373" t="n">
+        <v>183</v>
+      </c>
+      <c r="K373" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L373" t="n">
         <v>1</v>
       </c>
@@ -13240,8 +13766,14 @@
         <v>0</v>
       </c>
       <c r="I374" t="inlineStr"/>
-      <c r="J374" t="inlineStr"/>
-      <c r="K374" t="inlineStr"/>
+      <c r="J374" t="n">
+        <v>183</v>
+      </c>
+      <c r="K374" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L374" t="n">
         <v>1</v>
       </c>
@@ -13273,8 +13805,14 @@
         <v>0</v>
       </c>
       <c r="I375" t="inlineStr"/>
-      <c r="J375" t="inlineStr"/>
-      <c r="K375" t="inlineStr"/>
+      <c r="J375" t="n">
+        <v>183</v>
+      </c>
+      <c r="K375" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L375" t="n">
         <v>1</v>
       </c>
@@ -13306,8 +13844,14 @@
         <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
-      <c r="J376" t="inlineStr"/>
-      <c r="K376" t="inlineStr"/>
+      <c r="J376" t="n">
+        <v>183</v>
+      </c>
+      <c r="K376" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L376" t="n">
         <v>1</v>
       </c>
@@ -13339,8 +13883,14 @@
         <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
-      <c r="J377" t="inlineStr"/>
-      <c r="K377" t="inlineStr"/>
+      <c r="J377" t="n">
+        <v>183</v>
+      </c>
+      <c r="K377" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L377" t="n">
         <v>1</v>
       </c>
@@ -13372,8 +13922,14 @@
         <v>0</v>
       </c>
       <c r="I378" t="inlineStr"/>
-      <c r="J378" t="inlineStr"/>
-      <c r="K378" t="inlineStr"/>
+      <c r="J378" t="n">
+        <v>183</v>
+      </c>
+      <c r="K378" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L378" t="n">
         <v>1</v>
       </c>
@@ -13405,8 +13961,14 @@
         <v>0</v>
       </c>
       <c r="I379" t="inlineStr"/>
-      <c r="J379" t="inlineStr"/>
-      <c r="K379" t="inlineStr"/>
+      <c r="J379" t="n">
+        <v>183</v>
+      </c>
+      <c r="K379" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L379" t="n">
         <v>1</v>
       </c>
@@ -13438,8 +14000,14 @@
         <v>0</v>
       </c>
       <c r="I380" t="inlineStr"/>
-      <c r="J380" t="inlineStr"/>
-      <c r="K380" t="inlineStr"/>
+      <c r="J380" t="n">
+        <v>183</v>
+      </c>
+      <c r="K380" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L380" t="n">
         <v>1</v>
       </c>
@@ -13471,8 +14039,14 @@
         <v>0</v>
       </c>
       <c r="I381" t="inlineStr"/>
-      <c r="J381" t="inlineStr"/>
-      <c r="K381" t="inlineStr"/>
+      <c r="J381" t="n">
+        <v>183</v>
+      </c>
+      <c r="K381" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L381" t="n">
         <v>1</v>
       </c>
@@ -13504,8 +14078,14 @@
         <v>0</v>
       </c>
       <c r="I382" t="inlineStr"/>
-      <c r="J382" t="inlineStr"/>
-      <c r="K382" t="inlineStr"/>
+      <c r="J382" t="n">
+        <v>183</v>
+      </c>
+      <c r="K382" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L382" t="n">
         <v>1</v>
       </c>
@@ -13537,8 +14117,14 @@
         <v>0</v>
       </c>
       <c r="I383" t="inlineStr"/>
-      <c r="J383" t="inlineStr"/>
-      <c r="K383" t="inlineStr"/>
+      <c r="J383" t="n">
+        <v>183</v>
+      </c>
+      <c r="K383" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L383" t="n">
         <v>1</v>
       </c>
@@ -13570,8 +14156,14 @@
         <v>0</v>
       </c>
       <c r="I384" t="inlineStr"/>
-      <c r="J384" t="inlineStr"/>
-      <c r="K384" t="inlineStr"/>
+      <c r="J384" t="n">
+        <v>183</v>
+      </c>
+      <c r="K384" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L384" t="n">
         <v>1</v>
       </c>
@@ -13603,8 +14195,14 @@
         <v>0</v>
       </c>
       <c r="I385" t="inlineStr"/>
-      <c r="J385" t="inlineStr"/>
-      <c r="K385" t="inlineStr"/>
+      <c r="J385" t="n">
+        <v>183</v>
+      </c>
+      <c r="K385" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L385" t="n">
         <v>1</v>
       </c>
@@ -13636,8 +14234,14 @@
         <v>0</v>
       </c>
       <c r="I386" t="inlineStr"/>
-      <c r="J386" t="inlineStr"/>
-      <c r="K386" t="inlineStr"/>
+      <c r="J386" t="n">
+        <v>183</v>
+      </c>
+      <c r="K386" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L386" t="n">
         <v>1</v>
       </c>
@@ -13669,8 +14273,14 @@
         <v>0</v>
       </c>
       <c r="I387" t="inlineStr"/>
-      <c r="J387" t="inlineStr"/>
-      <c r="K387" t="inlineStr"/>
+      <c r="J387" t="n">
+        <v>183</v>
+      </c>
+      <c r="K387" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L387" t="n">
         <v>1</v>
       </c>
@@ -13702,8 +14312,14 @@
         <v>0</v>
       </c>
       <c r="I388" t="inlineStr"/>
-      <c r="J388" t="inlineStr"/>
-      <c r="K388" t="inlineStr"/>
+      <c r="J388" t="n">
+        <v>183</v>
+      </c>
+      <c r="K388" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L388" t="n">
         <v>1</v>
       </c>
@@ -13735,8 +14351,14 @@
         <v>0</v>
       </c>
       <c r="I389" t="inlineStr"/>
-      <c r="J389" t="inlineStr"/>
-      <c r="K389" t="inlineStr"/>
+      <c r="J389" t="n">
+        <v>183</v>
+      </c>
+      <c r="K389" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L389" t="n">
         <v>1</v>
       </c>
@@ -13768,8 +14390,14 @@
         <v>0</v>
       </c>
       <c r="I390" t="inlineStr"/>
-      <c r="J390" t="inlineStr"/>
-      <c r="K390" t="inlineStr"/>
+      <c r="J390" t="n">
+        <v>183</v>
+      </c>
+      <c r="K390" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L390" t="n">
         <v>1</v>
       </c>
@@ -13801,8 +14429,14 @@
         <v>0</v>
       </c>
       <c r="I391" t="inlineStr"/>
-      <c r="J391" t="inlineStr"/>
-      <c r="K391" t="inlineStr"/>
+      <c r="J391" t="n">
+        <v>183</v>
+      </c>
+      <c r="K391" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L391" t="n">
         <v>1</v>
       </c>
@@ -13834,8 +14468,14 @@
         <v>0</v>
       </c>
       <c r="I392" t="inlineStr"/>
-      <c r="J392" t="inlineStr"/>
-      <c r="K392" t="inlineStr"/>
+      <c r="J392" t="n">
+        <v>183</v>
+      </c>
+      <c r="K392" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L392" t="n">
         <v>1</v>
       </c>
@@ -13867,8 +14507,14 @@
         <v>0</v>
       </c>
       <c r="I393" t="inlineStr"/>
-      <c r="J393" t="inlineStr"/>
-      <c r="K393" t="inlineStr"/>
+      <c r="J393" t="n">
+        <v>183</v>
+      </c>
+      <c r="K393" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L393" t="n">
         <v>1</v>
       </c>
@@ -13900,8 +14546,14 @@
         <v>0</v>
       </c>
       <c r="I394" t="inlineStr"/>
-      <c r="J394" t="inlineStr"/>
-      <c r="K394" t="inlineStr"/>
+      <c r="J394" t="n">
+        <v>183</v>
+      </c>
+      <c r="K394" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L394" t="n">
         <v>1</v>
       </c>
@@ -13933,8 +14585,14 @@
         <v>0</v>
       </c>
       <c r="I395" t="inlineStr"/>
-      <c r="J395" t="inlineStr"/>
-      <c r="K395" t="inlineStr"/>
+      <c r="J395" t="n">
+        <v>183</v>
+      </c>
+      <c r="K395" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L395" t="n">
         <v>1</v>
       </c>
@@ -13966,8 +14624,14 @@
         <v>0</v>
       </c>
       <c r="I396" t="inlineStr"/>
-      <c r="J396" t="inlineStr"/>
-      <c r="K396" t="inlineStr"/>
+      <c r="J396" t="n">
+        <v>183</v>
+      </c>
+      <c r="K396" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L396" t="n">
         <v>1</v>
       </c>
@@ -13999,8 +14663,14 @@
         <v>0</v>
       </c>
       <c r="I397" t="inlineStr"/>
-      <c r="J397" t="inlineStr"/>
-      <c r="K397" t="inlineStr"/>
+      <c r="J397" t="n">
+        <v>183</v>
+      </c>
+      <c r="K397" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L397" t="n">
         <v>1</v>
       </c>
@@ -14032,8 +14702,14 @@
         <v>0</v>
       </c>
       <c r="I398" t="inlineStr"/>
-      <c r="J398" t="inlineStr"/>
-      <c r="K398" t="inlineStr"/>
+      <c r="J398" t="n">
+        <v>183</v>
+      </c>
+      <c r="K398" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L398" t="n">
         <v>1</v>
       </c>
@@ -14065,8 +14741,14 @@
         <v>0</v>
       </c>
       <c r="I399" t="inlineStr"/>
-      <c r="J399" t="inlineStr"/>
-      <c r="K399" t="inlineStr"/>
+      <c r="J399" t="n">
+        <v>183</v>
+      </c>
+      <c r="K399" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L399" t="n">
         <v>1</v>
       </c>
@@ -14098,8 +14780,14 @@
         <v>0</v>
       </c>
       <c r="I400" t="inlineStr"/>
-      <c r="J400" t="inlineStr"/>
-      <c r="K400" t="inlineStr"/>
+      <c r="J400" t="n">
+        <v>183</v>
+      </c>
+      <c r="K400" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L400" t="n">
         <v>1</v>
       </c>
@@ -14131,8 +14819,14 @@
         <v>0</v>
       </c>
       <c r="I401" t="inlineStr"/>
-      <c r="J401" t="inlineStr"/>
-      <c r="K401" t="inlineStr"/>
+      <c r="J401" t="n">
+        <v>183</v>
+      </c>
+      <c r="K401" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L401" t="n">
         <v>1</v>
       </c>
@@ -14164,8 +14858,14 @@
         <v>0</v>
       </c>
       <c r="I402" t="inlineStr"/>
-      <c r="J402" t="inlineStr"/>
-      <c r="K402" t="inlineStr"/>
+      <c r="J402" t="n">
+        <v>183</v>
+      </c>
+      <c r="K402" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L402" t="n">
         <v>1</v>
       </c>
@@ -14197,8 +14897,14 @@
         <v>0</v>
       </c>
       <c r="I403" t="inlineStr"/>
-      <c r="J403" t="inlineStr"/>
-      <c r="K403" t="inlineStr"/>
+      <c r="J403" t="n">
+        <v>183</v>
+      </c>
+      <c r="K403" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L403" t="n">
         <v>1</v>
       </c>
@@ -14230,8 +14936,14 @@
         <v>0</v>
       </c>
       <c r="I404" t="inlineStr"/>
-      <c r="J404" t="inlineStr"/>
-      <c r="K404" t="inlineStr"/>
+      <c r="J404" t="n">
+        <v>183</v>
+      </c>
+      <c r="K404" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L404" t="n">
         <v>1</v>
       </c>
@@ -14263,8 +14975,14 @@
         <v>0</v>
       </c>
       <c r="I405" t="inlineStr"/>
-      <c r="J405" t="inlineStr"/>
-      <c r="K405" t="inlineStr"/>
+      <c r="J405" t="n">
+        <v>183</v>
+      </c>
+      <c r="K405" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L405" t="n">
         <v>1</v>
       </c>
@@ -14296,8 +15014,14 @@
         <v>0</v>
       </c>
       <c r="I406" t="inlineStr"/>
-      <c r="J406" t="inlineStr"/>
-      <c r="K406" t="inlineStr"/>
+      <c r="J406" t="n">
+        <v>183</v>
+      </c>
+      <c r="K406" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L406" t="n">
         <v>1</v>
       </c>
@@ -14329,8 +15053,14 @@
         <v>0</v>
       </c>
       <c r="I407" t="inlineStr"/>
-      <c r="J407" t="inlineStr"/>
-      <c r="K407" t="inlineStr"/>
+      <c r="J407" t="n">
+        <v>183</v>
+      </c>
+      <c r="K407" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L407" t="n">
         <v>1</v>
       </c>
@@ -14362,8 +15092,14 @@
         <v>0</v>
       </c>
       <c r="I408" t="inlineStr"/>
-      <c r="J408" t="inlineStr"/>
-      <c r="K408" t="inlineStr"/>
+      <c r="J408" t="n">
+        <v>183</v>
+      </c>
+      <c r="K408" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L408" t="n">
         <v>1</v>
       </c>
@@ -14395,8 +15131,14 @@
         <v>0</v>
       </c>
       <c r="I409" t="inlineStr"/>
-      <c r="J409" t="inlineStr"/>
-      <c r="K409" t="inlineStr"/>
+      <c r="J409" t="n">
+        <v>183</v>
+      </c>
+      <c r="K409" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L409" t="n">
         <v>1</v>
       </c>
@@ -14428,8 +15170,14 @@
         <v>0</v>
       </c>
       <c r="I410" t="inlineStr"/>
-      <c r="J410" t="inlineStr"/>
-      <c r="K410" t="inlineStr"/>
+      <c r="J410" t="n">
+        <v>183</v>
+      </c>
+      <c r="K410" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L410" t="n">
         <v>1</v>
       </c>
@@ -14461,8 +15209,14 @@
         <v>0</v>
       </c>
       <c r="I411" t="inlineStr"/>
-      <c r="J411" t="inlineStr"/>
-      <c r="K411" t="inlineStr"/>
+      <c r="J411" t="n">
+        <v>183</v>
+      </c>
+      <c r="K411" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L411" t="n">
         <v>1</v>
       </c>
@@ -14494,8 +15248,14 @@
         <v>0</v>
       </c>
       <c r="I412" t="inlineStr"/>
-      <c r="J412" t="inlineStr"/>
-      <c r="K412" t="inlineStr"/>
+      <c r="J412" t="n">
+        <v>183</v>
+      </c>
+      <c r="K412" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L412" t="n">
         <v>1</v>
       </c>
@@ -14527,8 +15287,14 @@
         <v>0</v>
       </c>
       <c r="I413" t="inlineStr"/>
-      <c r="J413" t="inlineStr"/>
-      <c r="K413" t="inlineStr"/>
+      <c r="J413" t="n">
+        <v>183</v>
+      </c>
+      <c r="K413" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L413" t="n">
         <v>1</v>
       </c>
@@ -14560,8 +15326,14 @@
         <v>0</v>
       </c>
       <c r="I414" t="inlineStr"/>
-      <c r="J414" t="inlineStr"/>
-      <c r="K414" t="inlineStr"/>
+      <c r="J414" t="n">
+        <v>183</v>
+      </c>
+      <c r="K414" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L414" t="n">
         <v>1</v>
       </c>
@@ -14593,8 +15365,14 @@
         <v>0</v>
       </c>
       <c r="I415" t="inlineStr"/>
-      <c r="J415" t="inlineStr"/>
-      <c r="K415" t="inlineStr"/>
+      <c r="J415" t="n">
+        <v>183</v>
+      </c>
+      <c r="K415" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L415" t="n">
         <v>1</v>
       </c>
@@ -14626,8 +15404,14 @@
         <v>0</v>
       </c>
       <c r="I416" t="inlineStr"/>
-      <c r="J416" t="inlineStr"/>
-      <c r="K416" t="inlineStr"/>
+      <c r="J416" t="n">
+        <v>183</v>
+      </c>
+      <c r="K416" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L416" t="n">
         <v>1</v>
       </c>
@@ -14659,8 +15443,14 @@
         <v>0</v>
       </c>
       <c r="I417" t="inlineStr"/>
-      <c r="J417" t="inlineStr"/>
-      <c r="K417" t="inlineStr"/>
+      <c r="J417" t="n">
+        <v>183</v>
+      </c>
+      <c r="K417" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L417" t="n">
         <v>1</v>
       </c>
@@ -14692,8 +15482,14 @@
         <v>0</v>
       </c>
       <c r="I418" t="inlineStr"/>
-      <c r="J418" t="inlineStr"/>
-      <c r="K418" t="inlineStr"/>
+      <c r="J418" t="n">
+        <v>183</v>
+      </c>
+      <c r="K418" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L418" t="n">
         <v>1</v>
       </c>
@@ -14725,8 +15521,14 @@
         <v>0</v>
       </c>
       <c r="I419" t="inlineStr"/>
-      <c r="J419" t="inlineStr"/>
-      <c r="K419" t="inlineStr"/>
+      <c r="J419" t="n">
+        <v>183</v>
+      </c>
+      <c r="K419" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L419" t="n">
         <v>1</v>
       </c>
@@ -14758,8 +15560,14 @@
         <v>0</v>
       </c>
       <c r="I420" t="inlineStr"/>
-      <c r="J420" t="inlineStr"/>
-      <c r="K420" t="inlineStr"/>
+      <c r="J420" t="n">
+        <v>183</v>
+      </c>
+      <c r="K420" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L420" t="n">
         <v>1</v>
       </c>
@@ -14791,8 +15599,14 @@
         <v>0</v>
       </c>
       <c r="I421" t="inlineStr"/>
-      <c r="J421" t="inlineStr"/>
-      <c r="K421" t="inlineStr"/>
+      <c r="J421" t="n">
+        <v>183</v>
+      </c>
+      <c r="K421" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L421" t="n">
         <v>1</v>
       </c>
@@ -14824,8 +15638,14 @@
         <v>0</v>
       </c>
       <c r="I422" t="inlineStr"/>
-      <c r="J422" t="inlineStr"/>
-      <c r="K422" t="inlineStr"/>
+      <c r="J422" t="n">
+        <v>183</v>
+      </c>
+      <c r="K422" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L422" t="n">
         <v>1</v>
       </c>
@@ -14857,8 +15677,14 @@
         <v>0</v>
       </c>
       <c r="I423" t="inlineStr"/>
-      <c r="J423" t="inlineStr"/>
-      <c r="K423" t="inlineStr"/>
+      <c r="J423" t="n">
+        <v>183</v>
+      </c>
+      <c r="K423" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L423" t="n">
         <v>1</v>
       </c>
@@ -14890,8 +15716,14 @@
         <v>0</v>
       </c>
       <c r="I424" t="inlineStr"/>
-      <c r="J424" t="inlineStr"/>
-      <c r="K424" t="inlineStr"/>
+      <c r="J424" t="n">
+        <v>183</v>
+      </c>
+      <c r="K424" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L424" t="n">
         <v>1</v>
       </c>
@@ -14923,8 +15755,14 @@
         <v>0</v>
       </c>
       <c r="I425" t="inlineStr"/>
-      <c r="J425" t="inlineStr"/>
-      <c r="K425" t="inlineStr"/>
+      <c r="J425" t="n">
+        <v>183</v>
+      </c>
+      <c r="K425" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L425" t="n">
         <v>1</v>
       </c>
@@ -14956,8 +15794,14 @@
         <v>0</v>
       </c>
       <c r="I426" t="inlineStr"/>
-      <c r="J426" t="inlineStr"/>
-      <c r="K426" t="inlineStr"/>
+      <c r="J426" t="n">
+        <v>183</v>
+      </c>
+      <c r="K426" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L426" t="n">
         <v>1</v>
       </c>
@@ -14989,8 +15833,14 @@
         <v>0</v>
       </c>
       <c r="I427" t="inlineStr"/>
-      <c r="J427" t="inlineStr"/>
-      <c r="K427" t="inlineStr"/>
+      <c r="J427" t="n">
+        <v>183</v>
+      </c>
+      <c r="K427" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L427" t="n">
         <v>1</v>
       </c>
@@ -15022,8 +15872,14 @@
         <v>0</v>
       </c>
       <c r="I428" t="inlineStr"/>
-      <c r="J428" t="inlineStr"/>
-      <c r="K428" t="inlineStr"/>
+      <c r="J428" t="n">
+        <v>183</v>
+      </c>
+      <c r="K428" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L428" t="n">
         <v>1</v>
       </c>
@@ -15055,8 +15911,14 @@
         <v>0</v>
       </c>
       <c r="I429" t="inlineStr"/>
-      <c r="J429" t="inlineStr"/>
-      <c r="K429" t="inlineStr"/>
+      <c r="J429" t="n">
+        <v>183</v>
+      </c>
+      <c r="K429" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L429" t="n">
         <v>1</v>
       </c>
@@ -15088,8 +15950,14 @@
         <v>0</v>
       </c>
       <c r="I430" t="inlineStr"/>
-      <c r="J430" t="inlineStr"/>
-      <c r="K430" t="inlineStr"/>
+      <c r="J430" t="n">
+        <v>183</v>
+      </c>
+      <c r="K430" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L430" t="n">
         <v>1</v>
       </c>
@@ -15121,8 +15989,14 @@
         <v>0</v>
       </c>
       <c r="I431" t="inlineStr"/>
-      <c r="J431" t="inlineStr"/>
-      <c r="K431" t="inlineStr"/>
+      <c r="J431" t="n">
+        <v>183</v>
+      </c>
+      <c r="K431" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L431" t="n">
         <v>1</v>
       </c>
@@ -15154,8 +16028,14 @@
         <v>0</v>
       </c>
       <c r="I432" t="inlineStr"/>
-      <c r="J432" t="inlineStr"/>
-      <c r="K432" t="inlineStr"/>
+      <c r="J432" t="n">
+        <v>183</v>
+      </c>
+      <c r="K432" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L432" t="n">
         <v>1</v>
       </c>
@@ -15187,8 +16067,14 @@
         <v>0</v>
       </c>
       <c r="I433" t="inlineStr"/>
-      <c r="J433" t="inlineStr"/>
-      <c r="K433" t="inlineStr"/>
+      <c r="J433" t="n">
+        <v>183</v>
+      </c>
+      <c r="K433" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L433" t="n">
         <v>1</v>
       </c>
@@ -15220,8 +16106,14 @@
         <v>0</v>
       </c>
       <c r="I434" t="inlineStr"/>
-      <c r="J434" t="inlineStr"/>
-      <c r="K434" t="inlineStr"/>
+      <c r="J434" t="n">
+        <v>183</v>
+      </c>
+      <c r="K434" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L434" t="n">
         <v>1</v>
       </c>
@@ -15253,8 +16145,14 @@
         <v>0</v>
       </c>
       <c r="I435" t="inlineStr"/>
-      <c r="J435" t="inlineStr"/>
-      <c r="K435" t="inlineStr"/>
+      <c r="J435" t="n">
+        <v>183</v>
+      </c>
+      <c r="K435" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L435" t="n">
         <v>1</v>
       </c>
@@ -15286,8 +16184,14 @@
         <v>0</v>
       </c>
       <c r="I436" t="inlineStr"/>
-      <c r="J436" t="inlineStr"/>
-      <c r="K436" t="inlineStr"/>
+      <c r="J436" t="n">
+        <v>183</v>
+      </c>
+      <c r="K436" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L436" t="n">
         <v>1</v>
       </c>
@@ -15319,8 +16223,14 @@
         <v>0</v>
       </c>
       <c r="I437" t="inlineStr"/>
-      <c r="J437" t="inlineStr"/>
-      <c r="K437" t="inlineStr"/>
+      <c r="J437" t="n">
+        <v>183</v>
+      </c>
+      <c r="K437" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L437" t="n">
         <v>1</v>
       </c>
@@ -15352,8 +16262,14 @@
         <v>0</v>
       </c>
       <c r="I438" t="inlineStr"/>
-      <c r="J438" t="inlineStr"/>
-      <c r="K438" t="inlineStr"/>
+      <c r="J438" t="n">
+        <v>183</v>
+      </c>
+      <c r="K438" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L438" t="n">
         <v>1</v>
       </c>
@@ -15385,8 +16301,14 @@
         <v>0</v>
       </c>
       <c r="I439" t="inlineStr"/>
-      <c r="J439" t="inlineStr"/>
-      <c r="K439" t="inlineStr"/>
+      <c r="J439" t="n">
+        <v>183</v>
+      </c>
+      <c r="K439" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L439" t="n">
         <v>1</v>
       </c>
@@ -15418,8 +16340,14 @@
         <v>0</v>
       </c>
       <c r="I440" t="inlineStr"/>
-      <c r="J440" t="inlineStr"/>
-      <c r="K440" t="inlineStr"/>
+      <c r="J440" t="n">
+        <v>183</v>
+      </c>
+      <c r="K440" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L440" t="n">
         <v>1</v>
       </c>
@@ -15451,8 +16379,14 @@
         <v>0</v>
       </c>
       <c r="I441" t="inlineStr"/>
-      <c r="J441" t="inlineStr"/>
-      <c r="K441" t="inlineStr"/>
+      <c r="J441" t="n">
+        <v>183</v>
+      </c>
+      <c r="K441" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L441" t="n">
         <v>1</v>
       </c>
@@ -15484,8 +16418,14 @@
         <v>0</v>
       </c>
       <c r="I442" t="inlineStr"/>
-      <c r="J442" t="inlineStr"/>
-      <c r="K442" t="inlineStr"/>
+      <c r="J442" t="n">
+        <v>183</v>
+      </c>
+      <c r="K442" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L442" t="n">
         <v>1</v>
       </c>
@@ -15517,8 +16457,14 @@
         <v>0</v>
       </c>
       <c r="I443" t="inlineStr"/>
-      <c r="J443" t="inlineStr"/>
-      <c r="K443" t="inlineStr"/>
+      <c r="J443" t="n">
+        <v>183</v>
+      </c>
+      <c r="K443" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L443" t="n">
         <v>1</v>
       </c>
@@ -15550,8 +16496,14 @@
         <v>0</v>
       </c>
       <c r="I444" t="inlineStr"/>
-      <c r="J444" t="inlineStr"/>
-      <c r="K444" t="inlineStr"/>
+      <c r="J444" t="n">
+        <v>183</v>
+      </c>
+      <c r="K444" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L444" t="n">
         <v>1</v>
       </c>
@@ -15583,8 +16535,14 @@
         <v>0</v>
       </c>
       <c r="I445" t="inlineStr"/>
-      <c r="J445" t="inlineStr"/>
-      <c r="K445" t="inlineStr"/>
+      <c r="J445" t="n">
+        <v>183</v>
+      </c>
+      <c r="K445" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L445" t="n">
         <v>1</v>
       </c>
@@ -15616,8 +16574,14 @@
         <v>0</v>
       </c>
       <c r="I446" t="inlineStr"/>
-      <c r="J446" t="inlineStr"/>
-      <c r="K446" t="inlineStr"/>
+      <c r="J446" t="n">
+        <v>183</v>
+      </c>
+      <c r="K446" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L446" t="n">
         <v>1</v>
       </c>
@@ -15649,8 +16613,14 @@
         <v>0</v>
       </c>
       <c r="I447" t="inlineStr"/>
-      <c r="J447" t="inlineStr"/>
-      <c r="K447" t="inlineStr"/>
+      <c r="J447" t="n">
+        <v>183</v>
+      </c>
+      <c r="K447" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L447" t="n">
         <v>1</v>
       </c>
@@ -15682,8 +16652,14 @@
         <v>0</v>
       </c>
       <c r="I448" t="inlineStr"/>
-      <c r="J448" t="inlineStr"/>
-      <c r="K448" t="inlineStr"/>
+      <c r="J448" t="n">
+        <v>183</v>
+      </c>
+      <c r="K448" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L448" t="n">
         <v>1</v>
       </c>
@@ -15715,8 +16691,14 @@
         <v>0</v>
       </c>
       <c r="I449" t="inlineStr"/>
-      <c r="J449" t="inlineStr"/>
-      <c r="K449" t="inlineStr"/>
+      <c r="J449" t="n">
+        <v>183</v>
+      </c>
+      <c r="K449" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L449" t="n">
         <v>1</v>
       </c>
@@ -15748,8 +16730,14 @@
         <v>0</v>
       </c>
       <c r="I450" t="inlineStr"/>
-      <c r="J450" t="inlineStr"/>
-      <c r="K450" t="inlineStr"/>
+      <c r="J450" t="n">
+        <v>183</v>
+      </c>
+      <c r="K450" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L450" t="n">
         <v>1</v>
       </c>
@@ -15781,8 +16769,14 @@
         <v>0</v>
       </c>
       <c r="I451" t="inlineStr"/>
-      <c r="J451" t="inlineStr"/>
-      <c r="K451" t="inlineStr"/>
+      <c r="J451" t="n">
+        <v>183</v>
+      </c>
+      <c r="K451" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L451" t="n">
         <v>1</v>
       </c>
@@ -15814,8 +16808,14 @@
         <v>0</v>
       </c>
       <c r="I452" t="inlineStr"/>
-      <c r="J452" t="inlineStr"/>
-      <c r="K452" t="inlineStr"/>
+      <c r="J452" t="n">
+        <v>183</v>
+      </c>
+      <c r="K452" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L452" t="n">
         <v>1</v>
       </c>
@@ -15847,8 +16847,14 @@
         <v>0</v>
       </c>
       <c r="I453" t="inlineStr"/>
-      <c r="J453" t="inlineStr"/>
-      <c r="K453" t="inlineStr"/>
+      <c r="J453" t="n">
+        <v>183</v>
+      </c>
+      <c r="K453" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L453" t="n">
         <v>1</v>
       </c>
@@ -15880,8 +16886,14 @@
         <v>0</v>
       </c>
       <c r="I454" t="inlineStr"/>
-      <c r="J454" t="inlineStr"/>
-      <c r="K454" t="inlineStr"/>
+      <c r="J454" t="n">
+        <v>183</v>
+      </c>
+      <c r="K454" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L454" t="n">
         <v>1</v>
       </c>
@@ -15913,8 +16925,14 @@
         <v>0</v>
       </c>
       <c r="I455" t="inlineStr"/>
-      <c r="J455" t="inlineStr"/>
-      <c r="K455" t="inlineStr"/>
+      <c r="J455" t="n">
+        <v>183</v>
+      </c>
+      <c r="K455" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L455" t="n">
         <v>1</v>
       </c>
@@ -15946,8 +16964,14 @@
         <v>0</v>
       </c>
       <c r="I456" t="inlineStr"/>
-      <c r="J456" t="inlineStr"/>
-      <c r="K456" t="inlineStr"/>
+      <c r="J456" t="n">
+        <v>183</v>
+      </c>
+      <c r="K456" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L456" t="n">
         <v>1</v>
       </c>
@@ -15979,8 +17003,14 @@
         <v>0</v>
       </c>
       <c r="I457" t="inlineStr"/>
-      <c r="J457" t="inlineStr"/>
-      <c r="K457" t="inlineStr"/>
+      <c r="J457" t="n">
+        <v>183</v>
+      </c>
+      <c r="K457" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L457" t="n">
         <v>1</v>
       </c>
@@ -16012,8 +17042,14 @@
         <v>0</v>
       </c>
       <c r="I458" t="inlineStr"/>
-      <c r="J458" t="inlineStr"/>
-      <c r="K458" t="inlineStr"/>
+      <c r="J458" t="n">
+        <v>183</v>
+      </c>
+      <c r="K458" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L458" t="n">
         <v>1</v>
       </c>
@@ -16045,8 +17081,14 @@
         <v>0</v>
       </c>
       <c r="I459" t="inlineStr"/>
-      <c r="J459" t="inlineStr"/>
-      <c r="K459" t="inlineStr"/>
+      <c r="J459" t="n">
+        <v>183</v>
+      </c>
+      <c r="K459" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L459" t="n">
         <v>1</v>
       </c>
@@ -16078,8 +17120,14 @@
         <v>0</v>
       </c>
       <c r="I460" t="inlineStr"/>
-      <c r="J460" t="inlineStr"/>
-      <c r="K460" t="inlineStr"/>
+      <c r="J460" t="n">
+        <v>183</v>
+      </c>
+      <c r="K460" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L460" t="n">
         <v>1</v>
       </c>
